--- a/excel-beginner-tutorial_workout.xlsx
+++ b/excel-beginner-tutorial_workout.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects\microsoft-excel-tutorial-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB0CA13-D2D5-4F22-90B6-D563F5ACDF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD33637-6043-471D-9937-36240C535E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="7" activeTab="15" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1830" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1881" uniqueCount="956">
   <si>
     <t>Reg No.</t>
   </si>
@@ -2603,9 +2603,6 @@
     <t>William.Gietz@company.com</t>
   </si>
   <si>
-    <t>Department</t>
-  </si>
-  <si>
     <t>=find()</t>
   </si>
   <si>
@@ -2655,6 +2652,300 @@
   </si>
   <si>
     <t>23:17:40</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>Reg No</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>Walker</t>
+  </si>
+  <si>
+    <t>Velma</t>
+  </si>
+  <si>
+    <t>Clemons</t>
+  </si>
+  <si>
+    <t>Kibo</t>
+  </si>
+  <si>
+    <t>Underwood</t>
+  </si>
+  <si>
+    <t>Louis</t>
+  </si>
+  <si>
+    <t>Mcgee</t>
+  </si>
+  <si>
+    <t>Phyllis</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>Zenaida</t>
+  </si>
+  <si>
+    <t>Decker</t>
+  </si>
+  <si>
+    <t>Gillian</t>
+  </si>
+  <si>
+    <t>Tillman</t>
+  </si>
+  <si>
+    <t>Constance</t>
+  </si>
+  <si>
+    <t>Boone</t>
+  </si>
+  <si>
+    <t>Giselle</t>
+  </si>
+  <si>
+    <t>Lancaster</t>
+  </si>
+  <si>
+    <t>Kirsten</t>
+  </si>
+  <si>
+    <t>Mcdowell</t>
+  </si>
+  <si>
+    <t>Solomon</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>Merrill</t>
+  </si>
+  <si>
+    <t>Carney</t>
+  </si>
+  <si>
+    <t>Hakeem</t>
+  </si>
+  <si>
+    <t>Gillespie</t>
+  </si>
+  <si>
+    <t>Hayden</t>
+  </si>
+  <si>
+    <t>Boyer</t>
+  </si>
+  <si>
+    <t>Griffin</t>
+  </si>
+  <si>
+    <t>Mcleod</t>
+  </si>
+  <si>
+    <t>Allistair</t>
+  </si>
+  <si>
+    <t>Patton</t>
+  </si>
+  <si>
+    <t>Rina</t>
+  </si>
+  <si>
+    <t>Slater</t>
+  </si>
+  <si>
+    <t>Caldwell</t>
+  </si>
+  <si>
+    <t>Skinner</t>
+  </si>
+  <si>
+    <t>Portia</t>
+  </si>
+  <si>
+    <t>Galloway</t>
+  </si>
+  <si>
+    <t>Noelle</t>
+  </si>
+  <si>
+    <t>Valentine</t>
+  </si>
+  <si>
+    <t>Clay</t>
+  </si>
+  <si>
+    <t>Stephanie</t>
+  </si>
+  <si>
+    <t>Kent</t>
+  </si>
+  <si>
+    <t>Axel</t>
+  </si>
+  <si>
+    <t>Petty</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Morales</t>
+  </si>
+  <si>
+    <t>Fuller</t>
+  </si>
+  <si>
+    <t>Bush</t>
+  </si>
+  <si>
+    <t>Quinn</t>
+  </si>
+  <si>
+    <t>Mayo</t>
+  </si>
+  <si>
+    <t>Marcia</t>
+  </si>
+  <si>
+    <t>Shepard</t>
+  </si>
+  <si>
+    <t>Kieran</t>
+  </si>
+  <si>
+    <t>Moody</t>
+  </si>
+  <si>
+    <t>Brielle</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Jerome</t>
+  </si>
+  <si>
+    <t>Buckley</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Foreman</t>
+  </si>
+  <si>
+    <t>Gisela</t>
+  </si>
+  <si>
+    <t>Robertson</t>
+  </si>
+  <si>
+    <t>Sylvia</t>
+  </si>
+  <si>
+    <t>Mercedes</t>
+  </si>
+  <si>
+    <t>Logan</t>
+  </si>
+  <si>
+    <t>Madden</t>
+  </si>
+  <si>
+    <t>Ryan</t>
+  </si>
+  <si>
+    <t>Herman</t>
+  </si>
+  <si>
+    <t>Cora</t>
+  </si>
+  <si>
+    <t>Frazier</t>
+  </si>
+  <si>
+    <t>Yolanda</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Hadassah</t>
+  </si>
+  <si>
+    <t>Lowe</t>
+  </si>
+  <si>
+    <t>Ingrid</t>
+  </si>
+  <si>
+    <t>Yang</t>
+  </si>
+  <si>
+    <t>Trevor</t>
+  </si>
+  <si>
+    <t>Spence</t>
+  </si>
+  <si>
+    <t>Iola</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>Kitra</t>
+  </si>
+  <si>
+    <t>Sparks</t>
+  </si>
+  <si>
+    <t>Carly</t>
+  </si>
+  <si>
+    <t>Bray</t>
+  </si>
+  <si>
+    <t>Leilani</t>
+  </si>
+  <si>
+    <t>Beard</t>
+  </si>
+  <si>
+    <t>Cameron</t>
+  </si>
+  <si>
+    <t>Bowen</t>
+  </si>
+  <si>
+    <t>Hilda</t>
+  </si>
+  <si>
+    <t>Oneill</t>
+  </si>
+  <si>
+    <t>Ori</t>
+  </si>
+  <si>
+    <t>Short</t>
+  </si>
+  <si>
+    <t>Xandra</t>
+  </si>
+  <si>
+    <t>Cardenas</t>
   </si>
 </sst>
 </file>
@@ -2892,7 +3183,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2946,12 +3237,13 @@
     <xf numFmtId="21" fontId="0" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -3476,6 +3768,131 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Alternate Process 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10B4C220-3877-4510-9540-6AAED6FA9BBA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11620500" y="238125"/>
+          <a:ext cx="3267075" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Get the name of the Departement in Column in column E using Vlookup with the help of column G and H.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4681,7 +5098,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> funtion</a:t>
+            <a:t> formula</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="1100">
@@ -4696,7 +5113,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> and extract</a:t>
+            <a:t> in column D and E to extract</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN" sz="1100" baseline="0">
@@ -4711,7 +5128,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> first name and last name in column D and E respectively.</a:t>
+            <a:t> first name and last name from column A and B.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4745,7 +5162,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2) using the results in column D and E. Get the Full name in colum F</a:t>
+            <a:t>2) Using the results in column D and E. Get the Full name in colum F</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -4766,6 +5183,489 @@
             <a:tabLst/>
             <a:defRPr/>
           </a:pPr>
+          <a:endParaRPr lang="en-IN">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Alternate Process 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B5102CB-723B-492A-81EB-0F16D0458CC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14268450" y="1181099"/>
+          <a:ext cx="3219449" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Get Email ID in column D in the below format</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>          firstname.lastname@company.com</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>2) Remove .</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> character from phone number Column E and convert to number format</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>3) Get years of experience in column K or L using hire date</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Alternate Process 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3192A4-A4E9-4FB0-9951-C39FA9882F11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9391651" y="247651"/>
+          <a:ext cx="3771900" cy="590550"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> Convert the given data into a table and try all the funtions that we did eariler and note down the differences.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2790825</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>771525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Alternate Process 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F063C525-034F-4DEF-B778-E6A030FFBBDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9782175" y="2838450"/>
+          <a:ext cx="3267075" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartAlternateProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>1)</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> For the given Rank in cell B15 get all the details from the table using VlookUp.</a:t>
+          </a:r>
           <a:endParaRPr lang="en-IN">
             <a:ln>
               <a:noFill/>
@@ -5417,15 +6317,15 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2151C0B-73BA-4D05-A62D-E4D9FD47320B}">
-  <dimension ref="A1:P21"/>
+  <dimension ref="A1:P22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="90.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="47.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5703125" bestFit="1" customWidth="1"/>
@@ -5704,10 +6604,6 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I14" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -5716,44 +6612,59 @@
       <c r="P14" s="2"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I15" s="2" t="s">
+      <c r="A15" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="I16" s="2" t="s">
+      <c r="B16" s="45"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="17" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I17" s="2" t="s">
+      <c r="B17" s="45"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J17" s="18"/>
-    </row>
-    <row r="18" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I18" s="2" t="s">
+      <c r="B18" s="51"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="19" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I19" s="2" t="s">
+      <c r="B19" s="45"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="20" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I20" s="2" t="s">
+      <c r="B20" s="45"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="21" spans="9:10" x14ac:dyDescent="0.25">
-      <c r="I21" s="2" t="s">
+      <c r="B21" s="45"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>270</v>
       </c>
+      <c r="B22" s="45"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5762,7 +6673,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H18" sqref="H18:I21"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="36.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6080,7 +6991,7 @@
   <dimension ref="A1:H108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6089,7 +7000,7 @@
     <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.85546875" bestFit="1" customWidth="1"/>
@@ -6097,20 +7008,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="E1" t="s">
-        <v>841</v>
+      <c r="E1" s="2" t="s">
+        <v>717</v>
       </c>
       <c r="G1" t="s">
         <v>388</v>
@@ -7782,6 +8693,8 @@
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7790,7 +8703,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8132,7 +9045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59B5EA-5F36-4506-9B80-2736CCDF45D1}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -11092,10 +12005,10 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="47" t="s">
+      <c r="C1" s="49" t="s">
         <v>304</v>
       </c>
-      <c r="D1" s="47"/>
+      <c r="D1" s="49"/>
       <c r="E1"/>
       <c r="F1" s="2" t="s">
         <v>310</v>
@@ -11172,7 +12085,7 @@
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="M4" s="48"/>
+      <c r="M4" s="47"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -11471,34 +12384,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="49" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="49" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="49" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="49" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="49" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
       <c r="P1" s="14" t="s">
@@ -11533,9 +12446,9 @@
       <c r="G2" s="16">
         <v>70</v>
       </c>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
       <c r="S2" t="s">
         <v>305</v>
       </c>
@@ -11562,9 +12475,9 @@
       <c r="G3" s="16">
         <v>73</v>
       </c>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="48"/>
       <c r="S3" t="s">
         <v>306</v>
       </c>
@@ -11591,9 +12504,9 @@
       <c r="G4" s="16">
         <v>72</v>
       </c>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="16" t="s">
@@ -11617,9 +12530,9 @@
       <c r="G5" s="16">
         <v>77</v>
       </c>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
       <c r="P5" s="4" t="s">
         <v>114</v>
       </c>
@@ -11652,9 +12565,9 @@
       <c r="G6" s="16">
         <v>53</v>
       </c>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
+      <c r="H6" s="48"/>
+      <c r="I6" s="48"/>
+      <c r="J6" s="48"/>
       <c r="P6" s="4" t="s">
         <v>119</v>
       </c>
@@ -11683,9 +12596,9 @@
       <c r="G7" s="16">
         <v>92</v>
       </c>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
+      <c r="H7" s="48"/>
+      <c r="I7" s="48"/>
+      <c r="J7" s="48"/>
       <c r="P7" s="4" t="s">
         <v>124</v>
       </c>
@@ -11714,9 +12627,9 @@
       <c r="G8" s="16">
         <v>89</v>
       </c>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
+      <c r="H8" s="48"/>
+      <c r="I8" s="48"/>
+      <c r="J8" s="48"/>
       <c r="P8" s="4" t="s">
         <v>129</v>
       </c>
@@ -11745,9 +12658,9 @@
       <c r="G9" s="16">
         <v>86</v>
       </c>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="16" t="s">
@@ -11771,9 +12684,9 @@
       <c r="G10" s="16">
         <v>92</v>
       </c>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
+      <c r="H10" s="48"/>
+      <c r="I10" s="48"/>
+      <c r="J10" s="48"/>
       <c r="O10" s="2"/>
     </row>
     <row r="11" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
@@ -11798,9 +12711,9 @@
       <c r="G11" s="16">
         <v>68</v>
       </c>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
+      <c r="H11" s="48"/>
+      <c r="I11" s="48"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="16" t="s">
@@ -11824,9 +12737,9 @@
       <c r="G12" s="16">
         <v>79</v>
       </c>
-      <c r="H12" s="50"/>
-      <c r="I12" s="50"/>
-      <c r="J12" s="50"/>
+      <c r="H12" s="48"/>
+      <c r="I12" s="48"/>
+      <c r="J12" s="48"/>
     </row>
     <row r="13" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
@@ -11850,9 +12763,9 @@
       <c r="G13" s="16">
         <v>41</v>
       </c>
-      <c r="H13" s="50"/>
-      <c r="I13" s="50"/>
-      <c r="J13" s="50"/>
+      <c r="H13" s="48"/>
+      <c r="I13" s="48"/>
+      <c r="J13" s="48"/>
     </row>
     <row r="14" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
@@ -11876,9 +12789,9 @@
       <c r="G14" s="16">
         <v>97</v>
       </c>
-      <c r="H14" s="50"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="50"/>
+      <c r="H14" s="48"/>
+      <c r="I14" s="48"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" spans="1:19" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="16" t="s">
@@ -11902,9 +12815,9 @@
       <c r="G15" s="16">
         <v>78</v>
       </c>
-      <c r="H15" s="50"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="50"/>
+      <c r="H15" s="48"/>
+      <c r="I15" s="48"/>
+      <c r="J15" s="48"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -11932,9 +12845,9 @@
       <c r="G16" s="16">
         <v>61</v>
       </c>
-      <c r="H16" s="50"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="50"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="16" t="s">
@@ -11958,9 +12871,9 @@
       <c r="G17" s="16">
         <v>51</v>
       </c>
-      <c r="H17" s="50"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="50"/>
+      <c r="H17" s="48"/>
+      <c r="I17" s="48"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
@@ -11984,9 +12897,9 @@
       <c r="G18" s="16">
         <v>39</v>
       </c>
-      <c r="H18" s="50"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="50"/>
+      <c r="H18" s="48"/>
+      <c r="I18" s="48"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="16" t="s">
@@ -12010,9 +12923,9 @@
       <c r="G19" s="16">
         <v>98</v>
       </c>
-      <c r="H19" s="50"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="50"/>
+      <c r="H19" s="48"/>
+      <c r="I19" s="48"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="16" t="s">
@@ -12036,9 +12949,9 @@
       <c r="G20" s="16">
         <v>77</v>
       </c>
-      <c r="H20" s="50"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="50"/>
+      <c r="H20" s="48"/>
+      <c r="I20" s="48"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="16" t="s">
@@ -12062,9 +12975,9 @@
       <c r="G21" s="16">
         <v>46</v>
       </c>
-      <c r="H21" s="50"/>
-      <c r="I21" s="50"/>
-      <c r="J21" s="50"/>
+      <c r="H21" s="48"/>
+      <c r="I21" s="48"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="16" t="s">
@@ -12088,9 +13001,9 @@
       <c r="G22" s="16">
         <v>41</v>
       </c>
-      <c r="H22" s="50"/>
-      <c r="I22" s="50"/>
-      <c r="J22" s="50"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="16" t="s">
@@ -12114,9 +13027,9 @@
       <c r="G23" s="16">
         <v>94</v>
       </c>
-      <c r="H23" s="50"/>
-      <c r="I23" s="50"/>
-      <c r="J23" s="50"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="16" t="s">
@@ -12140,9 +13053,9 @@
       <c r="G24" s="16">
         <v>50</v>
       </c>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="50"/>
+      <c r="H24" s="48"/>
+      <c r="I24" s="48"/>
+      <c r="J24" s="48"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="16" t="s">
@@ -12166,9 +13079,9 @@
       <c r="G25" s="16">
         <v>78</v>
       </c>
-      <c r="H25" s="50"/>
-      <c r="I25" s="50"/>
-      <c r="J25" s="50"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="16" t="s">
@@ -12192,9 +13105,9 @@
       <c r="G26" s="16">
         <v>95</v>
       </c>
-      <c r="H26" s="50"/>
-      <c r="I26" s="50"/>
-      <c r="J26" s="50"/>
+      <c r="H26" s="48"/>
+      <c r="I26" s="48"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="16" t="s">
@@ -12218,9 +13131,9 @@
       <c r="G27" s="16">
         <v>99</v>
       </c>
-      <c r="H27" s="50"/>
-      <c r="I27" s="50"/>
-      <c r="J27" s="50"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
@@ -12244,9 +13157,9 @@
       <c r="G28" s="16">
         <v>55</v>
       </c>
-      <c r="H28" s="50"/>
-      <c r="I28" s="50"/>
-      <c r="J28" s="50"/>
+      <c r="H28" s="48"/>
+      <c r="I28" s="48"/>
+      <c r="J28" s="48"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="16" t="s">
@@ -12270,9 +13183,9 @@
       <c r="G29" s="16">
         <v>80</v>
       </c>
-      <c r="H29" s="50"/>
-      <c r="I29" s="50"/>
-      <c r="J29" s="50"/>
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="48"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="16" t="s">
@@ -12296,9 +13209,9 @@
       <c r="G30" s="16">
         <v>71</v>
       </c>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
+      <c r="H30" s="48"/>
+      <c r="I30" s="48"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="16" t="s">
@@ -12322,9 +13235,9 @@
       <c r="G31" s="16">
         <v>47</v>
       </c>
-      <c r="H31" s="50"/>
-      <c r="I31" s="50"/>
-      <c r="J31" s="50"/>
+      <c r="H31" s="48"/>
+      <c r="I31" s="48"/>
+      <c r="J31" s="48"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="16" t="s">
@@ -12348,9 +13261,9 @@
       <c r="G32" s="16">
         <v>78</v>
       </c>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
+      <c r="H32" s="48"/>
+      <c r="I32" s="48"/>
+      <c r="J32" s="48"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="16" t="s">
@@ -12374,9 +13287,9 @@
       <c r="G33" s="16">
         <v>83</v>
       </c>
-      <c r="H33" s="50"/>
-      <c r="I33" s="50"/>
-      <c r="J33" s="50"/>
+      <c r="H33" s="48"/>
+      <c r="I33" s="48"/>
+      <c r="J33" s="48"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="16" t="s">
@@ -12400,9 +13313,9 @@
       <c r="G34" s="16">
         <v>65</v>
       </c>
-      <c r="H34" s="50"/>
-      <c r="I34" s="50"/>
-      <c r="J34" s="50"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="48"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="16" t="s">
@@ -12426,9 +13339,9 @@
       <c r="G35" s="16">
         <v>65</v>
       </c>
-      <c r="H35" s="50"/>
-      <c r="I35" s="50"/>
-      <c r="J35" s="50"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="48"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="16" t="s">
@@ -12452,9 +13365,9 @@
       <c r="G36" s="16">
         <v>94</v>
       </c>
-      <c r="H36" s="50"/>
-      <c r="I36" s="50"/>
-      <c r="J36" s="50"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="48"/>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="16" t="s">
@@ -12478,9 +13391,9 @@
       <c r="G37" s="16">
         <v>87</v>
       </c>
-      <c r="H37" s="50"/>
-      <c r="I37" s="50"/>
-      <c r="J37" s="50"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="48"/>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="16" t="s">
@@ -12504,9 +13417,9 @@
       <c r="G38" s="16">
         <v>75</v>
       </c>
-      <c r="H38" s="50"/>
-      <c r="I38" s="50"/>
-      <c r="J38" s="50"/>
+      <c r="H38" s="48"/>
+      <c r="I38" s="48"/>
+      <c r="J38" s="48"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="16" t="s">
@@ -12530,9 +13443,9 @@
       <c r="G39" s="16">
         <v>62</v>
       </c>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="50"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="16" t="s">
@@ -12556,9 +13469,9 @@
       <c r="G40" s="16">
         <v>63</v>
       </c>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="50"/>
+      <c r="H40" s="48"/>
+      <c r="I40" s="48"/>
+      <c r="J40" s="48"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="16" t="s">
@@ -12582,9 +13495,9 @@
       <c r="G41" s="16">
         <v>75</v>
       </c>
-      <c r="H41" s="50"/>
-      <c r="I41" s="50"/>
-      <c r="J41" s="50"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="16" t="s">
@@ -12608,9 +13521,9 @@
       <c r="G42" s="16">
         <v>72</v>
       </c>
-      <c r="H42" s="50"/>
-      <c r="I42" s="50"/>
-      <c r="J42" s="50"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="16" t="s">
@@ -12634,9 +13547,9 @@
       <c r="G43" s="16">
         <v>67</v>
       </c>
-      <c r="H43" s="50"/>
-      <c r="I43" s="50"/>
-      <c r="J43" s="50"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="16" t="s">
@@ -12660,9 +13573,9 @@
       <c r="G44" s="16">
         <v>83</v>
       </c>
-      <c r="H44" s="50"/>
-      <c r="I44" s="50"/>
-      <c r="J44" s="50"/>
+      <c r="H44" s="48"/>
+      <c r="I44" s="48"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="16" t="s">
@@ -12686,9 +13599,9 @@
       <c r="G45" s="16">
         <v>87</v>
       </c>
-      <c r="H45" s="50"/>
-      <c r="I45" s="50"/>
-      <c r="J45" s="50"/>
+      <c r="H45" s="48"/>
+      <c r="I45" s="48"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="16" t="s">
@@ -12712,9 +13625,9 @@
       <c r="G46" s="16">
         <v>88</v>
       </c>
-      <c r="H46" s="50"/>
-      <c r="I46" s="50"/>
-      <c r="J46" s="50"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="16" t="s">
@@ -12738,9 +13651,9 @@
       <c r="G47" s="16">
         <v>80</v>
       </c>
-      <c r="H47" s="50"/>
-      <c r="I47" s="50"/>
-      <c r="J47" s="50"/>
+      <c r="H47" s="48"/>
+      <c r="I47" s="48"/>
+      <c r="J47" s="48"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="16" t="s">
@@ -12764,9 +13677,9 @@
       <c r="G48" s="16">
         <v>82</v>
       </c>
-      <c r="H48" s="50"/>
-      <c r="I48" s="50"/>
-      <c r="J48" s="50"/>
+      <c r="H48" s="48"/>
+      <c r="I48" s="48"/>
+      <c r="J48" s="48"/>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="16" t="s">
@@ -12790,9 +13703,9 @@
       <c r="G49" s="16">
         <v>80</v>
       </c>
-      <c r="H49" s="50"/>
-      <c r="I49" s="50"/>
-      <c r="J49" s="50"/>
+      <c r="H49" s="48"/>
+      <c r="I49" s="48"/>
+      <c r="J49" s="48"/>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="16" t="s">
@@ -12816,9 +13729,9 @@
       <c r="G50" s="16">
         <v>56</v>
       </c>
-      <c r="H50" s="50"/>
-      <c r="I50" s="50"/>
-      <c r="J50" s="50"/>
+      <c r="H50" s="48"/>
+      <c r="I50" s="48"/>
+      <c r="J50" s="48"/>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="16" t="s">
@@ -12842,9 +13755,9 @@
       <c r="G51" s="16">
         <v>76</v>
       </c>
-      <c r="H51" s="50"/>
-      <c r="I51" s="50"/>
-      <c r="J51" s="50"/>
+      <c r="H51" s="48"/>
+      <c r="I51" s="48"/>
+      <c r="J51" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -13132,7 +14045,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BBF5D9-8FB7-42E4-B0A4-B8AC86EC7EE1}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13252,7 +14167,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="B6" t="s">
         <v>135</v>
@@ -13317,7 +14232,7 @@
       <c r="E10" s="6"/>
       <c r="F10" s="6"/>
       <c r="N10" s="40" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
@@ -13331,7 +14246,7 @@
       <c r="E11" s="6"/>
       <c r="F11" s="6"/>
       <c r="N11" s="4" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
@@ -13345,7 +14260,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="N12" s="4" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
@@ -13359,7 +14274,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="6"/>
       <c r="N13" s="4" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
@@ -13373,7 +14288,7 @@
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
       <c r="N14" s="4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
@@ -13387,17 +14302,17 @@
       <c r="E15" s="6"/>
       <c r="F15" s="6"/>
       <c r="N15" s="4" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="N16" s="4" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N17" s="4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -13412,7 +14327,7 @@
   <dimension ref="A1:AH9097"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13473,16 +14388,16 @@
         <v>389</v>
       </c>
       <c r="K1" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>854</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>852</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>853</v>
-      </c>
       <c r="O1" s="4" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="V1" s="4"/>
       <c r="AB1" s="2"/>
@@ -13523,11 +14438,11 @@
       <c r="K2" s="45"/>
       <c r="L2" s="45"/>
       <c r="N2" s="2" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="O2" s="38">
         <f ca="1">TODAY()</f>
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="V2" s="4"/>
     </row>
@@ -16731,6 +17646,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -16760,7 +17676,7 @@
         <v>329</v>
       </c>
       <c r="C1" s="30" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -16769,7 +17685,7 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>331</v>
@@ -16781,7 +17697,7 @@
       </c>
       <c r="B3" s="34">
         <f ca="1">NOW()</f>
-        <v>45018.805527777775</v>
+        <v>45019.242861226849</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>333</v>
@@ -16817,7 +17733,7 @@
       </c>
       <c r="B6" s="33">
         <f ca="1">DAY(B2)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" s="33" t="s">
         <v>339</v>
@@ -16829,7 +17745,7 @@
       </c>
       <c r="B7" s="33">
         <f ca="1">HOUR(B3)</f>
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>341</v>
@@ -16841,7 +17757,7 @@
       </c>
       <c r="B8" s="33">
         <f ca="1">MINUTE(B3)</f>
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>343</v>
@@ -16853,7 +17769,7 @@
       </c>
       <c r="B9" s="33">
         <f ca="1">SECOND(B3)</f>
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>345</v>
@@ -16865,7 +17781,7 @@
       </c>
       <c r="B10" s="32">
         <f ca="1">EDATE(B2,B5)</f>
-        <v>45140</v>
+        <v>45141</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>347</v>
@@ -16895,7 +17811,7 @@
         <v>351</v>
       </c>
       <c r="E12" s="43" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -16910,7 +17826,7 @@
         <v>353</v>
       </c>
       <c r="E13" s="44" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -16919,7 +17835,7 @@
       </c>
       <c r="B14" s="32">
         <f ca="1">WORKDAY(B2,B6)</f>
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>355</v>
@@ -16931,7 +17847,7 @@
       </c>
       <c r="B15" s="32">
         <f ca="1">WORKDAY.INTL(B2,B6,1)</f>
-        <v>45020</v>
+        <v>45022</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>357</v>
@@ -16943,7 +17859,7 @@
       </c>
       <c r="B16" s="33">
         <f ca="1">NETWORKDAYS(B2,B10)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>359</v>
@@ -16955,7 +17871,7 @@
       </c>
       <c r="B17" s="33">
         <f ca="1">NETWORKDAYS.INTL(B2,B10,1)</f>
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>361</v>
@@ -16967,7 +17883,7 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">DATE(B4,B5,B6)</f>
-        <v>45018</v>
+        <v>45019</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>363</v>
@@ -16979,7 +17895,7 @@
       </c>
       <c r="B19" s="37">
         <f ca="1">TIME(B7,B8,B9)</f>
-        <v>0.80553240740740739</v>
+        <v>0.24285879629629628</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>365</v>
@@ -16991,7 +17907,7 @@
       </c>
       <c r="B20" s="33">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>367</v>
@@ -17003,7 +17919,7 @@
       </c>
       <c r="B21" s="33">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>367</v>
@@ -17039,7 +17955,7 @@
       </c>
       <c r="B24" s="33">
         <f ca="1">DATEDIF(B2,B11,"D")</f>
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>374</v>
@@ -17079,1193 +17995,1350 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4979C08-6F67-4EBD-8816-064FDFF2B18B}">
-  <dimension ref="A1:G51"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>859</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>858</v>
       </c>
       <c r="C1" t="s">
+        <v>860</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2">
+      <c r="B2" s="50" t="s">
+        <v>483</v>
+      </c>
+      <c r="C2" t="s">
+        <v>861</v>
+      </c>
+      <c r="D2">
         <v>77</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>64</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>95</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>84</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>70</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
+      <c r="B3" s="50" t="s">
+        <v>862</v>
+      </c>
+      <c r="C3" t="s">
+        <v>863</v>
+      </c>
+      <c r="D3">
         <v>88</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>90</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>86</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>94</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="50" t="s">
+        <v>864</v>
+      </c>
+      <c r="C4" t="s">
+        <v>865</v>
+      </c>
+      <c r="D4">
         <v>84</v>
-      </c>
-      <c r="D4">
-        <v>69</v>
       </c>
       <c r="E4">
         <v>69</v>
       </c>
       <c r="F4">
+        <v>69</v>
+      </c>
+      <c r="G4">
         <v>53</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
+      <c r="B5" s="50" t="s">
+        <v>866</v>
+      </c>
+      <c r="C5" t="s">
+        <v>867</v>
+      </c>
+      <c r="D5">
         <v>40</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>45</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>83</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>75</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6">
+      <c r="B6" s="50" t="s">
+        <v>868</v>
+      </c>
+      <c r="C6" t="s">
+        <v>869</v>
+      </c>
+      <c r="D6">
         <v>47</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>70</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>48</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>52</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="50" t="s">
+        <v>870</v>
+      </c>
+      <c r="C7" t="s">
+        <v>871</v>
+      </c>
+      <c r="D7">
         <v>95</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>82</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>40</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>81</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="50" t="s">
+        <v>872</v>
+      </c>
+      <c r="C8" t="s">
+        <v>873</v>
+      </c>
+      <c r="D8">
         <v>78</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>95</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>60</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>85</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="50" t="s">
+        <v>874</v>
+      </c>
+      <c r="C9" t="s">
+        <v>875</v>
+      </c>
+      <c r="D9">
         <v>97</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>48</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>76</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>98</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>86</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="50" t="s">
+        <v>876</v>
+      </c>
+      <c r="C10" t="s">
+        <v>877</v>
+      </c>
+      <c r="D10">
         <v>62</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>45</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>91</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>88</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="50" t="s">
+        <v>878</v>
+      </c>
+      <c r="C11" t="s">
+        <v>879</v>
+      </c>
+      <c r="D11">
         <v>45</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>59</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>69</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>47</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="50" t="s">
+        <v>880</v>
+      </c>
+      <c r="C12" t="s">
+        <v>881</v>
+      </c>
+      <c r="D12">
         <v>51</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>45</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>84</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>93</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>79</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="50" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" t="s">
+        <v>882</v>
+      </c>
+      <c r="D13">
         <v>84</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>60</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>45</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>20</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14">
+      <c r="B14" s="50" t="s">
+        <v>883</v>
+      </c>
+      <c r="C14" t="s">
+        <v>884</v>
+      </c>
+      <c r="D14">
         <v>90</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>63</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>66</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>47</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="50" t="s">
+        <v>885</v>
+      </c>
+      <c r="C15" t="s">
+        <v>886</v>
+      </c>
+      <c r="D15">
         <v>86</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>63</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>56</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>45</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>78</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C16">
+      <c r="B16" s="50" t="s">
+        <v>887</v>
+      </c>
+      <c r="C16" t="s">
+        <v>888</v>
+      </c>
+      <c r="D16">
         <v>75</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>81</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>70</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>72</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>61</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" t="s">
-        <v>41</v>
-      </c>
-      <c r="C17">
+      <c r="B17" s="50" t="s">
+        <v>889</v>
+      </c>
+      <c r="C17" t="s">
+        <v>890</v>
+      </c>
+      <c r="D17">
         <v>35</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>76</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>98</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>66</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="50" t="s">
+        <v>891</v>
+      </c>
+      <c r="C18" t="s">
+        <v>892</v>
+      </c>
+      <c r="D18">
         <v>53</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>65</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>79</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>53</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19">
+      <c r="B19" s="50" t="s">
+        <v>893</v>
+      </c>
+      <c r="C19" t="s">
+        <v>894</v>
+      </c>
+      <c r="D19">
         <v>85</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>88</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>100</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>92</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C20">
+      <c r="B20" s="50" t="s">
+        <v>895</v>
+      </c>
+      <c r="C20" t="s">
+        <v>896</v>
+      </c>
+      <c r="D20">
         <v>89</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>91</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>89</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>84</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21">
-        <v>78</v>
+      <c r="B21" s="50" t="s">
+        <v>897</v>
+      </c>
+      <c r="C21" t="s">
+        <v>898</v>
       </c>
       <c r="D21">
         <v>78</v>
       </c>
       <c r="E21">
+        <v>78</v>
+      </c>
+      <c r="F21">
         <v>85</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>47</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="50" t="s">
+        <v>899</v>
+      </c>
+      <c r="C22" t="s">
+        <v>900</v>
+      </c>
+      <c r="D22">
         <v>20</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>57</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>88</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>70</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="50" t="s">
+        <v>615</v>
+      </c>
+      <c r="C23" t="s">
+        <v>901</v>
+      </c>
+      <c r="D23">
+        <v>65</v>
+      </c>
+      <c r="E23">
+        <v>55</v>
+      </c>
+      <c r="F23">
         <v>53</v>
       </c>
-      <c r="C23">
-        <v>65</v>
-      </c>
-      <c r="D23">
-        <v>55</v>
-      </c>
-      <c r="E23">
-        <v>53</v>
-      </c>
-      <c r="F23">
+      <c r="G23">
         <v>75</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24">
+      <c r="B24" s="50" t="s">
+        <v>902</v>
+      </c>
+      <c r="C24" t="s">
+        <v>903</v>
+      </c>
+      <c r="D24">
         <v>53</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>92</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>91</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>48</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>50</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="50" t="s">
+        <v>904</v>
+      </c>
+      <c r="C25" t="s">
+        <v>905</v>
+      </c>
+      <c r="D25">
         <v>68</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>53</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>38</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>85</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>78</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="50" t="s">
+        <v>906</v>
+      </c>
+      <c r="C26" t="s">
+        <v>907</v>
+      </c>
+      <c r="D26">
         <v>82</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>99</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>88</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>98</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27">
+      <c r="B27" s="50" t="s">
+        <v>908</v>
+      </c>
+      <c r="C27" t="s">
+        <v>909</v>
+      </c>
+      <c r="D27">
         <v>73</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>50</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>73</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>43</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>99</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="50" t="s">
+        <v>910</v>
+      </c>
+      <c r="C28" t="s">
+        <v>911</v>
+      </c>
+      <c r="D28">
         <v>93</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>95</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>49</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>47</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="B29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C29">
+      <c r="B29" s="50" t="s">
+        <v>912</v>
+      </c>
+      <c r="C29" t="s">
+        <v>913</v>
+      </c>
+      <c r="D29">
         <v>84</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>92</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>93</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>95</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
-      <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="50" t="s">
+        <v>914</v>
+      </c>
+      <c r="C30" t="s">
+        <v>915</v>
+      </c>
+      <c r="D30">
         <v>75</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>91</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>68</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>75</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="50" t="s">
+        <v>916</v>
+      </c>
+      <c r="C31" t="s">
+        <v>917</v>
+      </c>
+      <c r="D31">
         <v>82</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>89</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>57</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>43</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
-      <c r="B32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32">
+      <c r="B32" s="50" t="s">
+        <v>918</v>
+      </c>
+      <c r="C32" t="s">
+        <v>919</v>
+      </c>
+      <c r="D32">
         <v>72</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>99</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>78</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>92</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>78</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C33">
+      <c r="B33" s="50" t="s">
+        <v>920</v>
+      </c>
+      <c r="C33" t="s">
+        <v>921</v>
+      </c>
+      <c r="D33">
         <v>89</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>93</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>68</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>93</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>83</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34">
+      <c r="B34" s="50" t="s">
+        <v>922</v>
+      </c>
+      <c r="C34" t="s">
+        <v>923</v>
+      </c>
+      <c r="D34">
         <v>69</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>67</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>99</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>74</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
-      <c r="B35" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35">
+      <c r="B35" s="50" t="s">
+        <v>924</v>
+      </c>
+      <c r="C35" t="s">
+        <v>903</v>
+      </c>
+      <c r="D35">
         <v>82</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>72</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>98</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>75</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>65</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
-      <c r="B36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C36">
+      <c r="B36" s="50" t="s">
+        <v>925</v>
+      </c>
+      <c r="C36" t="s">
+        <v>391</v>
+      </c>
+      <c r="D36">
         <v>92</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>84</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>32</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>93</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
-      <c r="B37" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37">
+      <c r="B37" s="50" t="s">
+        <v>926</v>
+      </c>
+      <c r="C37" t="s">
+        <v>927</v>
+      </c>
+      <c r="D37">
         <v>97</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>82</v>
       </c>
-      <c r="E37">
+      <c r="F37">
         <v>62</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>90</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>87</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
-      <c r="B38" t="s">
-        <v>83</v>
-      </c>
-      <c r="C38">
+      <c r="B38" s="50" t="s">
+        <v>928</v>
+      </c>
+      <c r="C38" t="s">
+        <v>929</v>
+      </c>
+      <c r="D38">
         <v>66</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>86</v>
       </c>
-      <c r="E38">
+      <c r="F38">
         <v>61</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>71</v>
       </c>
-      <c r="G38">
+      <c r="H38">
         <v>75</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" t="s">
-        <v>85</v>
-      </c>
-      <c r="C39">
+      <c r="B39" s="50" t="s">
+        <v>930</v>
+      </c>
+      <c r="C39" t="s">
+        <v>931</v>
+      </c>
+      <c r="D39">
         <v>65</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>92</v>
       </c>
-      <c r="E39">
+      <c r="F39">
         <v>88</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>63</v>
       </c>
-      <c r="G39">
+      <c r="H39">
         <v>62</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
-      <c r="B40" t="s">
-        <v>87</v>
-      </c>
-      <c r="C40">
+      <c r="B40" s="50" t="s">
+        <v>932</v>
+      </c>
+      <c r="C40" t="s">
+        <v>933</v>
+      </c>
+      <c r="D40">
         <v>70</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>95</v>
       </c>
-      <c r="E40">
+      <c r="F40">
         <v>96</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>85</v>
       </c>
-      <c r="G40">
+      <c r="H40">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>88</v>
       </c>
-      <c r="B41" t="s">
-        <v>89</v>
-      </c>
-      <c r="C41">
+      <c r="B41" s="50" t="s">
+        <v>934</v>
+      </c>
+      <c r="C41" t="s">
+        <v>935</v>
+      </c>
+      <c r="D41">
         <v>68</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>75</v>
       </c>
-      <c r="E41">
+      <c r="F41">
         <v>94</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>93</v>
       </c>
-      <c r="G41">
+      <c r="H41">
         <v>75</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>90</v>
       </c>
-      <c r="B42" t="s">
-        <v>91</v>
-      </c>
-      <c r="C42">
+      <c r="B42" s="50" t="s">
+        <v>936</v>
+      </c>
+      <c r="C42" t="s">
+        <v>937</v>
+      </c>
+      <c r="D42">
         <v>98</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>64</v>
       </c>
-      <c r="E42">
+      <c r="F42">
         <v>100</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>64</v>
       </c>
-      <c r="G42">
+      <c r="H42">
         <v>72</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>92</v>
       </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43">
+      <c r="B43" s="50" t="s">
+        <v>938</v>
+      </c>
+      <c r="C43" t="s">
+        <v>939</v>
+      </c>
+      <c r="D43">
         <v>32</v>
-      </c>
-      <c r="D43">
-        <v>80</v>
       </c>
       <c r="E43">
         <v>80</v>
       </c>
       <c r="F43">
+        <v>80</v>
+      </c>
+      <c r="G43">
         <v>77</v>
       </c>
-      <c r="G43">
+      <c r="H43">
         <v>67</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
-      <c r="B44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="50" t="s">
+        <v>940</v>
+      </c>
+      <c r="C44" t="s">
+        <v>941</v>
+      </c>
+      <c r="D44">
         <v>85</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>71</v>
       </c>
-      <c r="E44">
+      <c r="F44">
         <v>86</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>65</v>
       </c>
-      <c r="G44">
+      <c r="H44">
         <v>83</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>96</v>
       </c>
-      <c r="B45" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45">
+      <c r="B45" s="50" t="s">
+        <v>942</v>
+      </c>
+      <c r="C45" t="s">
+        <v>943</v>
+      </c>
+      <c r="D45">
         <v>87</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>84</v>
       </c>
-      <c r="E45">
+      <c r="F45">
         <v>78</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>65</v>
       </c>
-      <c r="G45">
+      <c r="H45">
         <v>87</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>98</v>
       </c>
-      <c r="B46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C46">
+      <c r="B46" s="50" t="s">
+        <v>944</v>
+      </c>
+      <c r="C46" t="s">
+        <v>945</v>
+      </c>
+      <c r="D46">
         <v>94</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>79</v>
       </c>
-      <c r="E46">
+      <c r="F46">
         <v>73</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>62</v>
       </c>
-      <c r="G46">
+      <c r="H46">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>100</v>
       </c>
-      <c r="B47" t="s">
-        <v>101</v>
-      </c>
-      <c r="C47">
+      <c r="B47" s="50" t="s">
+        <v>946</v>
+      </c>
+      <c r="C47" t="s">
+        <v>947</v>
+      </c>
+      <c r="D47">
         <v>77</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>76</v>
       </c>
-      <c r="E47">
+      <c r="F47">
         <v>72</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>77</v>
       </c>
-      <c r="G47">
+      <c r="H47">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>102</v>
       </c>
-      <c r="B48" t="s">
-        <v>103</v>
-      </c>
-      <c r="C48">
+      <c r="B48" s="50" t="s">
+        <v>948</v>
+      </c>
+      <c r="C48" t="s">
+        <v>949</v>
+      </c>
+      <c r="D48">
         <v>85</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>98</v>
       </c>
-      <c r="E48">
+      <c r="F48">
         <v>82</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>99</v>
       </c>
-      <c r="G48">
+      <c r="H48">
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>104</v>
       </c>
-      <c r="B49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C49">
+      <c r="B49" s="50" t="s">
+        <v>950</v>
+      </c>
+      <c r="C49" t="s">
+        <v>951</v>
+      </c>
+      <c r="D49">
         <v>65</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>90</v>
-      </c>
-      <c r="E49">
-        <v>73</v>
       </c>
       <c r="F49">
         <v>73</v>
       </c>
       <c r="G49">
+        <v>73</v>
+      </c>
+      <c r="H49">
         <v>80</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>106</v>
       </c>
-      <c r="B50" t="s">
-        <v>107</v>
-      </c>
-      <c r="C50">
+      <c r="B50" s="50" t="s">
+        <v>952</v>
+      </c>
+      <c r="C50" t="s">
+        <v>953</v>
+      </c>
+      <c r="D50">
         <v>45</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>66</v>
       </c>
-      <c r="E50">
+      <c r="F50">
         <v>70</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>31</v>
       </c>
-      <c r="G50">
+      <c r="H50">
         <v>56</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>108</v>
       </c>
-      <c r="B51" t="s">
-        <v>109</v>
-      </c>
-      <c r="C51">
+      <c r="B51" s="50" t="s">
+        <v>954</v>
+      </c>
+      <c r="C51" t="s">
+        <v>955</v>
+      </c>
+      <c r="D51">
         <v>61</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>93</v>
       </c>
-      <c r="E51">
+      <c r="F51">
         <v>80</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>60</v>
       </c>
-      <c r="G51">
+      <c r="H51">
         <v>76</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/excel-beginner-tutorial_workout.xlsx
+++ b/excel-beginner-tutorial_workout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26316"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26421"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub Projects\microsoft-excel-tutorial-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD33637-6043-471D-9937-36240C535E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05164BB2-8491-4B0D-BFD3-513DC06782AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="7" activeTab="15" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="5" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -3239,11 +3239,11 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -4380,7 +4380,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>2) Calculate Total Marks in column I</a:t>
+            <a:t>2) Calculate Average in column I</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -5003,9 +5003,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>57150</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5021,7 +5021,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6410325" y="885825"/>
-          <a:ext cx="3190875" cy="885825"/>
+          <a:ext cx="3238500" cy="1057275"/>
         </a:xfrm>
         <a:prstGeom prst="flowChartAlternateProcess">
           <a:avLst/>
@@ -5128,7 +5128,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> first name and last name from column A and B.</a:t>
+            <a:t> first name and last name without any extra spaces from column A and B.</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -6635,7 +6635,7 @@
       <c r="A18" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="51"/>
+      <c r="B18" s="50"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
@@ -9045,7 +9045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59B5EA-5F36-4506-9B80-2736CCDF45D1}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
@@ -12005,10 +12005,10 @@
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="51" t="s">
         <v>304</v>
       </c>
-      <c r="D1" s="49"/>
+      <c r="D1" s="51"/>
       <c r="E1"/>
       <c r="F1" s="2" t="s">
         <v>310</v>
@@ -12374,7 +12374,9 @@
   </sheetPr>
   <dimension ref="A1:S51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14045,8 +14047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6BBF5D9-8FB7-42E4-B0A4-B8AC86EC7EE1}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14442,7 +14444,7 @@
       </c>
       <c r="O2" s="38">
         <f ca="1">TODAY()</f>
-        <v>45019</v>
+        <v>45049</v>
       </c>
       <c r="V2" s="4"/>
     </row>
@@ -17685,7 +17687,7 @@
       </c>
       <c r="B2" s="32">
         <f ca="1">TODAY()</f>
-        <v>45019</v>
+        <v>45049</v>
       </c>
       <c r="C2" s="33" t="s">
         <v>331</v>
@@ -17697,7 +17699,7 @@
       </c>
       <c r="B3" s="34">
         <f ca="1">NOW()</f>
-        <v>45019.242861226849</v>
+        <v>45049.844890856482</v>
       </c>
       <c r="C3" s="33" t="s">
         <v>333</v>
@@ -17721,7 +17723,7 @@
       </c>
       <c r="B5" s="33">
         <f ca="1">MONTH(B2)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C5" s="33" t="s">
         <v>337</v>
@@ -17745,7 +17747,7 @@
       </c>
       <c r="B7" s="33">
         <f ca="1">HOUR(B3)</f>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C7" s="33" t="s">
         <v>341</v>
@@ -17757,7 +17759,7 @@
       </c>
       <c r="B8" s="33">
         <f ca="1">MINUTE(B3)</f>
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>343</v>
@@ -17769,7 +17771,7 @@
       </c>
       <c r="B9" s="33">
         <f ca="1">SECOND(B3)</f>
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" s="33" t="s">
         <v>345</v>
@@ -17781,7 +17783,7 @@
       </c>
       <c r="B10" s="32">
         <f ca="1">EDATE(B2,B5)</f>
-        <v>45141</v>
+        <v>45202</v>
       </c>
       <c r="C10" s="33" t="s">
         <v>347</v>
@@ -17793,7 +17795,7 @@
       </c>
       <c r="B11" s="32">
         <f ca="1">EOMONTH(B2,B5)</f>
-        <v>45169</v>
+        <v>45230</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>349</v>
@@ -17835,7 +17837,7 @@
       </c>
       <c r="B14" s="32">
         <f ca="1">WORKDAY(B2,B6)</f>
-        <v>45022</v>
+        <v>45054</v>
       </c>
       <c r="C14" s="33" t="s">
         <v>355</v>
@@ -17847,7 +17849,7 @@
       </c>
       <c r="B15" s="32">
         <f ca="1">WORKDAY.INTL(B2,B6,1)</f>
-        <v>45022</v>
+        <v>45054</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>357</v>
@@ -17859,7 +17861,7 @@
       </c>
       <c r="B16" s="33">
         <f ca="1">NETWORKDAYS(B2,B10)</f>
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>359</v>
@@ -17871,7 +17873,7 @@
       </c>
       <c r="B17" s="33">
         <f ca="1">NETWORKDAYS.INTL(B2,B10,1)</f>
-        <v>89</v>
+        <v>110</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>361</v>
@@ -17883,7 +17885,7 @@
       </c>
       <c r="B18" s="36">
         <f ca="1">DATE(B4,B5,B6)</f>
-        <v>45019</v>
+        <v>45049</v>
       </c>
       <c r="C18" s="33" t="s">
         <v>363</v>
@@ -17895,7 +17897,7 @@
       </c>
       <c r="B19" s="37">
         <f ca="1">TIME(B7,B8,B9)</f>
-        <v>0.24285879629629628</v>
+        <v>0.84489583333333329</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>365</v>
@@ -17907,7 +17909,7 @@
       </c>
       <c r="B20" s="33">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C20" s="33" t="s">
         <v>367</v>
@@ -17919,7 +17921,7 @@
       </c>
       <c r="B21" s="33">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C21" s="33" t="s">
         <v>367</v>
@@ -17931,7 +17933,7 @@
       </c>
       <c r="B22" s="33">
         <f ca="1">_xlfn.DAYS(B10,B2)</f>
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="C22" s="33" t="s">
         <v>370</v>
@@ -17943,7 +17945,7 @@
       </c>
       <c r="B23" s="33">
         <f ca="1">DAYS360(B2,B10,FALSE)</f>
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="C23" s="33" t="s">
         <v>372</v>
@@ -17955,7 +17957,7 @@
       </c>
       <c r="B24" s="33">
         <f ca="1">DATEDIF(B2,B11,"D")</f>
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>374</v>
@@ -18040,7 +18042,7 @@
       <c r="A2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="50" t="s">
+      <c r="B2" s="49" t="s">
         <v>483</v>
       </c>
       <c r="C2" t="s">
@@ -18066,7 +18068,7 @@
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="49" t="s">
         <v>862</v>
       </c>
       <c r="C3" t="s">
@@ -18092,7 +18094,7 @@
       <c r="A4" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="49" t="s">
         <v>864</v>
       </c>
       <c r="C4" t="s">
@@ -18118,7 +18120,7 @@
       <c r="A5" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="49" t="s">
         <v>866</v>
       </c>
       <c r="C5" t="s">
@@ -18144,7 +18146,7 @@
       <c r="A6" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="50" t="s">
+      <c r="B6" s="49" t="s">
         <v>868</v>
       </c>
       <c r="C6" t="s">
@@ -18170,7 +18172,7 @@
       <c r="A7" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="50" t="s">
+      <c r="B7" s="49" t="s">
         <v>870</v>
       </c>
       <c r="C7" t="s">
@@ -18196,7 +18198,7 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="50" t="s">
+      <c r="B8" s="49" t="s">
         <v>872</v>
       </c>
       <c r="C8" t="s">
@@ -18222,7 +18224,7 @@
       <c r="A9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="50" t="s">
+      <c r="B9" s="49" t="s">
         <v>874</v>
       </c>
       <c r="C9" t="s">
@@ -18248,7 +18250,7 @@
       <c r="A10" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="49" t="s">
         <v>876</v>
       </c>
       <c r="C10" t="s">
@@ -18274,7 +18276,7 @@
       <c r="A11" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="50" t="s">
+      <c r="B11" s="49" t="s">
         <v>878</v>
       </c>
       <c r="C11" t="s">
@@ -18300,7 +18302,7 @@
       <c r="A12" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="50" t="s">
+      <c r="B12" s="49" t="s">
         <v>880</v>
       </c>
       <c r="C12" t="s">
@@ -18326,7 +18328,7 @@
       <c r="A13" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="49" t="s">
         <v>427</v>
       </c>
       <c r="C13" t="s">
@@ -18352,7 +18354,7 @@
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="49" t="s">
         <v>883</v>
       </c>
       <c r="C14" t="s">
@@ -18378,7 +18380,7 @@
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="49" t="s">
         <v>885</v>
       </c>
       <c r="C15" t="s">
@@ -18404,7 +18406,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="50" t="s">
+      <c r="B16" s="49" t="s">
         <v>887</v>
       </c>
       <c r="C16" t="s">
@@ -18430,7 +18432,7 @@
       <c r="A17" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="50" t="s">
+      <c r="B17" s="49" t="s">
         <v>889</v>
       </c>
       <c r="C17" t="s">
@@ -18456,7 +18458,7 @@
       <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="50" t="s">
+      <c r="B18" s="49" t="s">
         <v>891</v>
       </c>
       <c r="C18" t="s">
@@ -18482,7 +18484,7 @@
       <c r="A19" t="s">
         <v>44</v>
       </c>
-      <c r="B19" s="50" t="s">
+      <c r="B19" s="49" t="s">
         <v>893</v>
       </c>
       <c r="C19" t="s">
@@ -18508,7 +18510,7 @@
       <c r="A20" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="50" t="s">
+      <c r="B20" s="49" t="s">
         <v>895</v>
       </c>
       <c r="C20" t="s">
@@ -18534,7 +18536,7 @@
       <c r="A21" t="s">
         <v>48</v>
       </c>
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="49" t="s">
         <v>897</v>
       </c>
       <c r="C21" t="s">
@@ -18560,7 +18562,7 @@
       <c r="A22" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="50" t="s">
+      <c r="B22" s="49" t="s">
         <v>899</v>
       </c>
       <c r="C22" t="s">
@@ -18586,7 +18588,7 @@
       <c r="A23" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="50" t="s">
+      <c r="B23" s="49" t="s">
         <v>615</v>
       </c>
       <c r="C23" t="s">
@@ -18612,7 +18614,7 @@
       <c r="A24" t="s">
         <v>54</v>
       </c>
-      <c r="B24" s="50" t="s">
+      <c r="B24" s="49" t="s">
         <v>902</v>
       </c>
       <c r="C24" t="s">
@@ -18638,7 +18640,7 @@
       <c r="A25" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="49" t="s">
         <v>904</v>
       </c>
       <c r="C25" t="s">
@@ -18664,7 +18666,7 @@
       <c r="A26" t="s">
         <v>58</v>
       </c>
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="49" t="s">
         <v>906</v>
       </c>
       <c r="C26" t="s">
@@ -18690,7 +18692,7 @@
       <c r="A27" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="50" t="s">
+      <c r="B27" s="49" t="s">
         <v>908</v>
       </c>
       <c r="C27" t="s">
@@ -18716,7 +18718,7 @@
       <c r="A28" t="s">
         <v>62</v>
       </c>
-      <c r="B28" s="50" t="s">
+      <c r="B28" s="49" t="s">
         <v>910</v>
       </c>
       <c r="C28" t="s">
@@ -18742,7 +18744,7 @@
       <c r="A29" t="s">
         <v>64</v>
       </c>
-      <c r="B29" s="50" t="s">
+      <c r="B29" s="49" t="s">
         <v>912</v>
       </c>
       <c r="C29" t="s">
@@ -18768,7 +18770,7 @@
       <c r="A30" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="49" t="s">
         <v>914</v>
       </c>
       <c r="C30" t="s">
@@ -18794,7 +18796,7 @@
       <c r="A31" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="49" t="s">
         <v>916</v>
       </c>
       <c r="C31" t="s">
@@ -18820,7 +18822,7 @@
       <c r="A32" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="49" t="s">
         <v>918</v>
       </c>
       <c r="C32" t="s">
@@ -18846,7 +18848,7 @@
       <c r="A33" t="s">
         <v>72</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="49" t="s">
         <v>920</v>
       </c>
       <c r="C33" t="s">
@@ -18872,7 +18874,7 @@
       <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="50" t="s">
+      <c r="B34" s="49" t="s">
         <v>922</v>
       </c>
       <c r="C34" t="s">
@@ -18898,7 +18900,7 @@
       <c r="A35" t="s">
         <v>76</v>
       </c>
-      <c r="B35" s="50" t="s">
+      <c r="B35" s="49" t="s">
         <v>924</v>
       </c>
       <c r="C35" t="s">
@@ -18924,7 +18926,7 @@
       <c r="A36" t="s">
         <v>78</v>
       </c>
-      <c r="B36" s="50" t="s">
+      <c r="B36" s="49" t="s">
         <v>925</v>
       </c>
       <c r="C36" t="s">
@@ -18950,7 +18952,7 @@
       <c r="A37" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="50" t="s">
+      <c r="B37" s="49" t="s">
         <v>926</v>
       </c>
       <c r="C37" t="s">
@@ -18976,7 +18978,7 @@
       <c r="A38" t="s">
         <v>82</v>
       </c>
-      <c r="B38" s="50" t="s">
+      <c r="B38" s="49" t="s">
         <v>928</v>
       </c>
       <c r="C38" t="s">
@@ -19002,7 +19004,7 @@
       <c r="A39" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="50" t="s">
+      <c r="B39" s="49" t="s">
         <v>930</v>
       </c>
       <c r="C39" t="s">
@@ -19028,7 +19030,7 @@
       <c r="A40" t="s">
         <v>86</v>
       </c>
-      <c r="B40" s="50" t="s">
+      <c r="B40" s="49" t="s">
         <v>932</v>
       </c>
       <c r="C40" t="s">
@@ -19054,7 +19056,7 @@
       <c r="A41" t="s">
         <v>88</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="49" t="s">
         <v>934</v>
       </c>
       <c r="C41" t="s">
@@ -19080,7 +19082,7 @@
       <c r="A42" t="s">
         <v>90</v>
       </c>
-      <c r="B42" s="50" t="s">
+      <c r="B42" s="49" t="s">
         <v>936</v>
       </c>
       <c r="C42" t="s">
@@ -19106,7 +19108,7 @@
       <c r="A43" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="49" t="s">
         <v>938</v>
       </c>
       <c r="C43" t="s">
@@ -19132,7 +19134,7 @@
       <c r="A44" t="s">
         <v>94</v>
       </c>
-      <c r="B44" s="50" t="s">
+      <c r="B44" s="49" t="s">
         <v>940</v>
       </c>
       <c r="C44" t="s">
@@ -19158,7 +19160,7 @@
       <c r="A45" t="s">
         <v>96</v>
       </c>
-      <c r="B45" s="50" t="s">
+      <c r="B45" s="49" t="s">
         <v>942</v>
       </c>
       <c r="C45" t="s">
@@ -19184,7 +19186,7 @@
       <c r="A46" t="s">
         <v>98</v>
       </c>
-      <c r="B46" s="50" t="s">
+      <c r="B46" s="49" t="s">
         <v>944</v>
       </c>
       <c r="C46" t="s">
@@ -19210,7 +19212,7 @@
       <c r="A47" t="s">
         <v>100</v>
       </c>
-      <c r="B47" s="50" t="s">
+      <c r="B47" s="49" t="s">
         <v>946</v>
       </c>
       <c r="C47" t="s">
@@ -19236,7 +19238,7 @@
       <c r="A48" t="s">
         <v>102</v>
       </c>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="49" t="s">
         <v>948</v>
       </c>
       <c r="C48" t="s">
@@ -19262,7 +19264,7 @@
       <c r="A49" t="s">
         <v>104</v>
       </c>
-      <c r="B49" s="50" t="s">
+      <c r="B49" s="49" t="s">
         <v>950</v>
       </c>
       <c r="C49" t="s">
@@ -19288,7 +19290,7 @@
       <c r="A50" t="s">
         <v>106</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="49" t="s">
         <v>952</v>
       </c>
       <c r="C50" t="s">
@@ -19314,7 +19316,7 @@
       <c r="A51" t="s">
         <v>108</v>
       </c>
-      <c r="B51" s="50" t="s">
+      <c r="B51" s="49" t="s">
         <v>954</v>
       </c>
       <c r="C51" t="s">

--- a/excel-beginner-tutorial_workout.xlsx
+++ b/excel-beginner-tutorial_workout.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27022"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github-projects\microsoft-excel-tutorial-beginner\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F783587-0A14-4389-B392-242A8D275D51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E456C0A3-8A31-43D0-A2A7-1F71A8DF5E52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="7" activeTab="15" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="5" activeTab="13" xr2:uid="{9FA7835E-DA76-4B93-946E-CCC2848369CA}"/>
   </bookViews>
   <sheets>
     <sheet name="Start" sheetId="1" r:id="rId1"/>
@@ -26,9 +26,10 @@
     <sheet name="Vlookup simple" sheetId="11" r:id="rId11"/>
     <sheet name="Vlookup 1" sheetId="10" r:id="rId12"/>
     <sheet name="Vlookup 2" sheetId="8" r:id="rId13"/>
-    <sheet name="Vlookup Scenario" sheetId="13" r:id="rId14"/>
-    <sheet name="Shortcut Keys" sheetId="12" r:id="rId15"/>
-    <sheet name="Pivot" sheetId="5" r:id="rId16"/>
+    <sheet name="Vlookup 3" sheetId="19" r:id="rId14"/>
+    <sheet name="Vlookup Scenario" sheetId="13" r:id="rId15"/>
+    <sheet name="Shortcut Keys" sheetId="12" r:id="rId16"/>
+    <sheet name="Pivot" sheetId="5" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Formatting!$A$1:$J$51</definedName>
@@ -78,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="957">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1904" uniqueCount="972">
   <si>
     <t>Reg No.</t>
   </si>
@@ -2949,6 +2950,121 @@
   </si>
   <si>
     <t>Formulas to try out</t>
+  </si>
+  <si>
+    <t xml:space="preserve">﻿Hi,_x000D_
+_x000D_
+We are pleased to inform you that the following task has been completed by our team:_x000D_
+_x000D_
+Task Title: Report Gathering_x000D_
+Assigned To: Steven_x000D_
+Completion Date: 10/12/2023_x000D_
+_x000D_
+If you need any further information or have any questions, please feel free to reach out to us._x000D_
+_x000D_
+Thank you for your continued support._x000D_
+_x000D_
+Best regards,_x000D_
+Business Support_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">﻿Hi,_x000D_
+_x000D_
+We are pleased to inform you that the following task has been completed by our team:_x000D_
+_x000D_
+Task Title: Report Gathering_x000D_
+Assigned To: Neena_x000D_
+Completion Date: 10/12/2023_x000D_
+_x000D_
+If you need any further information or have any questions, please feel free to reach out to us._x000D_
+_x000D_
+Thank you for your continued support._x000D_
+_x000D_
+Best regards,_x000D_
+Business Support_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">﻿Hi,_x000D_
+_x000D_
+We are pleased to inform you that the following task has been completed by our team:_x000D_
+_x000D_
+Task Title: Report Analysis_x000D_
+Assigned To: Alexander_x000D_
+Completion Date: 10/18/2023_x000D_
+_x000D_
+If you need any further information or have any questions, please feel free to reach out to us._x000D_
+_x000D_
+Thank you for your continued support._x000D_
+_x000D_
+Best regards,_x000D_
+Business Support_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">﻿Hi,_x000D_
+_x000D_
+We are pleased to inform you that the following task has been completed by our team:_x000D_
+_x000D_
+Task Title: Report Analysis_x000D_
+Assigned To: Matthew_x000D_
+Completion Date: 10/18/2023_x000D_
+_x000D_
+If you need any further information or have any questions, please feel free to reach out to us._x000D_
+_x000D_
+Thank you for your continued support._x000D_
+_x000D_
+Best regards,_x000D_
+Business Support_x000D_
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">﻿Hi,_x000D_
+_x000D_
+We are pleased to inform you that the following task has been completed by our team:_x000D_
+_x000D_
+Task Title: Repory Submission_x000D_
+Assigned To: Christopher_x000D_
+Completion Date: 10/25/2023_x000D_
+_x000D_
+If you need any further information or have any questions, please feel free to reach out to us._x000D_
+_x000D_
+Thank you for your continued support._x000D_
+_x000D_
+Best regards,_x000D_
+Business Support_x000D_
+</t>
+  </si>
+  <si>
+    <t>Email_Body</t>
+  </si>
+  <si>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assigned To: </t>
+  </si>
+  <si>
+    <t>Completion Date:</t>
+  </si>
+  <si>
+    <t>Full_Name</t>
+  </si>
+  <si>
+    <t>Steven King</t>
+  </si>
+  <si>
+    <t>Neena Kochhar</t>
+  </si>
+  <si>
+    <t>Alexander Hunold</t>
+  </si>
+  <si>
+    <t>Matthew Weiss</t>
+  </si>
+  <si>
+    <t>Christopher Olsen</t>
   </si>
 </sst>
 </file>
@@ -3192,7 +3308,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -3231,9 +3347,6 @@
     <xf numFmtId="21" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3248,12 +3361,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
@@ -3274,6 +3381,16 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="2" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -6094,7 +6211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DA1A12F-1E41-41A1-853B-53EC10CAE414}">
-  <dimension ref="A1:D130"/>
+  <dimension ref="A1:W130"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
@@ -6548,13 +6665,13 @@
     <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="90.42578125" hidden="1"/>
-    <col min="11" max="11" width="8.7109375" hidden="1"/>
-    <col min="12" max="12" width="12" hidden="1"/>
-    <col min="13" max="13" width="14.42578125" hidden="1"/>
-    <col min="14" max="14" width="10.7109375" hidden="1"/>
-    <col min="15" max="15" width="9.28515625" hidden="1"/>
-    <col min="16" max="16" width="7" hidden="1"/>
+    <col min="10" max="10" width="90.42578125" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.28515625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="7" hidden="1" customWidth="1"/>
     <col min="17" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -6841,43 +6958,43 @@
       <c r="A16" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="41"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B17" s="42"/>
+      <c r="B17" s="41"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="B18" s="66"/>
+      <c r="B18" s="63"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B19" s="42"/>
+      <c r="B19" s="41"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B20" s="42"/>
+      <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B21" s="42"/>
+      <c r="B21" s="41"/>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B22" s="42"/>
+      <c r="B22" s="41"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25"/>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25"/>
@@ -6909,263 +7026,263 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>263</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>264</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>265</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>268</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>270</v>
       </c>
       <c r="I1" s="2"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="39">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>271</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>272</v>
       </c>
-      <c r="D2" s="54">
+      <c r="D2" s="51">
         <v>42535</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="39">
         <v>12495185438</v>
       </c>
-      <c r="F2" s="40" t="s">
+      <c r="F2" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="39" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="39">
         <v>2</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="D3" s="54">
+      <c r="D3" s="51">
         <v>42748</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="39">
         <v>8109237463</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="G3" s="40" t="s">
+      <c r="G3" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="39">
         <v>3</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>280</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="51">
         <v>42651</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="39">
         <v>6653263786</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="G4" s="40" t="s">
+      <c r="G4" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="39" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+      <c r="A5" s="39">
         <v>4</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>283</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D5" s="51">
         <v>43222</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="39">
         <v>6071073952</v>
       </c>
-      <c r="F5" s="40" t="s">
+      <c r="F5" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="G5" s="40" t="s">
+      <c r="G5" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="39">
         <v>5</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>286</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D6" s="51">
         <v>42765</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="39">
         <v>5944830525</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="39" t="s">
         <v>288</v>
       </c>
-      <c r="G6" s="40" t="s">
+      <c r="G6" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="39" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+      <c r="A7" s="39">
         <v>6</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>291</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="51">
         <v>42101</v>
       </c>
-      <c r="E7" s="40">
+      <c r="E7" s="39">
         <v>5816307940</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="G7" s="40" t="s">
+      <c r="G7" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="39" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="39">
         <v>7</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>294</v>
       </c>
-      <c r="D8" s="54">
+      <c r="D8" s="51">
         <v>41704</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="39">
         <v>5209038987</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="39" t="s">
         <v>295</v>
       </c>
-      <c r="G8" s="40" t="s">
+      <c r="G8" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="39">
         <v>8</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>297</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="51">
         <v>43244</v>
       </c>
-      <c r="E9" s="40">
+      <c r="E9" s="39">
         <v>5021165699</v>
       </c>
-      <c r="F9" s="40" t="s">
+      <c r="F9" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="39">
         <v>9</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>299</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>300</v>
       </c>
-      <c r="D10" s="54">
+      <c r="D10" s="51">
         <v>41962</v>
       </c>
-      <c r="E10" s="40">
+      <c r="E10" s="39">
         <v>4859631966</v>
       </c>
-      <c r="F10" s="40" t="s">
+      <c r="F10" s="39" t="s">
         <v>273</v>
       </c>
-      <c r="G10" s="40" t="s">
+      <c r="G10" s="39" t="s">
         <v>274</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>301</v>
       </c>
     </row>
@@ -7176,43 +7293,43 @@
     <row r="15" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25"/>
     <row r="17" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="39" t="s">
         <v>263</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="39" t="s">
         <v>265</v>
       </c>
-      <c r="I17" s="40" t="s">
+      <c r="I17" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="18" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G18" s="40">
+      <c r="G18" s="39">
         <v>2</v>
       </c>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
     </row>
     <row r="19" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G19" s="40">
+      <c r="G19" s="39">
         <v>5</v>
       </c>
-      <c r="H19" s="40"/>
-      <c r="I19" s="40"/>
+      <c r="H19" s="39"/>
+      <c r="I19" s="39"/>
     </row>
     <row r="20" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G20" s="40">
+      <c r="G20" s="39">
         <v>6</v>
       </c>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
     </row>
     <row r="21" spans="7:9" x14ac:dyDescent="0.25">
-      <c r="G21" s="40">
+      <c r="G21" s="39">
         <v>9</v>
       </c>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
+      <c r="H21" s="39"/>
+      <c r="I21" s="39"/>
     </row>
     <row r="22" spans="7:9" x14ac:dyDescent="0.25"/>
     <row r="23" spans="7:9" x14ac:dyDescent="0.25"/>
@@ -7227,8 +7344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3C7C63A-B289-43DD-9A7C-2D11E4BAFA22}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8936,6 +9053,131 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3442328D-E2F5-4D3D-B784-DFAC239A4A6B}">
+  <dimension ref="A1:S6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="17" max="17" width="13" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>962</v>
+      </c>
+      <c r="B1" t="s">
+        <v>963</v>
+      </c>
+      <c r="O1" t="s">
+        <v>964</v>
+      </c>
+      <c r="P1">
+        <f>LEN(O1)</f>
+        <v>13</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>963</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="67" t="s">
+        <v>957</v>
+      </c>
+      <c r="B2" t="str">
+        <f>VLOOKUP(MID(CLEAN(A2),FIND($O$1,CLEAN(A2))+$P$1,FIND($O$2,CLEAN(A2))-FIND($O$1,CLEAN(A2))-$P$1),$R$2:$S$6,2,0)</f>
+        <v>Steven King</v>
+      </c>
+      <c r="O2" t="s">
+        <v>965</v>
+      </c>
+      <c r="P2">
+        <f>LEN(O2)</f>
+        <v>16</v>
+      </c>
+      <c r="R2" t="s">
+        <v>390</v>
+      </c>
+      <c r="S2" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>958</v>
+      </c>
+      <c r="B3" t="str">
+        <f t="shared" ref="B3:B6" si="0">VLOOKUP(MID(CLEAN(A3),FIND($O$1,CLEAN(A3))+$P$1,FIND($O$2,CLEAN(A3))-FIND($O$1,CLEAN(A3))-$P$1),$R$2:$S$6,2,0)</f>
+        <v>Neena Kochhar</v>
+      </c>
+      <c r="R3" t="s">
+        <v>395</v>
+      </c>
+      <c r="S3" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>959</v>
+      </c>
+      <c r="B4" t="str">
+        <f t="shared" si="0"/>
+        <v>Alexander Hunold</v>
+      </c>
+      <c r="R4" t="s">
+        <v>402</v>
+      </c>
+      <c r="S4" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>960</v>
+      </c>
+      <c r="B5" t="str">
+        <f t="shared" si="0"/>
+        <v>Matthew Weiss</v>
+      </c>
+      <c r="R5" t="s">
+        <v>459</v>
+      </c>
+      <c r="S5" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>961</v>
+      </c>
+      <c r="B6" t="str">
+        <f t="shared" si="0"/>
+        <v>Christopher Olsen</v>
+      </c>
+      <c r="R6" t="s">
+        <v>556</v>
+      </c>
+      <c r="S6" t="s">
+        <v>971</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F97242C3-98C7-4CC8-9E05-11ED756AE458}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -9059,7 +9301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{108E1899-0BA1-4EAD-977B-5AF4891D964A}">
   <dimension ref="A1:I26"/>
   <sheetViews>
@@ -9072,18 +9314,18 @@
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" hidden="1"/>
-    <col min="6" max="6" width="1.5703125" hidden="1"/>
-    <col min="7" max="8" width="9.140625" hidden="1"/>
-    <col min="9" max="9" width="1.5703125" hidden="1"/>
+    <col min="4" max="5" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="1.5703125" hidden="1" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="1.5703125" hidden="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="36" t="s">
         <v>209</v>
       </c>
     </row>
@@ -9282,12 +9524,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B59B5EA-5F36-4506-9B80-2736CCDF45D1}">
   <dimension ref="A1:H108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12122,7 +12364,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{968705CC-026E-4DAA-B41B-06B4A23E9192}">
-  <dimension ref="C1:I14"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
   </sheetViews>
@@ -12251,17 +12493,17 @@
     <col min="4" max="5" width="9.140625" style="30" customWidth="1"/>
     <col min="6" max="6" width="12" style="30" customWidth="1"/>
     <col min="7" max="9" width="9.140625" style="30" customWidth="1"/>
-    <col min="10" max="13" width="0" style="30" hidden="1"/>
+    <col min="10" max="13" width="0" style="30" hidden="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="30" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1"/>
       <c r="B1"/>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="64" t="s">
         <v>304</v>
       </c>
-      <c r="D1" s="36"/>
+      <c r="D1" s="64"/>
       <c r="E1"/>
       <c r="F1" s="2" t="s">
         <v>310</v>
@@ -12271,68 +12513,68 @@
       <c r="I1"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="37" t="s">
         <v>9</v>
       </c>
       <c r="E2"/>
-      <c r="F2" s="40">
+      <c r="F2" s="39">
         <v>21</v>
       </c>
-      <c r="G2" s="40">
+      <c r="G2" s="39">
         <v>31</v>
       </c>
-      <c r="H2" s="40">
+      <c r="H2" s="39">
         <v>34</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="39">
         <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="38" t="s">
         <v>117</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="41" t="s">
+      <c r="C3" s="40" t="s">
         <v>308</v>
       </c>
-      <c r="D3" s="42"/>
+      <c r="D3" s="41"/>
       <c r="E3"/>
-      <c r="F3" s="40">
+      <c r="F3" s="39">
         <v>21</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="39">
         <v>40</v>
       </c>
-      <c r="H3" s="40">
+      <c r="H3" s="39">
         <v>33</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="39">
         <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="40" t="s">
         <v>311</v>
       </c>
-      <c r="D4" s="42"/>
+      <c r="D4" s="41"/>
       <c r="E4"/>
       <c r="F4"/>
       <c r="G4"/>
@@ -12341,16 +12583,16 @@
       <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="39" t="s">
+      <c r="A5" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="40" t="s">
         <v>312</v>
       </c>
-      <c r="D5" s="42"/>
+      <c r="D5" s="41"/>
       <c r="E5"/>
       <c r="F5" s="4"/>
       <c r="G5"/>
@@ -12358,16 +12600,16 @@
       <c r="I5"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="40" t="s">
         <v>313</v>
       </c>
-      <c r="D6" s="42"/>
+      <c r="D6" s="41"/>
       <c r="E6"/>
       <c r="F6"/>
       <c r="G6"/>
@@ -12375,16 +12617,16 @@
       <c r="I6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="40" t="s">
         <v>315</v>
       </c>
-      <c r="D7" s="42"/>
+      <c r="D7" s="41"/>
       <c r="E7"/>
       <c r="F7"/>
       <c r="G7"/>
@@ -12392,16 +12634,16 @@
       <c r="I7"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="40" t="s">
         <v>314</v>
       </c>
-      <c r="D8" s="42"/>
+      <c r="D8" s="41"/>
       <c r="E8"/>
       <c r="F8"/>
       <c r="G8"/>
@@ -12411,8 +12653,8 @@
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9"/>
       <c r="B9"/>
-      <c r="C9" s="40"/>
-      <c r="D9" s="41"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="40"/>
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9"/>
@@ -12422,8 +12664,8 @@
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10"/>
       <c r="B10"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="41"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="40"/>
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
@@ -12431,14 +12673,14 @@
       <c r="I10"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="B11" s="38" t="s">
+      <c r="B11" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -12446,16 +12688,16 @@
       <c r="I11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
+      <c r="A12" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="41"/>
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12"/>
@@ -12463,16 +12705,16 @@
       <c r="I12"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
+      <c r="A13" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>160</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="40" t="s">
         <v>317</v>
       </c>
-      <c r="D13" s="42"/>
+      <c r="D13" s="41"/>
       <c r="E13"/>
       <c r="F13"/>
       <c r="G13"/>
@@ -12480,16 +12722,16 @@
       <c r="I13"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>165</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>318</v>
       </c>
-      <c r="D14" s="42"/>
+      <c r="D14" s="41"/>
       <c r="E14"/>
       <c r="F14"/>
       <c r="G14"/>
@@ -12499,8 +12741,8 @@
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="41"/>
+      <c r="C15" s="39"/>
+      <c r="D15" s="40"/>
       <c r="E15"/>
       <c r="F15"/>
       <c r="G15"/>
@@ -12510,8 +12752,8 @@
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16"/>
       <c r="B16"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
       <c r="E16"/>
       <c r="F16"/>
       <c r="G16"/>
@@ -12519,16 +12761,16 @@
       <c r="I16"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="38" t="s">
+      <c r="A17" s="37" t="s">
         <v>302</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="C17" s="38" t="s">
+      <c r="C17" s="37" t="s">
         <v>155</v>
       </c>
-      <c r="D17" s="38" t="s">
+      <c r="D17" s="37" t="s">
         <v>159</v>
       </c>
       <c r="E17"/>
@@ -12538,17 +12780,17 @@
       <c r="I17"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="39" t="b">
+      <c r="A18" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B18" s="40" t="b">
+      <c r="B18" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="C18" s="41" t="b">
+      <c r="C18" s="40" t="b">
         <f>AND(A18,B18)</f>
         <v>1</v>
       </c>
-      <c r="D18" s="42" t="b">
+      <c r="D18" s="41" t="b">
         <f>OR(A18,B18)</f>
         <v>1</v>
       </c>
@@ -12559,17 +12801,17 @@
       <c r="I18"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="b">
+      <c r="A19" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="B19" s="40" t="b">
+      <c r="B19" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="C19" s="41" t="b">
+      <c r="C19" s="40" t="b">
         <f t="shared" ref="C19:C21" si="0">AND(A19,B19)</f>
         <v>0</v>
       </c>
-      <c r="D19" s="42" t="b">
+      <c r="D19" s="41" t="b">
         <f t="shared" ref="D19:D21" si="1">OR(A19,B19)</f>
         <v>1</v>
       </c>
@@ -12580,17 +12822,17 @@
       <c r="I19"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="b">
+      <c r="A20" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="B20" s="40" t="b">
+      <c r="B20" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="C20" s="41" t="b">
+      <c r="C20" s="40" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D20" s="42" t="b">
+      <c r="D20" s="41" t="b">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
@@ -12601,17 +12843,17 @@
       <c r="I20"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="b">
+      <c r="A21" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="B21" s="40" t="b">
+      <c r="B21" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="C21" s="41" t="b">
+      <c r="C21" s="40" t="b">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="D21" s="42" t="b">
+      <c r="D21" s="41" t="b">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -12648,9 +12890,9 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="11.140625" customWidth="1"/>
-    <col min="11" max="18" width="13.42578125" style="45" customWidth="1"/>
-    <col min="19" max="19" width="0" style="45" hidden="1"/>
-    <col min="20" max="16384" width="13.42578125" style="45" hidden="1"/>
+    <col min="11" max="18" width="13.42578125" style="44" customWidth="1"/>
+    <col min="19" max="19" width="0" style="44" hidden="1" customWidth="1"/>
+    <col min="20" max="16384" width="13.42578125" style="44" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
@@ -12684,14 +12926,14 @@
       <c r="J1" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O1" s="49" t="s">
+      <c r="O1" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="P1" s="50">
+      <c r="P1" s="47">
         <v>35</v>
       </c>
       <c r="Q1"/>
-      <c r="R1" s="38" t="s">
+      <c r="R1" s="37" t="s">
         <v>9</v>
       </c>
     </row>
@@ -12717,10 +12959,10 @@
       <c r="G2" s="15">
         <v>70</v>
       </c>
-      <c r="H2" s="43"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="44"/>
-      <c r="R2" s="40" t="s">
+      <c r="H2" s="42"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="43"/>
+      <c r="R2" s="39" t="s">
         <v>305</v>
       </c>
     </row>
@@ -12746,10 +12988,10 @@
       <c r="G3" s="15">
         <v>73</v>
       </c>
-      <c r="H3" s="43"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="44"/>
-      <c r="R3" s="40" t="s">
+      <c r="H3" s="42"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="43"/>
+      <c r="R3" s="39" t="s">
         <v>306</v>
       </c>
     </row>
@@ -12775,14 +13017,14 @@
       <c r="G4" s="15">
         <v>72</v>
       </c>
-      <c r="H4" s="43"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="44"/>
-      <c r="O4" s="48" t="s">
+      <c r="H4" s="42"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="43"/>
+      <c r="O4" s="65" t="s">
         <v>956</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
     </row>
     <row r="5" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="15" t="s">
@@ -12806,16 +13048,16 @@
       <c r="G5" s="15">
         <v>77</v>
       </c>
-      <c r="H5" s="43"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="44"/>
-      <c r="O5" s="41" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="43"/>
+      <c r="O5" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="P5" s="41" t="s">
+      <c r="P5" s="40" t="s">
         <v>161</v>
       </c>
-      <c r="Q5" s="41" t="s">
+      <c r="Q5" s="40" t="s">
         <v>327</v>
       </c>
     </row>
@@ -12841,14 +13083,14 @@
       <c r="G6" s="15">
         <v>53</v>
       </c>
-      <c r="H6" s="43"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="44"/>
-      <c r="O6" s="41" t="s">
+      <c r="H6" s="42"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="43"/>
+      <c r="O6" s="40" t="s">
         <v>119</v>
       </c>
-      <c r="P6" s="41"/>
-      <c r="Q6" s="41"/>
+      <c r="P6" s="40"/>
+      <c r="Q6" s="40"/>
     </row>
     <row r="7" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
@@ -12872,14 +13114,14 @@
       <c r="G7" s="15">
         <v>92</v>
       </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="44"/>
-      <c r="O7" s="41" t="s">
+      <c r="H7" s="42"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="43"/>
+      <c r="O7" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
     </row>
     <row r="8" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
@@ -12903,14 +13145,14 @@
       <c r="G8" s="15">
         <v>89</v>
       </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="44"/>
-      <c r="O8" s="41" t="s">
+      <c r="H8" s="42"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="43"/>
+      <c r="O8" s="40" t="s">
         <v>129</v>
       </c>
-      <c r="P8" s="41"/>
-      <c r="Q8" s="41"/>
+      <c r="P8" s="40"/>
+      <c r="Q8" s="40"/>
     </row>
     <row r="9" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A9" s="15" t="s">
@@ -12934,9 +13176,9 @@
       <c r="G9" s="15">
         <v>86</v>
       </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="44"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="43"/>
     </row>
     <row r="10" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A10" s="15" t="s">
@@ -12960,10 +13202,10 @@
       <c r="G10" s="15">
         <v>92</v>
       </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="44"/>
-      <c r="N10" s="46"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="43"/>
+      <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A11" s="15" t="s">
@@ -12987,9 +13229,9 @@
       <c r="G11" s="15">
         <v>68</v>
       </c>
-      <c r="H11" s="43"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="44"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="43"/>
     </row>
     <row r="12" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
@@ -13013,9 +13255,9 @@
       <c r="G12" s="15">
         <v>79</v>
       </c>
-      <c r="H12" s="43"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="44"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="43"/>
     </row>
     <row r="13" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A13" s="15" t="s">
@@ -13039,9 +13281,9 @@
       <c r="G13" s="15">
         <v>41</v>
       </c>
-      <c r="H13" s="43"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="44"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="43"/>
     </row>
     <row r="14" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
@@ -13065,9 +13307,9 @@
       <c r="G14" s="15">
         <v>97</v>
       </c>
-      <c r="H14" s="43"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="44"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="43"/>
     </row>
     <row r="15" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
@@ -13091,13 +13333,13 @@
       <c r="G15" s="15">
         <v>78</v>
       </c>
-      <c r="H15" s="43"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="44"/>
-      <c r="O15" s="46"/>
-      <c r="P15" s="46"/>
-      <c r="Q15" s="46"/>
-      <c r="R15" s="46"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="43"/>
+      <c r="O15" s="45"/>
+      <c r="P15" s="45"/>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
     </row>
     <row r="16" spans="1:18" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
@@ -13121,9 +13363,9 @@
       <c r="G16" s="15">
         <v>61</v>
       </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="44"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="43"/>
     </row>
     <row r="17" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
@@ -13147,9 +13389,9 @@
       <c r="G17" s="15">
         <v>51</v>
       </c>
-      <c r="H17" s="43"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="44"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="43"/>
     </row>
     <row r="18" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
@@ -13173,9 +13415,9 @@
       <c r="G18" s="15">
         <v>39</v>
       </c>
-      <c r="H18" s="43"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="44"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="43"/>
     </row>
     <row r="19" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
@@ -13199,9 +13441,9 @@
       <c r="G19" s="15">
         <v>98</v>
       </c>
-      <c r="H19" s="43"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="44"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="43"/>
     </row>
     <row r="20" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
@@ -13225,9 +13467,9 @@
       <c r="G20" s="15">
         <v>77</v>
       </c>
-      <c r="H20" s="43"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="44"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="43"/>
     </row>
     <row r="21" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
@@ -13251,9 +13493,9 @@
       <c r="G21" s="15">
         <v>46</v>
       </c>
-      <c r="H21" s="43"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="44"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="43"/>
     </row>
     <row r="22" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
@@ -13277,9 +13519,9 @@
       <c r="G22" s="15">
         <v>41</v>
       </c>
-      <c r="H22" s="43"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="44"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="43"/>
     </row>
     <row r="23" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
@@ -13303,9 +13545,9 @@
       <c r="G23" s="15">
         <v>94</v>
       </c>
-      <c r="H23" s="43"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="44"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="43"/>
     </row>
     <row r="24" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
@@ -13329,9 +13571,9 @@
       <c r="G24" s="15">
         <v>50</v>
       </c>
-      <c r="H24" s="43"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="44"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="43"/>
     </row>
     <row r="25" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
@@ -13355,9 +13597,9 @@
       <c r="G25" s="15">
         <v>78</v>
       </c>
-      <c r="H25" s="43"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="44"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="43"/>
     </row>
     <row r="26" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
@@ -13381,9 +13623,9 @@
       <c r="G26" s="15">
         <v>95</v>
       </c>
-      <c r="H26" s="43"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="44"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="41"/>
+      <c r="J26" s="43"/>
     </row>
     <row r="27" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A27" s="15" t="s">
@@ -13407,9 +13649,9 @@
       <c r="G27" s="15">
         <v>99</v>
       </c>
-      <c r="H27" s="43"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="44"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A28" s="15" t="s">
@@ -13433,9 +13675,9 @@
       <c r="G28" s="15">
         <v>55</v>
       </c>
-      <c r="H28" s="43"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="44"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="41"/>
+      <c r="J28" s="43"/>
     </row>
     <row r="29" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A29" s="15" t="s">
@@ -13459,9 +13701,9 @@
       <c r="G29" s="15">
         <v>80</v>
       </c>
-      <c r="H29" s="43"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="44"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="43"/>
     </row>
     <row r="30" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A30" s="15" t="s">
@@ -13485,9 +13727,9 @@
       <c r="G30" s="15">
         <v>71</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="44"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="41"/>
+      <c r="J30" s="43"/>
     </row>
     <row r="31" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A31" s="15" t="s">
@@ -13511,9 +13753,9 @@
       <c r="G31" s="15">
         <v>47</v>
       </c>
-      <c r="H31" s="43"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="44"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="43"/>
     </row>
     <row r="32" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A32" s="15" t="s">
@@ -13537,9 +13779,9 @@
       <c r="G32" s="15">
         <v>78</v>
       </c>
-      <c r="H32" s="43"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="44"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="41"/>
+      <c r="J32" s="43"/>
     </row>
     <row r="33" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A33" s="15" t="s">
@@ -13563,9 +13805,9 @@
       <c r="G33" s="15">
         <v>83</v>
       </c>
-      <c r="H33" s="43"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="44"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="43"/>
     </row>
     <row r="34" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A34" s="15" t="s">
@@ -13589,9 +13831,9 @@
       <c r="G34" s="15">
         <v>65</v>
       </c>
-      <c r="H34" s="43"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="44"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="43"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A35" s="15" t="s">
@@ -13615,9 +13857,9 @@
       <c r="G35" s="15">
         <v>65</v>
       </c>
-      <c r="H35" s="43"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="44"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="41"/>
+      <c r="J35" s="43"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A36" s="15" t="s">
@@ -13641,9 +13883,9 @@
       <c r="G36" s="15">
         <v>94</v>
       </c>
-      <c r="H36" s="43"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="44"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="41"/>
+      <c r="J36" s="43"/>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A37" s="15" t="s">
@@ -13667,9 +13909,9 @@
       <c r="G37" s="15">
         <v>87</v>
       </c>
-      <c r="H37" s="43"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="44"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="41"/>
+      <c r="J37" s="43"/>
     </row>
     <row r="38" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A38" s="15" t="s">
@@ -13693,9 +13935,9 @@
       <c r="G38" s="15">
         <v>75</v>
       </c>
-      <c r="H38" s="43"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="44"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="41"/>
+      <c r="J38" s="43"/>
     </row>
     <row r="39" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
@@ -13719,9 +13961,9 @@
       <c r="G39" s="15">
         <v>62</v>
       </c>
-      <c r="H39" s="43"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="44"/>
+      <c r="H39" s="42"/>
+      <c r="I39" s="41"/>
+      <c r="J39" s="43"/>
     </row>
     <row r="40" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
@@ -13745,9 +13987,9 @@
       <c r="G40" s="15">
         <v>63</v>
       </c>
-      <c r="H40" s="43"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="44"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="41"/>
+      <c r="J40" s="43"/>
     </row>
     <row r="41" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
@@ -13771,9 +14013,9 @@
       <c r="G41" s="15">
         <v>75</v>
       </c>
-      <c r="H41" s="43"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="44"/>
+      <c r="H41" s="42"/>
+      <c r="I41" s="41"/>
+      <c r="J41" s="43"/>
     </row>
     <row r="42" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
@@ -13797,9 +14039,9 @@
       <c r="G42" s="15">
         <v>72</v>
       </c>
-      <c r="H42" s="43"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="44"/>
+      <c r="H42" s="42"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="43"/>
     </row>
     <row r="43" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
@@ -13823,9 +14065,9 @@
       <c r="G43" s="15">
         <v>67</v>
       </c>
-      <c r="H43" s="43"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="44"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="41"/>
+      <c r="J43" s="43"/>
     </row>
     <row r="44" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
@@ -13849,9 +14091,9 @@
       <c r="G44" s="15">
         <v>83</v>
       </c>
-      <c r="H44" s="43"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="44"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="41"/>
+      <c r="J44" s="43"/>
     </row>
     <row r="45" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
@@ -13875,9 +14117,9 @@
       <c r="G45" s="15">
         <v>87</v>
       </c>
-      <c r="H45" s="43"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="44"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="41"/>
+      <c r="J45" s="43"/>
     </row>
     <row r="46" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
@@ -13901,9 +14143,9 @@
       <c r="G46" s="15">
         <v>88</v>
       </c>
-      <c r="H46" s="43"/>
-      <c r="I46" s="42"/>
-      <c r="J46" s="44"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="41"/>
+      <c r="J46" s="43"/>
     </row>
     <row r="47" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
@@ -13927,9 +14169,9 @@
       <c r="G47" s="15">
         <v>80</v>
       </c>
-      <c r="H47" s="43"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="44"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="41"/>
+      <c r="J47" s="43"/>
     </row>
     <row r="48" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
@@ -13953,9 +14195,9 @@
       <c r="G48" s="15">
         <v>82</v>
       </c>
-      <c r="H48" s="43"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="44"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="41"/>
+      <c r="J48" s="43"/>
     </row>
     <row r="49" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A49" s="15" t="s">
@@ -13979,9 +14221,9 @@
       <c r="G49" s="15">
         <v>80</v>
       </c>
-      <c r="H49" s="43"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="44"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="41"/>
+      <c r="J49" s="43"/>
     </row>
     <row r="50" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
@@ -14005,9 +14247,9 @@
       <c r="G50" s="15">
         <v>56</v>
       </c>
-      <c r="H50" s="43"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="44"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="41"/>
+      <c r="J50" s="43"/>
     </row>
     <row r="51" spans="1:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
@@ -14031,9 +14273,9 @@
       <c r="G51" s="15">
         <v>76</v>
       </c>
-      <c r="H51" s="43"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="44"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="41"/>
+      <c r="J51" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -14055,7 +14297,7 @@
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="8" width="17.5703125" style="30" customWidth="1"/>
-    <col min="9" max="20" width="0" style="30" hidden="1"/>
+    <col min="9" max="20" width="0" style="30" hidden="1" customWidth="1"/>
     <col min="21" max="16384" width="17.5703125" style="30" hidden="1"/>
   </cols>
   <sheetData>
@@ -14338,24 +14580,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="45" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.85546875" style="45" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" style="45" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18" style="45" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" style="45" customWidth="1"/>
-    <col min="7" max="7" width="9.42578125" style="45" customWidth="1"/>
-    <col min="8" max="8" width="18" style="45" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="24.5703125" style="45" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.140625" style="45" customWidth="1"/>
-    <col min="11" max="11" width="13" style="45" customWidth="1"/>
-    <col min="12" max="12" width="8.140625" style="45" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" hidden="1"/>
-    <col min="14" max="14" width="36.140625" hidden="1"/>
-    <col min="15" max="15" width="9.140625" hidden="1"/>
-    <col min="16" max="16" width="14.85546875" hidden="1"/>
-    <col min="17" max="18" width="9.140625" hidden="1"/>
-    <col min="19" max="19" width="14.28515625" hidden="1"/>
-    <col min="20" max="20" width="11.7109375" hidden="1"/>
+    <col min="1" max="1" width="14.28515625" style="44" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.85546875" style="44" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" style="44" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="44" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" style="44" customWidth="1"/>
+    <col min="7" max="7" width="9.42578125" style="44" customWidth="1"/>
+    <col min="8" max="8" width="18" style="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24.5703125" style="44" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.140625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="13" style="44" customWidth="1"/>
+    <col min="12" max="12" width="8.140625" style="44" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="36.140625" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="19" max="19" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="11.7109375" hidden="1" customWidth="1"/>
     <col min="21" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
@@ -14375,11 +14617,11 @@
       <c r="E1" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="J1" s="47" t="s">
+      <c r="J1" s="66" t="s">
         <v>956</v>
       </c>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
       <c r="P1" s="2"/>
@@ -14395,11 +14637,11 @@
       <c r="B2" t="s">
         <v>116</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
       <c r="I2" s="32"/>
-      <c r="J2" s="41" t="s">
+      <c r="J2" s="40" t="s">
         <v>134</v>
       </c>
     </row>
@@ -14410,10 +14652,10 @@
       <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="J3" s="41" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="J3" s="40" t="s">
         <v>138</v>
       </c>
     </row>
@@ -14424,10 +14666,10 @@
       <c r="B4" t="s">
         <v>126</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="J4" s="41" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="J4" s="40" t="s">
         <v>143</v>
       </c>
     </row>
@@ -14438,16 +14680,16 @@
       <c r="B5" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="J5" s="41" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="J5" s="40" t="s">
         <v>146</v>
       </c>
-      <c r="K5" s="41" t="s">
+      <c r="K5" s="40" t="s">
         <v>325</v>
       </c>
-      <c r="L5" s="40" t="s">
+      <c r="L5" s="39" t="s">
         <v>324</v>
       </c>
     </row>
@@ -14458,13 +14700,13 @@
       <c r="B6" t="s">
         <v>135</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="42"/>
-      <c r="J6" s="41" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="J6" s="40" t="s">
         <v>152</v>
       </c>
-      <c r="K6" s="41" t="s">
+      <c r="K6" s="40" t="s">
         <v>326</v>
       </c>
     </row>
@@ -14475,10 +14717,10 @@
       <c r="B7" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="42"/>
-      <c r="J7" s="41" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="J7" s="40" t="s">
         <v>168</v>
       </c>
     </row>
@@ -14489,10 +14731,10 @@
       <c r="B8" t="s">
         <v>145</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="J8" s="41" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="J8" s="40" t="s">
         <v>171</v>
       </c>
     </row>
@@ -14503,10 +14745,10 @@
       <c r="B9" t="s">
         <v>148</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="J9" s="41" t="s">
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="J9" s="40" t="s">
         <v>172</v>
       </c>
     </row>
@@ -14517,10 +14759,10 @@
       <c r="B10" t="s">
         <v>150</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="J10" s="41" t="s">
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="J10" s="40" t="s">
         <v>328</v>
       </c>
     </row>
@@ -14531,10 +14773,10 @@
       <c r="B11" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="J11" s="51" t="s">
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="J11" s="48" t="s">
         <v>841</v>
       </c>
     </row>
@@ -14545,10 +14787,10 @@
       <c r="B12" t="s">
         <v>158</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="42"/>
-      <c r="J12" s="41" t="s">
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="J12" s="40" t="s">
         <v>842</v>
       </c>
     </row>
@@ -14559,10 +14801,10 @@
       <c r="B13" t="s">
         <v>163</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="J13" s="41" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="J13" s="40" t="s">
         <v>843</v>
       </c>
     </row>
@@ -14573,10 +14815,10 @@
       <c r="B14" t="s">
         <v>167</v>
       </c>
-      <c r="C14" s="42"/>
-      <c r="D14" s="42"/>
-      <c r="E14" s="42"/>
-      <c r="J14" s="41" t="s">
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="41"/>
+      <c r="J14" s="40" t="s">
         <v>844</v>
       </c>
     </row>
@@ -14587,25 +14829,25 @@
       <c r="B15" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="42"/>
-      <c r="J15" s="41" t="s">
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="J15" s="40" t="s">
         <v>845</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="40" t="s">
         <v>846</v>
       </c>
     </row>
     <row r="17" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="40" t="s">
         <v>847</v>
       </c>
     </row>
     <row r="18" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J18" s="41" t="s">
+      <c r="J18" s="40" t="s">
         <v>848</v>
       </c>
     </row>
@@ -14625,8 +14867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05E2969B-5042-435B-96EE-9A63113DCFD9}">
   <dimension ref="A1:AH9097"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -14646,56 +14888,56 @@
     <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.42578125" hidden="1"/>
-    <col min="18" max="19" width="9.140625" hidden="1"/>
-    <col min="20" max="20" width="57.28515625" hidden="1"/>
-    <col min="21" max="21" width="9.140625" hidden="1"/>
-    <col min="22" max="22" width="14.42578125" hidden="1"/>
-    <col min="23" max="27" width="9.140625" hidden="1"/>
-    <col min="28" max="28" width="36.140625" hidden="1"/>
-    <col min="29" max="29" width="9.140625" hidden="1"/>
-    <col min="30" max="30" width="14.85546875" hidden="1"/>
-    <col min="31" max="32" width="9.140625" hidden="1"/>
-    <col min="33" max="33" width="14.28515625" hidden="1"/>
-    <col min="34" max="34" width="11.7109375" hidden="1"/>
+    <col min="17" max="17" width="19.42578125" hidden="1" customWidth="1"/>
+    <col min="18" max="19" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="57.28515625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" hidden="1" customWidth="1"/>
+    <col min="23" max="27" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="28" max="28" width="36.140625" hidden="1" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="14.85546875" hidden="1" customWidth="1"/>
+    <col min="31" max="32" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="33" max="33" width="14.28515625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7109375" hidden="1" customWidth="1"/>
     <col min="35" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="37" t="s">
         <v>380</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>381</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>382</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>383</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="37" t="s">
         <v>384</v>
       </c>
-      <c r="F1" s="38" t="s">
+      <c r="F1" s="37" t="s">
         <v>733</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="37" t="s">
         <v>385</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="H1" s="37" t="s">
         <v>386</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="I1" s="37" t="s">
         <v>387</v>
       </c>
-      <c r="J1" s="38" t="s">
+      <c r="J1" s="37" t="s">
         <v>389</v>
       </c>
-      <c r="K1" s="38" t="s">
+      <c r="K1" s="37" t="s">
         <v>851</v>
       </c>
-      <c r="L1" s="38" t="s">
+      <c r="L1" s="37" t="s">
         <v>854</v>
       </c>
       <c r="N1" s="2" t="s">
@@ -14714,3236 +14956,3236 @@
       <c r="AH1" s="2"/>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="40">
+      <c r="A2" s="39">
         <v>100</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="40" t="s">
+      <c r="D2" s="41"/>
+      <c r="E2" s="39" t="s">
         <v>392</v>
       </c>
-      <c r="F2" s="53"/>
-      <c r="G2" s="52">
+      <c r="F2" s="50"/>
+      <c r="G2" s="49">
         <v>37789</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="39" t="s">
         <v>393</v>
       </c>
-      <c r="I2" s="40">
+      <c r="I2" s="39">
         <v>24000</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
       <c r="N2" s="2" t="s">
         <v>853</v>
       </c>
       <c r="O2" s="28">
         <f ca="1">TODAY()</f>
-        <v>45206</v>
+        <v>45228</v>
       </c>
       <c r="V2" s="4"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="39">
         <v>101</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="39" t="s">
         <v>395</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="39" t="s">
         <v>396</v>
       </c>
-      <c r="D3" s="42"/>
-      <c r="E3" s="40" t="s">
+      <c r="D3" s="41"/>
+      <c r="E3" s="39" t="s">
         <v>397</v>
       </c>
-      <c r="F3" s="53"/>
-      <c r="G3" s="52">
+      <c r="F3" s="50"/>
+      <c r="G3" s="49">
         <v>38616</v>
       </c>
-      <c r="H3" s="40" t="s">
+      <c r="H3" s="39" t="s">
         <v>398</v>
       </c>
-      <c r="I3" s="40">
+      <c r="I3" s="39">
         <v>17000</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
       <c r="V3" s="4"/>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="40">
+      <c r="A4" s="39">
         <v>102</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="39" t="s">
         <v>399</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="39" t="s">
         <v>400</v>
       </c>
-      <c r="D4" s="42"/>
-      <c r="E4" s="40" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="39" t="s">
         <v>401</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="52">
+      <c r="F4" s="50"/>
+      <c r="G4" s="49">
         <v>36904</v>
       </c>
-      <c r="H4" s="40" t="s">
+      <c r="H4" s="39" t="s">
         <v>398</v>
       </c>
-      <c r="I4" s="40">
+      <c r="I4" s="39">
         <v>17000</v>
       </c>
-      <c r="J4" s="40" t="s">
+      <c r="J4" s="39" t="s">
         <v>394</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
       <c r="V4" s="4"/>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+      <c r="A5" s="39">
         <v>103</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="39" t="s">
         <v>403</v>
       </c>
-      <c r="D5" s="42"/>
-      <c r="E5" s="40" t="s">
+      <c r="D5" s="41"/>
+      <c r="E5" s="39" t="s">
         <v>404</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="52">
+      <c r="F5" s="50"/>
+      <c r="G5" s="49">
         <v>38720</v>
       </c>
-      <c r="H5" s="40" t="s">
+      <c r="H5" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="I5" s="40">
+      <c r="I5" s="39">
         <v>9000</v>
       </c>
-      <c r="J5" s="40" t="s">
+      <c r="J5" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
       <c r="V5" s="4"/>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="39">
         <v>104</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="39" t="s">
         <v>407</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="39" t="s">
         <v>408</v>
       </c>
-      <c r="D6" s="42"/>
-      <c r="E6" s="40" t="s">
+      <c r="D6" s="41"/>
+      <c r="E6" s="39" t="s">
         <v>409</v>
       </c>
-      <c r="F6" s="53"/>
-      <c r="G6" s="52">
+      <c r="F6" s="50"/>
+      <c r="G6" s="49">
         <v>39223</v>
       </c>
-      <c r="H6" s="40" t="s">
+      <c r="H6" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="I6" s="40">
+      <c r="I6" s="39">
         <v>6000</v>
       </c>
-      <c r="J6" s="40" t="s">
+      <c r="J6" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
       <c r="V6" s="4"/>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="40">
+      <c r="A7" s="39">
         <v>105</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="39" t="s">
         <v>411</v>
       </c>
-      <c r="D7" s="42"/>
-      <c r="E7" s="40" t="s">
+      <c r="D7" s="41"/>
+      <c r="E7" s="39" t="s">
         <v>412</v>
       </c>
-      <c r="F7" s="53"/>
-      <c r="G7" s="52">
+      <c r="F7" s="50"/>
+      <c r="G7" s="49">
         <v>38528</v>
       </c>
-      <c r="H7" s="40" t="s">
+      <c r="H7" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="I7" s="40">
+      <c r="I7" s="39">
         <v>4800</v>
       </c>
-      <c r="J7" s="40" t="s">
+      <c r="J7" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
       <c r="V7" s="4"/>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="39">
         <v>106</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="39" t="s">
         <v>413</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="39" t="s">
         <v>414</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="40" t="s">
+      <c r="D8" s="41"/>
+      <c r="E8" s="39" t="s">
         <v>415</v>
       </c>
-      <c r="F8" s="53"/>
-      <c r="G8" s="52">
+      <c r="F8" s="50"/>
+      <c r="G8" s="49">
         <v>38753</v>
       </c>
-      <c r="H8" s="40" t="s">
+      <c r="H8" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="I8" s="40">
+      <c r="I8" s="39">
         <v>4800</v>
       </c>
-      <c r="J8" s="40" t="s">
+      <c r="J8" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="K8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="K8" s="41"/>
+      <c r="L8" s="41"/>
       <c r="V8" s="4"/>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="40">
+      <c r="A9" s="39">
         <v>107</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="39" t="s">
         <v>416</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="39" t="s">
         <v>417</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="40" t="s">
+      <c r="D9" s="41"/>
+      <c r="E9" s="39" t="s">
         <v>418</v>
       </c>
-      <c r="F9" s="53"/>
-      <c r="G9" s="52">
+      <c r="F9" s="50"/>
+      <c r="G9" s="49">
         <v>39120</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="39" t="s">
         <v>405</v>
       </c>
-      <c r="I9" s="40">
+      <c r="I9" s="39">
         <v>4200</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="39" t="s">
         <v>406</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="L9" s="42"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
       <c r="V9" s="4"/>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="40">
+      <c r="A10" s="39">
         <v>108</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="39" t="s">
         <v>419</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="39" t="s">
         <v>420</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="40" t="s">
+      <c r="D10" s="41"/>
+      <c r="E10" s="39" t="s">
         <v>421</v>
       </c>
-      <c r="F10" s="53"/>
-      <c r="G10" s="52">
+      <c r="F10" s="50"/>
+      <c r="G10" s="49">
         <v>37485</v>
       </c>
-      <c r="H10" s="40" t="s">
+      <c r="H10" s="39" t="s">
         <v>422</v>
       </c>
-      <c r="I10" s="40">
+      <c r="I10" s="39">
         <v>12008</v>
       </c>
-      <c r="J10" s="40" t="s">
+      <c r="J10" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="41"/>
+      <c r="L10" s="41"/>
       <c r="V10" s="4"/>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="40">
+      <c r="A11" s="39">
         <v>109</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="39" t="s">
         <v>423</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="39" t="s">
         <v>424</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="40" t="s">
+      <c r="D11" s="41"/>
+      <c r="E11" s="39" t="s">
         <v>425</v>
       </c>
-      <c r="F11" s="53"/>
-      <c r="G11" s="52">
+      <c r="F11" s="50"/>
+      <c r="G11" s="49">
         <v>37484</v>
       </c>
-      <c r="H11" s="40" t="s">
+      <c r="H11" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="I11" s="40">
+      <c r="I11" s="39">
         <v>9000</v>
       </c>
-      <c r="J11" s="40" t="s">
+      <c r="J11" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
       <c r="V11" s="4"/>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="39">
         <v>110</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="39" t="s">
         <v>428</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="40" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="39" t="s">
         <v>429</v>
       </c>
-      <c r="F12" s="53"/>
-      <c r="G12" s="52">
+      <c r="F12" s="50"/>
+      <c r="G12" s="49">
         <v>38623</v>
       </c>
-      <c r="H12" s="40" t="s">
+      <c r="H12" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="I12" s="40">
+      <c r="I12" s="39">
         <v>8200</v>
       </c>
-      <c r="J12" s="40" t="s">
+      <c r="J12" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
+      <c r="K12" s="41"/>
+      <c r="L12" s="41"/>
       <c r="V12" s="4"/>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="40">
+      <c r="A13" s="39">
         <v>111</v>
       </c>
-      <c r="B13" s="40" t="s">
+      <c r="B13" s="39" t="s">
         <v>430</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="39" t="s">
         <v>431</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="40" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="39" t="s">
         <v>432</v>
       </c>
-      <c r="F13" s="53"/>
-      <c r="G13" s="52">
+      <c r="F13" s="50"/>
+      <c r="G13" s="49">
         <v>38625</v>
       </c>
-      <c r="H13" s="40" t="s">
+      <c r="H13" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="I13" s="40">
+      <c r="I13" s="39">
         <v>7700</v>
       </c>
-      <c r="J13" s="40" t="s">
+      <c r="J13" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
       <c r="V13" s="4"/>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="40">
+      <c r="A14" s="39">
         <v>112</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="39" t="s">
         <v>433</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="39" t="s">
         <v>434</v>
       </c>
-      <c r="D14" s="42"/>
-      <c r="E14" s="40" t="s">
+      <c r="D14" s="41"/>
+      <c r="E14" s="39" t="s">
         <v>435</v>
       </c>
-      <c r="F14" s="53"/>
-      <c r="G14" s="52">
+      <c r="F14" s="50"/>
+      <c r="G14" s="49">
         <v>38783</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="I14" s="40">
+      <c r="I14" s="39">
         <v>7800</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
+      <c r="K14" s="41"/>
+      <c r="L14" s="41"/>
       <c r="V14" s="4"/>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+      <c r="A15" s="39">
         <v>113</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="39" t="s">
         <v>436</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="39" t="s">
         <v>437</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="40" t="s">
+      <c r="D15" s="41"/>
+      <c r="E15" s="39" t="s">
         <v>438</v>
       </c>
-      <c r="F15" s="53"/>
-      <c r="G15" s="52">
+      <c r="F15" s="50"/>
+      <c r="G15" s="49">
         <v>39423</v>
       </c>
-      <c r="H15" s="40" t="s">
+      <c r="H15" s="39" t="s">
         <v>426</v>
       </c>
-      <c r="I15" s="40">
+      <c r="I15" s="39">
         <v>6900</v>
       </c>
-      <c r="J15" s="40" t="s">
+      <c r="J15" s="39" t="s">
         <v>379</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
       <c r="V15" s="4"/>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="A16" s="39">
         <v>114</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="39" t="s">
         <v>439</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="39" t="s">
         <v>440</v>
       </c>
-      <c r="D16" s="42"/>
-      <c r="E16" s="40" t="s">
+      <c r="D16" s="41"/>
+      <c r="E16" s="39" t="s">
         <v>441</v>
       </c>
-      <c r="F16" s="53"/>
-      <c r="G16" s="52">
+      <c r="F16" s="50"/>
+      <c r="G16" s="49">
         <v>37597</v>
       </c>
-      <c r="H16" s="40" t="s">
+      <c r="H16" s="39" t="s">
         <v>442</v>
       </c>
-      <c r="I16" s="40">
+      <c r="I16" s="39">
         <v>11000</v>
       </c>
-      <c r="J16" s="40" t="s">
+      <c r="J16" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="K16" s="41"/>
+      <c r="L16" s="41"/>
       <c r="V16" s="4"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+      <c r="A17" s="39">
         <v>115</v>
       </c>
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="39" t="s">
         <v>402</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="39" t="s">
         <v>444</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="40" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="39" t="s">
         <v>445</v>
       </c>
-      <c r="F17" s="53"/>
-      <c r="G17" s="52">
+      <c r="F17" s="50"/>
+      <c r="G17" s="49">
         <v>37759</v>
       </c>
-      <c r="H17" s="40" t="s">
+      <c r="H17" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="I17" s="40">
+      <c r="I17" s="39">
         <v>3100</v>
       </c>
-      <c r="J17" s="40" t="s">
+      <c r="J17" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="40">
+      <c r="A18" s="39">
         <v>116</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="39" t="s">
         <v>447</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="39" t="s">
         <v>448</v>
       </c>
-      <c r="D18" s="42"/>
-      <c r="E18" s="40" t="s">
+      <c r="D18" s="41"/>
+      <c r="E18" s="39" t="s">
         <v>449</v>
       </c>
-      <c r="F18" s="53"/>
-      <c r="G18" s="52">
+      <c r="F18" s="50"/>
+      <c r="G18" s="49">
         <v>38710</v>
       </c>
-      <c r="H18" s="40" t="s">
+      <c r="H18" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="39">
         <v>2900</v>
       </c>
-      <c r="J18" s="40" t="s">
+      <c r="J18" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="K18" s="41"/>
+      <c r="L18" s="41"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="40">
+      <c r="A19" s="39">
         <v>117</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="39" t="s">
         <v>450</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="39" t="s">
         <v>451</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="40" t="s">
+      <c r="D19" s="41"/>
+      <c r="E19" s="39" t="s">
         <v>452</v>
       </c>
-      <c r="F19" s="53"/>
-      <c r="G19" s="52">
+      <c r="F19" s="50"/>
+      <c r="G19" s="49">
         <v>38557</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="I19" s="40">
+      <c r="I19" s="39">
         <v>2800</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A20" s="40">
+      <c r="A20" s="39">
         <v>118</v>
       </c>
-      <c r="B20" s="40" t="s">
+      <c r="B20" s="39" t="s">
         <v>453</v>
       </c>
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="39" t="s">
         <v>454</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="40" t="s">
+      <c r="D20" s="41"/>
+      <c r="E20" s="39" t="s">
         <v>455</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="52">
+      <c r="F20" s="50"/>
+      <c r="G20" s="49">
         <v>39036</v>
       </c>
-      <c r="H20" s="40" t="s">
+      <c r="H20" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="I20" s="40">
+      <c r="I20" s="39">
         <v>2600</v>
       </c>
-      <c r="J20" s="40" t="s">
+      <c r="J20" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="K20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="K20" s="41"/>
+      <c r="L20" s="41"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+      <c r="A21" s="39">
         <v>119</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="39" t="s">
         <v>456</v>
       </c>
-      <c r="C21" s="40" t="s">
+      <c r="C21" s="39" t="s">
         <v>457</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="40" t="s">
+      <c r="D21" s="41"/>
+      <c r="E21" s="39" t="s">
         <v>458</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="52">
+      <c r="F21" s="50"/>
+      <c r="G21" s="49">
         <v>39304</v>
       </c>
-      <c r="H21" s="40" t="s">
+      <c r="H21" s="39" t="s">
         <v>446</v>
       </c>
-      <c r="I21" s="40">
+      <c r="I21" s="39">
         <v>2500</v>
       </c>
-      <c r="J21" s="40" t="s">
+      <c r="J21" s="39" t="s">
         <v>443</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="L21" s="42"/>
+      <c r="K21" s="41"/>
+      <c r="L21" s="41"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="40">
+      <c r="A22" s="39">
         <v>120</v>
       </c>
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="39" t="s">
         <v>459</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="39" t="s">
         <v>460</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="40" t="s">
+      <c r="D22" s="41"/>
+      <c r="E22" s="39" t="s">
         <v>461</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="52">
+      <c r="F22" s="50"/>
+      <c r="G22" s="49">
         <v>38186</v>
       </c>
-      <c r="H22" s="40" t="s">
+      <c r="H22" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="I22" s="40">
+      <c r="I22" s="39">
         <v>8000</v>
       </c>
-      <c r="J22" s="40" t="s">
+      <c r="J22" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K22" s="42"/>
-      <c r="L22" s="42"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
+      <c r="A23" s="39">
         <v>121</v>
       </c>
-      <c r="B23" s="40" t="s">
+      <c r="B23" s="39" t="s">
         <v>464</v>
       </c>
-      <c r="C23" s="40" t="s">
+      <c r="C23" s="39" t="s">
         <v>465</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="40" t="s">
+      <c r="D23" s="41"/>
+      <c r="E23" s="39" t="s">
         <v>466</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="52">
+      <c r="F23" s="50"/>
+      <c r="G23" s="49">
         <v>38452</v>
       </c>
-      <c r="H23" s="40" t="s">
+      <c r="H23" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="I23" s="40">
+      <c r="I23" s="39">
         <v>8200</v>
       </c>
-      <c r="J23" s="40" t="s">
+      <c r="J23" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K23" s="42"/>
-      <c r="L23" s="42"/>
+      <c r="K23" s="41"/>
+      <c r="L23" s="41"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" s="40">
+      <c r="A24" s="39">
         <v>122</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="39" t="s">
         <v>467</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="39" t="s">
         <v>468</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="40" t="s">
+      <c r="D24" s="41"/>
+      <c r="E24" s="39" t="s">
         <v>469</v>
       </c>
-      <c r="F24" s="53"/>
-      <c r="G24" s="52">
+      <c r="F24" s="50"/>
+      <c r="G24" s="49">
         <v>37742</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="I24" s="40">
+      <c r="I24" s="39">
         <v>7900</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+      <c r="A25" s="39">
         <v>123</v>
       </c>
-      <c r="B25" s="40" t="s">
+      <c r="B25" s="39" t="s">
         <v>470</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="39" t="s">
         <v>471</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="40" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="39" t="s">
         <v>472</v>
       </c>
-      <c r="F25" s="53"/>
-      <c r="G25" s="52">
+      <c r="F25" s="50"/>
+      <c r="G25" s="49">
         <v>38635</v>
       </c>
-      <c r="H25" s="40" t="s">
+      <c r="H25" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="I25" s="40">
+      <c r="I25" s="39">
         <v>6500</v>
       </c>
-      <c r="J25" s="40" t="s">
+      <c r="J25" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K25" s="42"/>
-      <c r="L25" s="42"/>
+      <c r="K25" s="41"/>
+      <c r="L25" s="41"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+      <c r="A26" s="39">
         <v>124</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="39" t="s">
         <v>474</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="40" t="s">
+      <c r="D26" s="41"/>
+      <c r="E26" s="39" t="s">
         <v>475</v>
       </c>
-      <c r="F26" s="53"/>
-      <c r="G26" s="52">
+      <c r="F26" s="50"/>
+      <c r="G26" s="49">
         <v>39402</v>
       </c>
-      <c r="H26" s="40" t="s">
+      <c r="H26" s="39" t="s">
         <v>462</v>
       </c>
-      <c r="I26" s="40">
+      <c r="I26" s="39">
         <v>5800</v>
       </c>
-      <c r="J26" s="40" t="s">
+      <c r="J26" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K26" s="42"/>
-      <c r="L26" s="42"/>
+      <c r="K26" s="41"/>
+      <c r="L26" s="41"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
+      <c r="A27" s="39">
         <v>125</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="C27" s="40" t="s">
+      <c r="C27" s="39" t="s">
         <v>477</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="40" t="s">
+      <c r="D27" s="41"/>
+      <c r="E27" s="39" t="s">
         <v>478</v>
       </c>
-      <c r="F27" s="53"/>
-      <c r="G27" s="52">
+      <c r="F27" s="50"/>
+      <c r="G27" s="49">
         <v>38549</v>
       </c>
-      <c r="H27" s="40" t="s">
+      <c r="H27" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I27" s="40">
+      <c r="I27" s="39">
         <v>3200</v>
       </c>
-      <c r="J27" s="40" t="s">
+      <c r="J27" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K27" s="42"/>
-      <c r="L27" s="42"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
+      <c r="A28" s="39">
         <v>126</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="39" t="s">
         <v>480</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="39" t="s">
         <v>481</v>
       </c>
-      <c r="D28" s="42"/>
-      <c r="E28" s="40" t="s">
+      <c r="D28" s="41"/>
+      <c r="E28" s="39" t="s">
         <v>482</v>
       </c>
-      <c r="F28" s="53"/>
-      <c r="G28" s="52">
+      <c r="F28" s="50"/>
+      <c r="G28" s="49">
         <v>38988</v>
       </c>
-      <c r="H28" s="40" t="s">
+      <c r="H28" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I28" s="40">
+      <c r="I28" s="39">
         <v>2700</v>
       </c>
-      <c r="J28" s="40" t="s">
+      <c r="J28" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K28" s="42"/>
-      <c r="L28" s="42"/>
+      <c r="K28" s="41"/>
+      <c r="L28" s="41"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
+      <c r="A29" s="39">
         <v>127</v>
       </c>
-      <c r="B29" s="40" t="s">
+      <c r="B29" s="39" t="s">
         <v>483</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="39" t="s">
         <v>484</v>
       </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="40" t="s">
+      <c r="D29" s="41"/>
+      <c r="E29" s="39" t="s">
         <v>485</v>
       </c>
-      <c r="F29" s="53"/>
-      <c r="G29" s="52">
+      <c r="F29" s="50"/>
+      <c r="G29" s="49">
         <v>39096</v>
       </c>
-      <c r="H29" s="40" t="s">
+      <c r="H29" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I29" s="40">
+      <c r="I29" s="39">
         <v>2400</v>
       </c>
-      <c r="J29" s="40" t="s">
+      <c r="J29" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K29" s="42"/>
-      <c r="L29" s="42"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A30" s="40">
+      <c r="A30" s="39">
         <v>128</v>
       </c>
-      <c r="B30" s="40" t="s">
+      <c r="B30" s="39" t="s">
         <v>390</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="39" t="s">
         <v>486</v>
       </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="40" t="s">
+      <c r="D30" s="41"/>
+      <c r="E30" s="39" t="s">
         <v>487</v>
       </c>
-      <c r="F30" s="53"/>
-      <c r="G30" s="52">
+      <c r="F30" s="50"/>
+      <c r="G30" s="49">
         <v>39515</v>
       </c>
-      <c r="H30" s="40" t="s">
+      <c r="H30" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I30" s="40">
+      <c r="I30" s="39">
         <v>2200</v>
       </c>
-      <c r="J30" s="40" t="s">
+      <c r="J30" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K30" s="42"/>
-      <c r="L30" s="42"/>
+      <c r="K30" s="41"/>
+      <c r="L30" s="41"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A31" s="40">
+      <c r="A31" s="39">
         <v>129</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="39" t="s">
         <v>488</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="39" t="s">
         <v>489</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="40" t="s">
+      <c r="D31" s="41"/>
+      <c r="E31" s="39" t="s">
         <v>490</v>
       </c>
-      <c r="F31" s="53"/>
-      <c r="G31" s="52">
+      <c r="F31" s="50"/>
+      <c r="G31" s="49">
         <v>38584</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I31" s="40">
+      <c r="I31" s="39">
         <v>3300</v>
       </c>
-      <c r="J31" s="40" t="s">
+      <c r="J31" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K31" s="42"/>
-      <c r="L31" s="42"/>
+      <c r="K31" s="41"/>
+      <c r="L31" s="41"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A32" s="40">
+      <c r="A32" s="39">
         <v>130</v>
       </c>
-      <c r="B32" s="40" t="s">
+      <c r="B32" s="39" t="s">
         <v>491</v>
       </c>
-      <c r="C32" s="40" t="s">
+      <c r="C32" s="39" t="s">
         <v>492</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="40" t="s">
+      <c r="D32" s="41"/>
+      <c r="E32" s="39" t="s">
         <v>493</v>
       </c>
-      <c r="F32" s="53"/>
-      <c r="G32" s="52">
+      <c r="F32" s="50"/>
+      <c r="G32" s="49">
         <v>38655</v>
       </c>
-      <c r="H32" s="40" t="s">
+      <c r="H32" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I32" s="40">
+      <c r="I32" s="39">
         <v>2800</v>
       </c>
-      <c r="J32" s="40" t="s">
+      <c r="J32" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K32" s="42"/>
-      <c r="L32" s="42"/>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="40">
+      <c r="A33" s="39">
         <v>131</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="39" t="s">
         <v>483</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="39" t="s">
         <v>494</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="40" t="s">
+      <c r="D33" s="41"/>
+      <c r="E33" s="39" t="s">
         <v>495</v>
       </c>
-      <c r="F33" s="53"/>
-      <c r="G33" s="52">
+      <c r="F33" s="50"/>
+      <c r="G33" s="49">
         <v>38399</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I33" s="40">
+      <c r="I33" s="39">
         <v>2500</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="J33" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K33" s="42"/>
-      <c r="L33" s="42"/>
+      <c r="K33" s="41"/>
+      <c r="L33" s="41"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A34" s="40">
+      <c r="A34" s="39">
         <v>132</v>
       </c>
-      <c r="B34" s="40" t="s">
+      <c r="B34" s="39" t="s">
         <v>496</v>
       </c>
-      <c r="C34" s="40" t="s">
+      <c r="C34" s="39" t="s">
         <v>497</v>
       </c>
-      <c r="D34" s="42"/>
-      <c r="E34" s="40" t="s">
+      <c r="D34" s="41"/>
+      <c r="E34" s="39" t="s">
         <v>498</v>
       </c>
-      <c r="F34" s="53"/>
-      <c r="G34" s="52">
+      <c r="F34" s="50"/>
+      <c r="G34" s="49">
         <v>39182</v>
       </c>
-      <c r="H34" s="40" t="s">
+      <c r="H34" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I34" s="40">
+      <c r="I34" s="39">
         <v>2100</v>
       </c>
-      <c r="J34" s="40" t="s">
+      <c r="J34" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K34" s="42"/>
-      <c r="L34" s="42"/>
+      <c r="K34" s="41"/>
+      <c r="L34" s="41"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="40">
+      <c r="A35" s="39">
         <v>133</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="39" t="s">
         <v>499</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="39" t="s">
         <v>500</v>
       </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="40" t="s">
+      <c r="D35" s="41"/>
+      <c r="E35" s="39" t="s">
         <v>501</v>
       </c>
-      <c r="F35" s="53"/>
-      <c r="G35" s="52">
+      <c r="F35" s="50"/>
+      <c r="G35" s="49">
         <v>38152</v>
       </c>
-      <c r="H35" s="40" t="s">
+      <c r="H35" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I35" s="40">
+      <c r="I35" s="39">
         <v>3300</v>
       </c>
-      <c r="J35" s="40" t="s">
+      <c r="J35" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K35" s="42"/>
-      <c r="L35" s="42"/>
+      <c r="K35" s="41"/>
+      <c r="L35" s="41"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="40">
+      <c r="A36" s="39">
         <v>134</v>
       </c>
-      <c r="B36" s="40" t="s">
+      <c r="B36" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="C36" s="40" t="s">
+      <c r="C36" s="39" t="s">
         <v>503</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="40" t="s">
+      <c r="D36" s="41"/>
+      <c r="E36" s="39" t="s">
         <v>504</v>
       </c>
-      <c r="F36" s="53"/>
-      <c r="G36" s="52">
+      <c r="F36" s="50"/>
+      <c r="G36" s="49">
         <v>38955</v>
       </c>
-      <c r="H36" s="40" t="s">
+      <c r="H36" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I36" s="40">
+      <c r="I36" s="39">
         <v>2900</v>
       </c>
-      <c r="J36" s="40" t="s">
+      <c r="J36" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K36" s="42"/>
-      <c r="L36" s="42"/>
+      <c r="K36" s="41"/>
+      <c r="L36" s="41"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="40">
+      <c r="A37" s="39">
         <v>135</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="39" t="s">
         <v>505</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="39" t="s">
         <v>506</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="40" t="s">
+      <c r="D37" s="41"/>
+      <c r="E37" s="39" t="s">
         <v>507</v>
       </c>
-      <c r="F37" s="53"/>
-      <c r="G37" s="52">
+      <c r="F37" s="50"/>
+      <c r="G37" s="49">
         <v>39428</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I37" s="40">
+      <c r="I37" s="39">
         <v>2400</v>
       </c>
-      <c r="J37" s="40" t="s">
+      <c r="J37" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K37" s="42"/>
-      <c r="L37" s="42"/>
+      <c r="K37" s="41"/>
+      <c r="L37" s="41"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="40">
+      <c r="A38" s="39">
         <v>136</v>
       </c>
-      <c r="B38" s="40" t="s">
+      <c r="B38" s="39" t="s">
         <v>508</v>
       </c>
-      <c r="C38" s="40" t="s">
+      <c r="C38" s="39" t="s">
         <v>509</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="40" t="s">
+      <c r="D38" s="41"/>
+      <c r="E38" s="39" t="s">
         <v>510</v>
       </c>
-      <c r="F38" s="53"/>
-      <c r="G38" s="52">
+      <c r="F38" s="50"/>
+      <c r="G38" s="49">
         <v>39484</v>
       </c>
-      <c r="H38" s="40" t="s">
+      <c r="H38" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I38" s="40">
+      <c r="I38" s="39">
         <v>2200</v>
       </c>
-      <c r="J38" s="40" t="s">
+      <c r="J38" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K38" s="42"/>
-      <c r="L38" s="42"/>
+      <c r="K38" s="41"/>
+      <c r="L38" s="41"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="40">
+      <c r="A39" s="39">
         <v>137</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="39" t="s">
         <v>511</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="39" t="s">
         <v>512</v>
       </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="40" t="s">
+      <c r="D39" s="41"/>
+      <c r="E39" s="39" t="s">
         <v>513</v>
       </c>
-      <c r="F39" s="53"/>
-      <c r="G39" s="52">
+      <c r="F39" s="50"/>
+      <c r="G39" s="49">
         <v>37816</v>
       </c>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I39" s="40">
+      <c r="I39" s="39">
         <v>3600</v>
       </c>
-      <c r="J39" s="40" t="s">
+      <c r="J39" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K39" s="42"/>
-      <c r="L39" s="42"/>
+      <c r="K39" s="41"/>
+      <c r="L39" s="41"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="40">
+      <c r="A40" s="39">
         <v>138</v>
       </c>
-      <c r="B40" s="40" t="s">
+      <c r="B40" s="39" t="s">
         <v>514</v>
       </c>
-      <c r="C40" s="40" t="s">
+      <c r="C40" s="39" t="s">
         <v>515</v>
       </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="40" t="s">
+      <c r="D40" s="41"/>
+      <c r="E40" s="39" t="s">
         <v>516</v>
       </c>
-      <c r="F40" s="53"/>
-      <c r="G40" s="52">
+      <c r="F40" s="50"/>
+      <c r="G40" s="49">
         <v>38651</v>
       </c>
-      <c r="H40" s="40" t="s">
+      <c r="H40" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I40" s="40">
+      <c r="I40" s="39">
         <v>3200</v>
       </c>
-      <c r="J40" s="40" t="s">
+      <c r="J40" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K40" s="42"/>
-      <c r="L40" s="42"/>
+      <c r="K40" s="41"/>
+      <c r="L40" s="41"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="40">
+      <c r="A41" s="39">
         <v>139</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="39" t="s">
         <v>517</v>
       </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="40" t="s">
+      <c r="D41" s="41"/>
+      <c r="E41" s="39" t="s">
         <v>518</v>
       </c>
-      <c r="F41" s="53"/>
-      <c r="G41" s="52">
+      <c r="F41" s="50"/>
+      <c r="G41" s="49">
         <v>38760</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I41" s="40">
+      <c r="I41" s="39">
         <v>2700</v>
       </c>
-      <c r="J41" s="40" t="s">
+      <c r="J41" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K41" s="42"/>
-      <c r="L41" s="42"/>
+      <c r="K41" s="41"/>
+      <c r="L41" s="41"/>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
+      <c r="A42" s="39">
         <v>140</v>
       </c>
-      <c r="B42" s="40" t="s">
+      <c r="B42" s="39" t="s">
         <v>519</v>
       </c>
-      <c r="C42" s="40" t="s">
+      <c r="C42" s="39" t="s">
         <v>520</v>
       </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="40" t="s">
+      <c r="D42" s="41"/>
+      <c r="E42" s="39" t="s">
         <v>521</v>
       </c>
-      <c r="F42" s="53"/>
-      <c r="G42" s="52">
+      <c r="F42" s="50"/>
+      <c r="G42" s="49">
         <v>38813</v>
       </c>
-      <c r="H42" s="40" t="s">
+      <c r="H42" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I42" s="40">
+      <c r="I42" s="39">
         <v>2500</v>
       </c>
-      <c r="J42" s="40" t="s">
+      <c r="J42" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K42" s="42"/>
-      <c r="L42" s="42"/>
+      <c r="K42" s="41"/>
+      <c r="L42" s="41"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="40">
+      <c r="A43" s="39">
         <v>141</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
         <v>522</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="39" t="s">
         <v>523</v>
       </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="40" t="s">
+      <c r="D43" s="41"/>
+      <c r="E43" s="39" t="s">
         <v>524</v>
       </c>
-      <c r="F43" s="53"/>
-      <c r="G43" s="52">
+      <c r="F43" s="50"/>
+      <c r="G43" s="49">
         <v>37911</v>
       </c>
-      <c r="H43" s="40" t="s">
+      <c r="H43" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I43" s="40">
+      <c r="I43" s="39">
         <v>3500</v>
       </c>
-      <c r="J43" s="40" t="s">
+      <c r="J43" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K43" s="42"/>
-      <c r="L43" s="42"/>
+      <c r="K43" s="41"/>
+      <c r="L43" s="41"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="40">
+      <c r="A44" s="39">
         <v>142</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="39" t="s">
         <v>525</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="39" t="s">
         <v>526</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="40" t="s">
+      <c r="D44" s="41"/>
+      <c r="E44" s="39" t="s">
         <v>527</v>
       </c>
-      <c r="F44" s="53"/>
-      <c r="G44" s="52">
+      <c r="F44" s="50"/>
+      <c r="G44" s="49">
         <v>38381</v>
       </c>
-      <c r="H44" s="40" t="s">
+      <c r="H44" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I44" s="40">
+      <c r="I44" s="39">
         <v>3100</v>
       </c>
-      <c r="J44" s="40" t="s">
+      <c r="J44" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K44" s="42"/>
-      <c r="L44" s="42"/>
+      <c r="K44" s="41"/>
+      <c r="L44" s="41"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="40">
+      <c r="A45" s="39">
         <v>143</v>
       </c>
-      <c r="B45" s="40" t="s">
+      <c r="B45" s="39" t="s">
         <v>528</v>
       </c>
-      <c r="C45" s="40" t="s">
+      <c r="C45" s="39" t="s">
         <v>529</v>
       </c>
-      <c r="D45" s="42"/>
-      <c r="E45" s="40" t="s">
+      <c r="D45" s="41"/>
+      <c r="E45" s="39" t="s">
         <v>530</v>
       </c>
-      <c r="F45" s="53"/>
-      <c r="G45" s="52">
+      <c r="F45" s="50"/>
+      <c r="G45" s="49">
         <v>38791</v>
       </c>
-      <c r="H45" s="40" t="s">
+      <c r="H45" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I45" s="40">
+      <c r="I45" s="39">
         <v>2600</v>
       </c>
-      <c r="J45" s="40" t="s">
+      <c r="J45" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K45" s="42"/>
-      <c r="L45" s="42"/>
+      <c r="K45" s="41"/>
+      <c r="L45" s="41"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="40">
+      <c r="A46" s="39">
         <v>144</v>
       </c>
-      <c r="B46" s="40" t="s">
+      <c r="B46" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="C46" s="40" t="s">
+      <c r="C46" s="39" t="s">
         <v>532</v>
       </c>
-      <c r="D46" s="42"/>
-      <c r="E46" s="40" t="s">
+      <c r="D46" s="41"/>
+      <c r="E46" s="39" t="s">
         <v>533</v>
       </c>
-      <c r="F46" s="53"/>
-      <c r="G46" s="52">
+      <c r="F46" s="50"/>
+      <c r="G46" s="49">
         <v>38907</v>
       </c>
-      <c r="H46" s="40" t="s">
+      <c r="H46" s="39" t="s">
         <v>479</v>
       </c>
-      <c r="I46" s="40">
+      <c r="I46" s="39">
         <v>2500</v>
       </c>
-      <c r="J46" s="40" t="s">
+      <c r="J46" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K46" s="42"/>
-      <c r="L46" s="42"/>
+      <c r="K46" s="41"/>
+      <c r="L46" s="41"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="40">
+      <c r="A47" s="39">
         <v>145</v>
       </c>
-      <c r="B47" s="40" t="s">
+      <c r="B47" s="39" t="s">
         <v>427</v>
       </c>
-      <c r="C47" s="40" t="s">
+      <c r="C47" s="39" t="s">
         <v>534</v>
       </c>
-      <c r="D47" s="42"/>
-      <c r="E47" s="40" t="s">
+      <c r="D47" s="41"/>
+      <c r="E47" s="39" t="s">
         <v>535</v>
       </c>
-      <c r="F47" s="53"/>
-      <c r="G47" s="52">
+      <c r="F47" s="50"/>
+      <c r="G47" s="49">
         <v>38261</v>
       </c>
-      <c r="H47" s="40" t="s">
+      <c r="H47" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="I47" s="40">
+      <c r="I47" s="39">
         <v>14000</v>
       </c>
-      <c r="J47" s="40" t="s">
+      <c r="J47" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K47" s="42"/>
-      <c r="L47" s="42"/>
+      <c r="K47" s="41"/>
+      <c r="L47" s="41"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="40">
+      <c r="A48" s="39">
         <v>146</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="39" t="s">
         <v>456</v>
       </c>
-      <c r="C48" s="40" t="s">
+      <c r="C48" s="39" t="s">
         <v>538</v>
       </c>
-      <c r="D48" s="42"/>
-      <c r="E48" s="40" t="s">
+      <c r="D48" s="41"/>
+      <c r="E48" s="39" t="s">
         <v>539</v>
       </c>
-      <c r="F48" s="53"/>
-      <c r="G48" s="52">
+      <c r="F48" s="50"/>
+      <c r="G48" s="49">
         <v>38357</v>
       </c>
-      <c r="H48" s="40" t="s">
+      <c r="H48" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="I48" s="40">
+      <c r="I48" s="39">
         <v>13500</v>
       </c>
-      <c r="J48" s="40" t="s">
+      <c r="J48" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K48" s="42"/>
-      <c r="L48" s="42"/>
+      <c r="K48" s="41"/>
+      <c r="L48" s="41"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A49" s="40">
+      <c r="A49" s="39">
         <v>147</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="39" t="s">
         <v>540</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="39" t="s">
         <v>541</v>
       </c>
-      <c r="D49" s="42"/>
-      <c r="E49" s="40" t="s">
+      <c r="D49" s="41"/>
+      <c r="E49" s="39" t="s">
         <v>542</v>
       </c>
-      <c r="F49" s="53"/>
-      <c r="G49" s="52">
+      <c r="F49" s="50"/>
+      <c r="G49" s="49">
         <v>38421</v>
       </c>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="I49" s="40">
+      <c r="I49" s="39">
         <v>12000</v>
       </c>
-      <c r="J49" s="40" t="s">
+      <c r="J49" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K49" s="42"/>
-      <c r="L49" s="42"/>
+      <c r="K49" s="41"/>
+      <c r="L49" s="41"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A50" s="40">
+      <c r="A50" s="39">
         <v>148</v>
       </c>
-      <c r="B50" s="40" t="s">
+      <c r="B50" s="39" t="s">
         <v>543</v>
       </c>
-      <c r="C50" s="40" t="s">
+      <c r="C50" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="D50" s="42"/>
-      <c r="E50" s="40" t="s">
+      <c r="D50" s="41"/>
+      <c r="E50" s="39" t="s">
         <v>545</v>
       </c>
-      <c r="F50" s="53"/>
-      <c r="G50" s="52">
+      <c r="F50" s="50"/>
+      <c r="G50" s="49">
         <v>39370</v>
       </c>
-      <c r="H50" s="40" t="s">
+      <c r="H50" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="I50" s="40">
+      <c r="I50" s="39">
         <v>11000</v>
       </c>
-      <c r="J50" s="40" t="s">
+      <c r="J50" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K50" s="42"/>
-      <c r="L50" s="42"/>
+      <c r="K50" s="41"/>
+      <c r="L50" s="41"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A51" s="40">
+      <c r="A51" s="39">
         <v>149</v>
       </c>
-      <c r="B51" s="40" t="s">
+      <c r="B51" s="39" t="s">
         <v>546</v>
       </c>
-      <c r="C51" s="40" t="s">
+      <c r="C51" s="39" t="s">
         <v>547</v>
       </c>
-      <c r="D51" s="42"/>
-      <c r="E51" s="40" t="s">
+      <c r="D51" s="41"/>
+      <c r="E51" s="39" t="s">
         <v>548</v>
       </c>
-      <c r="F51" s="53"/>
-      <c r="G51" s="52">
+      <c r="F51" s="50"/>
+      <c r="G51" s="49">
         <v>39476</v>
       </c>
-      <c r="H51" s="40" t="s">
+      <c r="H51" s="39" t="s">
         <v>536</v>
       </c>
-      <c r="I51" s="40">
+      <c r="I51" s="39">
         <v>10500</v>
       </c>
-      <c r="J51" s="40" t="s">
+      <c r="J51" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K51" s="42"/>
-      <c r="L51" s="42"/>
+      <c r="K51" s="41"/>
+      <c r="L51" s="41"/>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A52" s="40">
+      <c r="A52" s="39">
         <v>150</v>
       </c>
-      <c r="B52" s="40" t="s">
+      <c r="B52" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="C52" s="40" t="s">
+      <c r="C52" s="39" t="s">
         <v>549</v>
       </c>
-      <c r="D52" s="42"/>
-      <c r="E52" s="40" t="s">
+      <c r="D52" s="41"/>
+      <c r="E52" s="39" t="s">
         <v>550</v>
       </c>
-      <c r="F52" s="53"/>
-      <c r="G52" s="52">
+      <c r="F52" s="50"/>
+      <c r="G52" s="49">
         <v>38382</v>
       </c>
-      <c r="H52" s="40" t="s">
+      <c r="H52" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I52" s="40">
+      <c r="I52" s="39">
         <v>10000</v>
       </c>
-      <c r="J52" s="40" t="s">
+      <c r="J52" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K52" s="42"/>
-      <c r="L52" s="42"/>
+      <c r="K52" s="41"/>
+      <c r="L52" s="41"/>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A53" s="40">
+      <c r="A53" s="39">
         <v>151</v>
       </c>
-      <c r="B53" s="40" t="s">
+      <c r="B53" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="C53" s="40" t="s">
+      <c r="C53" s="39" t="s">
         <v>552</v>
       </c>
-      <c r="D53" s="42"/>
-      <c r="E53" s="40" t="s">
+      <c r="D53" s="41"/>
+      <c r="E53" s="39" t="s">
         <v>553</v>
       </c>
-      <c r="F53" s="53"/>
-      <c r="G53" s="52">
+      <c r="F53" s="50"/>
+      <c r="G53" s="49">
         <v>38435</v>
       </c>
-      <c r="H53" s="40" t="s">
+      <c r="H53" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I53" s="40">
+      <c r="I53" s="39">
         <v>9500</v>
       </c>
-      <c r="J53" s="40" t="s">
+      <c r="J53" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K53" s="42"/>
-      <c r="L53" s="42"/>
+      <c r="K53" s="41"/>
+      <c r="L53" s="41"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A54" s="40">
+      <c r="A54" s="39">
         <v>152</v>
       </c>
-      <c r="B54" s="40" t="s">
+      <c r="B54" s="39" t="s">
         <v>531</v>
       </c>
-      <c r="C54" s="40" t="s">
+      <c r="C54" s="39" t="s">
         <v>554</v>
       </c>
-      <c r="D54" s="42"/>
-      <c r="E54" s="40" t="s">
+      <c r="D54" s="41"/>
+      <c r="E54" s="39" t="s">
         <v>555</v>
       </c>
-      <c r="F54" s="53"/>
-      <c r="G54" s="52">
+      <c r="F54" s="50"/>
+      <c r="G54" s="49">
         <v>38584</v>
       </c>
-      <c r="H54" s="40" t="s">
+      <c r="H54" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I54" s="40">
+      <c r="I54" s="39">
         <v>9000</v>
       </c>
-      <c r="J54" s="40" t="s">
+      <c r="J54" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K54" s="42"/>
-      <c r="L54" s="42"/>
+      <c r="K54" s="41"/>
+      <c r="L54" s="41"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A55" s="40">
+      <c r="A55" s="39">
         <v>153</v>
       </c>
-      <c r="B55" s="40" t="s">
+      <c r="B55" s="39" t="s">
         <v>556</v>
       </c>
-      <c r="C55" s="40" t="s">
+      <c r="C55" s="39" t="s">
         <v>557</v>
       </c>
-      <c r="D55" s="42"/>
-      <c r="E55" s="40" t="s">
+      <c r="D55" s="41"/>
+      <c r="E55" s="39" t="s">
         <v>558</v>
       </c>
-      <c r="F55" s="53"/>
-      <c r="G55" s="52">
+      <c r="F55" s="50"/>
+      <c r="G55" s="49">
         <v>38806</v>
       </c>
-      <c r="H55" s="40" t="s">
+      <c r="H55" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I55" s="40">
+      <c r="I55" s="39">
         <v>8000</v>
       </c>
-      <c r="J55" s="40" t="s">
+      <c r="J55" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K55" s="42"/>
-      <c r="L55" s="42"/>
+      <c r="K55" s="41"/>
+      <c r="L55" s="41"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A56" s="40">
+      <c r="A56" s="39">
         <v>154</v>
       </c>
-      <c r="B56" s="40" t="s">
+      <c r="B56" s="39" t="s">
         <v>559</v>
       </c>
-      <c r="C56" s="40" t="s">
+      <c r="C56" s="39" t="s">
         <v>544</v>
       </c>
-      <c r="D56" s="42"/>
-      <c r="E56" s="40" t="s">
+      <c r="D56" s="41"/>
+      <c r="E56" s="39" t="s">
         <v>560</v>
       </c>
-      <c r="F56" s="53"/>
-      <c r="G56" s="52">
+      <c r="F56" s="50"/>
+      <c r="G56" s="49">
         <v>39060</v>
       </c>
-      <c r="H56" s="40" t="s">
+      <c r="H56" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I56" s="40">
+      <c r="I56" s="39">
         <v>7500</v>
       </c>
-      <c r="J56" s="40" t="s">
+      <c r="J56" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K56" s="42"/>
-      <c r="L56" s="42"/>
+      <c r="K56" s="41"/>
+      <c r="L56" s="41"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A57" s="40">
+      <c r="A57" s="39">
         <v>155</v>
       </c>
-      <c r="B57" s="40" t="s">
+      <c r="B57" s="39" t="s">
         <v>561</v>
       </c>
-      <c r="C57" s="40" t="s">
+      <c r="C57" s="39" t="s">
         <v>562</v>
       </c>
-      <c r="D57" s="42"/>
-      <c r="E57" s="40" t="s">
+      <c r="D57" s="41"/>
+      <c r="E57" s="39" t="s">
         <v>563</v>
       </c>
-      <c r="F57" s="53"/>
-      <c r="G57" s="52">
+      <c r="F57" s="50"/>
+      <c r="G57" s="49">
         <v>39409</v>
       </c>
-      <c r="H57" s="40" t="s">
+      <c r="H57" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I57" s="40">
+      <c r="I57" s="39">
         <v>7000</v>
       </c>
-      <c r="J57" s="40" t="s">
+      <c r="J57" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K57" s="42"/>
-      <c r="L57" s="42"/>
+      <c r="K57" s="41"/>
+      <c r="L57" s="41"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A58" s="40">
+      <c r="A58" s="39">
         <v>156</v>
       </c>
-      <c r="B58" s="40" t="s">
+      <c r="B58" s="39" t="s">
         <v>564</v>
       </c>
-      <c r="C58" s="40" t="s">
+      <c r="C58" s="39" t="s">
         <v>391</v>
       </c>
-      <c r="D58" s="42"/>
-      <c r="E58" s="40" t="s">
+      <c r="D58" s="41"/>
+      <c r="E58" s="39" t="s">
         <v>565</v>
       </c>
-      <c r="F58" s="53"/>
-      <c r="G58" s="52">
+      <c r="F58" s="50"/>
+      <c r="G58" s="49">
         <v>38016</v>
       </c>
-      <c r="H58" s="40" t="s">
+      <c r="H58" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I58" s="40">
+      <c r="I58" s="39">
         <v>10000</v>
       </c>
-      <c r="J58" s="40" t="s">
+      <c r="J58" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K58" s="42"/>
-      <c r="L58" s="42"/>
+      <c r="K58" s="41"/>
+      <c r="L58" s="41"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A59" s="40">
+      <c r="A59" s="39">
         <v>157</v>
       </c>
-      <c r="B59" s="40" t="s">
+      <c r="B59" s="39" t="s">
         <v>566</v>
       </c>
-      <c r="C59" s="40" t="s">
+      <c r="C59" s="39" t="s">
         <v>567</v>
       </c>
-      <c r="D59" s="42"/>
-      <c r="E59" s="40" t="s">
+      <c r="D59" s="41"/>
+      <c r="E59" s="39" t="s">
         <v>568</v>
       </c>
-      <c r="F59" s="53"/>
-      <c r="G59" s="52">
+      <c r="F59" s="50"/>
+      <c r="G59" s="49">
         <v>38050</v>
       </c>
-      <c r="H59" s="40" t="s">
+      <c r="H59" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I59" s="40">
+      <c r="I59" s="39">
         <v>9500</v>
       </c>
-      <c r="J59" s="40" t="s">
+      <c r="J59" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K59" s="42"/>
-      <c r="L59" s="42"/>
+      <c r="K59" s="41"/>
+      <c r="L59" s="41"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A60" s="40">
+      <c r="A60" s="39">
         <v>158</v>
       </c>
-      <c r="B60" s="40" t="s">
+      <c r="B60" s="39" t="s">
         <v>569</v>
       </c>
-      <c r="C60" s="40" t="s">
+      <c r="C60" s="39" t="s">
         <v>570</v>
       </c>
-      <c r="D60" s="42"/>
-      <c r="E60" s="40" t="s">
+      <c r="D60" s="41"/>
+      <c r="E60" s="39" t="s">
         <v>571</v>
       </c>
-      <c r="F60" s="53"/>
-      <c r="G60" s="52">
+      <c r="F60" s="50"/>
+      <c r="G60" s="49">
         <v>38200</v>
       </c>
-      <c r="H60" s="40" t="s">
+      <c r="H60" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I60" s="40">
+      <c r="I60" s="39">
         <v>9000</v>
       </c>
-      <c r="J60" s="40" t="s">
+      <c r="J60" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K60" s="42"/>
-      <c r="L60" s="42"/>
+      <c r="K60" s="41"/>
+      <c r="L60" s="41"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A61" s="40">
+      <c r="A61" s="39">
         <v>159</v>
       </c>
-      <c r="B61" s="40" t="s">
+      <c r="B61" s="39" t="s">
         <v>572</v>
       </c>
-      <c r="C61" s="40" t="s">
+      <c r="C61" s="39" t="s">
         <v>573</v>
       </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="40" t="s">
+      <c r="D61" s="41"/>
+      <c r="E61" s="39" t="s">
         <v>574</v>
       </c>
-      <c r="F61" s="53"/>
-      <c r="G61" s="52">
+      <c r="F61" s="50"/>
+      <c r="G61" s="49">
         <v>38421</v>
       </c>
-      <c r="H61" s="40" t="s">
+      <c r="H61" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I61" s="40">
+      <c r="I61" s="39">
         <v>8000</v>
       </c>
-      <c r="J61" s="40" t="s">
+      <c r="J61" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K61" s="42"/>
-      <c r="L61" s="42"/>
+      <c r="K61" s="41"/>
+      <c r="L61" s="41"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A62" s="40">
+      <c r="A62" s="39">
         <v>160</v>
       </c>
-      <c r="B62" s="40" t="s">
+      <c r="B62" s="39" t="s">
         <v>575</v>
       </c>
-      <c r="C62" s="40" t="s">
+      <c r="C62" s="39" t="s">
         <v>576</v>
       </c>
-      <c r="D62" s="42"/>
-      <c r="E62" s="40" t="s">
+      <c r="D62" s="41"/>
+      <c r="E62" s="39" t="s">
         <v>577</v>
       </c>
-      <c r="F62" s="53"/>
-      <c r="G62" s="52">
+      <c r="F62" s="50"/>
+      <c r="G62" s="49">
         <v>38701</v>
       </c>
-      <c r="H62" s="40" t="s">
+      <c r="H62" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I62" s="40">
+      <c r="I62" s="39">
         <v>7500</v>
       </c>
-      <c r="J62" s="40" t="s">
+      <c r="J62" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K62" s="42"/>
-      <c r="L62" s="42"/>
+      <c r="K62" s="41"/>
+      <c r="L62" s="41"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A63" s="40">
+      <c r="A63" s="39">
         <v>161</v>
       </c>
-      <c r="B63" s="40" t="s">
+      <c r="B63" s="39" t="s">
         <v>578</v>
       </c>
-      <c r="C63" s="40" t="s">
+      <c r="C63" s="39" t="s">
         <v>579</v>
       </c>
-      <c r="D63" s="42"/>
-      <c r="E63" s="40" t="s">
+      <c r="D63" s="41"/>
+      <c r="E63" s="39" t="s">
         <v>580</v>
       </c>
-      <c r="F63" s="53"/>
-      <c r="G63" s="52">
+      <c r="F63" s="50"/>
+      <c r="G63" s="49">
         <v>39024</v>
       </c>
-      <c r="H63" s="40" t="s">
+      <c r="H63" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I63" s="40">
+      <c r="I63" s="39">
         <v>7000</v>
       </c>
-      <c r="J63" s="40" t="s">
+      <c r="J63" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K63" s="42"/>
-      <c r="L63" s="42"/>
+      <c r="K63" s="41"/>
+      <c r="L63" s="41"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A64" s="40">
+      <c r="A64" s="39">
         <v>162</v>
       </c>
-      <c r="B64" s="40" t="s">
+      <c r="B64" s="39" t="s">
         <v>581</v>
       </c>
-      <c r="C64" s="40" t="s">
+      <c r="C64" s="39" t="s">
         <v>582</v>
       </c>
-      <c r="D64" s="42"/>
-      <c r="E64" s="40" t="s">
+      <c r="D64" s="41"/>
+      <c r="E64" s="39" t="s">
         <v>583</v>
       </c>
-      <c r="F64" s="53"/>
-      <c r="G64" s="52">
+      <c r="F64" s="50"/>
+      <c r="G64" s="49">
         <v>38667</v>
       </c>
-      <c r="H64" s="40" t="s">
+      <c r="H64" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I64" s="40">
+      <c r="I64" s="39">
         <v>10500</v>
       </c>
-      <c r="J64" s="40" t="s">
+      <c r="J64" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K64" s="42"/>
-      <c r="L64" s="42"/>
+      <c r="K64" s="41"/>
+      <c r="L64" s="41"/>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A65" s="40">
+      <c r="A65" s="39">
         <v>163</v>
       </c>
-      <c r="B65" s="40" t="s">
+      <c r="B65" s="39" t="s">
         <v>584</v>
       </c>
-      <c r="C65" s="40" t="s">
+      <c r="C65" s="39" t="s">
         <v>585</v>
       </c>
-      <c r="D65" s="42"/>
-      <c r="E65" s="40" t="s">
+      <c r="D65" s="41"/>
+      <c r="E65" s="39" t="s">
         <v>586</v>
       </c>
-      <c r="F65" s="53"/>
-      <c r="G65" s="52">
+      <c r="F65" s="50"/>
+      <c r="G65" s="49">
         <v>39160</v>
       </c>
-      <c r="H65" s="40" t="s">
+      <c r="H65" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I65" s="40">
+      <c r="I65" s="39">
         <v>9500</v>
       </c>
-      <c r="J65" s="40" t="s">
+      <c r="J65" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K65" s="42"/>
-      <c r="L65" s="42"/>
+      <c r="K65" s="41"/>
+      <c r="L65" s="41"/>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A66" s="40">
+      <c r="A66" s="39">
         <v>164</v>
       </c>
-      <c r="B66" s="40" t="s">
+      <c r="B66" s="39" t="s">
         <v>587</v>
       </c>
-      <c r="C66" s="40" t="s">
+      <c r="C66" s="39" t="s">
         <v>588</v>
       </c>
-      <c r="D66" s="42"/>
-      <c r="E66" s="40" t="s">
+      <c r="D66" s="41"/>
+      <c r="E66" s="39" t="s">
         <v>589</v>
       </c>
-      <c r="F66" s="53"/>
-      <c r="G66" s="52">
+      <c r="F66" s="50"/>
+      <c r="G66" s="49">
         <v>39471</v>
       </c>
-      <c r="H66" s="40" t="s">
+      <c r="H66" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I66" s="40">
+      <c r="I66" s="39">
         <v>7200</v>
       </c>
-      <c r="J66" s="40" t="s">
+      <c r="J66" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K66" s="42"/>
-      <c r="L66" s="42"/>
+      <c r="K66" s="41"/>
+      <c r="L66" s="41"/>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A67" s="40">
+      <c r="A67" s="39">
         <v>165</v>
       </c>
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="39" t="s">
         <v>410</v>
       </c>
-      <c r="C67" s="40" t="s">
+      <c r="C67" s="39" t="s">
         <v>590</v>
       </c>
-      <c r="D67" s="42"/>
-      <c r="E67" s="40" t="s">
+      <c r="D67" s="41"/>
+      <c r="E67" s="39" t="s">
         <v>591</v>
       </c>
-      <c r="F67" s="53"/>
-      <c r="G67" s="52">
+      <c r="F67" s="50"/>
+      <c r="G67" s="49">
         <v>39501</v>
       </c>
-      <c r="H67" s="40" t="s">
+      <c r="H67" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I67" s="40">
+      <c r="I67" s="39">
         <v>6800</v>
       </c>
-      <c r="J67" s="40" t="s">
+      <c r="J67" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K67" s="42"/>
-      <c r="L67" s="42"/>
+      <c r="K67" s="41"/>
+      <c r="L67" s="41"/>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A68" s="40">
+      <c r="A68" s="39">
         <v>166</v>
       </c>
-      <c r="B68" s="40" t="s">
+      <c r="B68" s="39" t="s">
         <v>592</v>
       </c>
-      <c r="C68" s="40" t="s">
+      <c r="C68" s="39" t="s">
         <v>593</v>
       </c>
-      <c r="D68" s="42"/>
-      <c r="E68" s="40" t="s">
+      <c r="D68" s="41"/>
+      <c r="E68" s="39" t="s">
         <v>594</v>
       </c>
-      <c r="F68" s="53"/>
-      <c r="G68" s="52">
+      <c r="F68" s="50"/>
+      <c r="G68" s="49">
         <v>39531</v>
       </c>
-      <c r="H68" s="40" t="s">
+      <c r="H68" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I68" s="40">
+      <c r="I68" s="39">
         <v>6400</v>
       </c>
-      <c r="J68" s="40" t="s">
+      <c r="J68" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K68" s="42"/>
-      <c r="L68" s="42"/>
+      <c r="K68" s="41"/>
+      <c r="L68" s="41"/>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A69" s="40">
+      <c r="A69" s="39">
         <v>167</v>
       </c>
-      <c r="B69" s="40" t="s">
+      <c r="B69" s="39" t="s">
         <v>595</v>
       </c>
-      <c r="C69" s="40" t="s">
+      <c r="C69" s="39" t="s">
         <v>596</v>
       </c>
-      <c r="D69" s="42"/>
-      <c r="E69" s="40" t="s">
+      <c r="D69" s="41"/>
+      <c r="E69" s="39" t="s">
         <v>597</v>
       </c>
-      <c r="F69" s="53"/>
-      <c r="G69" s="52">
+      <c r="F69" s="50"/>
+      <c r="G69" s="49">
         <v>39559</v>
       </c>
-      <c r="H69" s="40" t="s">
+      <c r="H69" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I69" s="40">
+      <c r="I69" s="39">
         <v>6200</v>
       </c>
-      <c r="J69" s="40" t="s">
+      <c r="J69" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K69" s="42"/>
-      <c r="L69" s="42"/>
+      <c r="K69" s="41"/>
+      <c r="L69" s="41"/>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A70" s="40">
+      <c r="A70" s="39">
         <v>168</v>
       </c>
-      <c r="B70" s="40" t="s">
+      <c r="B70" s="39" t="s">
         <v>598</v>
       </c>
-      <c r="C70" s="40" t="s">
+      <c r="C70" s="39" t="s">
         <v>599</v>
       </c>
-      <c r="D70" s="42"/>
-      <c r="E70" s="40" t="s">
+      <c r="D70" s="41"/>
+      <c r="E70" s="39" t="s">
         <v>600</v>
       </c>
-      <c r="F70" s="53"/>
-      <c r="G70" s="52">
+      <c r="F70" s="50"/>
+      <c r="G70" s="49">
         <v>38422</v>
       </c>
-      <c r="H70" s="40" t="s">
+      <c r="H70" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I70" s="40">
+      <c r="I70" s="39">
         <v>11500</v>
       </c>
-      <c r="J70" s="40" t="s">
+      <c r="J70" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K70" s="42"/>
-      <c r="L70" s="42"/>
+      <c r="K70" s="41"/>
+      <c r="L70" s="41"/>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A71" s="40">
+      <c r="A71" s="39">
         <v>169</v>
       </c>
-      <c r="B71" s="40" t="s">
+      <c r="B71" s="39" t="s">
         <v>601</v>
       </c>
-      <c r="C71" s="40" t="s">
+      <c r="C71" s="39" t="s">
         <v>602</v>
       </c>
-      <c r="D71" s="42"/>
-      <c r="E71" s="40" t="s">
+      <c r="D71" s="41"/>
+      <c r="E71" s="39" t="s">
         <v>603</v>
       </c>
-      <c r="F71" s="53"/>
-      <c r="G71" s="52">
+      <c r="F71" s="50"/>
+      <c r="G71" s="49">
         <v>38799</v>
       </c>
-      <c r="H71" s="40" t="s">
+      <c r="H71" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I71" s="40">
+      <c r="I71" s="39">
         <v>10000</v>
       </c>
-      <c r="J71" s="40" t="s">
+      <c r="J71" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K71" s="42"/>
-      <c r="L71" s="42"/>
+      <c r="K71" s="41"/>
+      <c r="L71" s="41"/>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A72" s="40">
+      <c r="A72" s="39">
         <v>170</v>
       </c>
-      <c r="B72" s="40" t="s">
+      <c r="B72" s="39" t="s">
         <v>604</v>
       </c>
-      <c r="C72" s="40" t="s">
+      <c r="C72" s="39" t="s">
         <v>605</v>
       </c>
-      <c r="D72" s="42"/>
-      <c r="E72" s="40" t="s">
+      <c r="D72" s="41"/>
+      <c r="E72" s="39" t="s">
         <v>606</v>
       </c>
-      <c r="F72" s="53"/>
-      <c r="G72" s="52">
+      <c r="F72" s="50"/>
+      <c r="G72" s="49">
         <v>38741</v>
       </c>
-      <c r="H72" s="40" t="s">
+      <c r="H72" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I72" s="40">
+      <c r="I72" s="39">
         <v>9600</v>
       </c>
-      <c r="J72" s="40" t="s">
+      <c r="J72" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K72" s="42"/>
-      <c r="L72" s="42"/>
+      <c r="K72" s="41"/>
+      <c r="L72" s="41"/>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A73" s="40">
+      <c r="A73" s="39">
         <v>171</v>
       </c>
-      <c r="B73" s="40" t="s">
+      <c r="B73" s="39" t="s">
         <v>607</v>
       </c>
-      <c r="C73" s="40" t="s">
+      <c r="C73" s="39" t="s">
         <v>573</v>
       </c>
-      <c r="D73" s="42"/>
-      <c r="E73" s="40" t="s">
+      <c r="D73" s="41"/>
+      <c r="E73" s="39" t="s">
         <v>608</v>
       </c>
-      <c r="F73" s="53"/>
-      <c r="G73" s="52">
+      <c r="F73" s="50"/>
+      <c r="G73" s="49">
         <v>39136</v>
       </c>
-      <c r="H73" s="40" t="s">
+      <c r="H73" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I73" s="40">
+      <c r="I73" s="39">
         <v>7400</v>
       </c>
-      <c r="J73" s="40" t="s">
+      <c r="J73" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K73" s="42"/>
-      <c r="L73" s="42"/>
+      <c r="K73" s="41"/>
+      <c r="L73" s="41"/>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A74" s="40">
+      <c r="A74" s="39">
         <v>172</v>
       </c>
-      <c r="B74" s="40" t="s">
+      <c r="B74" s="39" t="s">
         <v>609</v>
       </c>
-      <c r="C74" s="40" t="s">
+      <c r="C74" s="39" t="s">
         <v>610</v>
       </c>
-      <c r="D74" s="42"/>
-      <c r="E74" s="40" t="s">
+      <c r="D74" s="41"/>
+      <c r="E74" s="39" t="s">
         <v>611</v>
       </c>
-      <c r="F74" s="53"/>
-      <c r="G74" s="52">
+      <c r="F74" s="50"/>
+      <c r="G74" s="49">
         <v>39165</v>
       </c>
-      <c r="H74" s="40" t="s">
+      <c r="H74" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I74" s="40">
+      <c r="I74" s="39">
         <v>7300</v>
       </c>
-      <c r="J74" s="40" t="s">
+      <c r="J74" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K74" s="42"/>
-      <c r="L74" s="42"/>
+      <c r="K74" s="41"/>
+      <c r="L74" s="41"/>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A75" s="40">
+      <c r="A75" s="39">
         <v>173</v>
       </c>
-      <c r="B75" s="40" t="s">
+      <c r="B75" s="39" t="s">
         <v>612</v>
       </c>
-      <c r="C75" s="40" t="s">
+      <c r="C75" s="39" t="s">
         <v>188</v>
       </c>
-      <c r="D75" s="42"/>
-      <c r="E75" s="40" t="s">
+      <c r="D75" s="41"/>
+      <c r="E75" s="39" t="s">
         <v>613</v>
       </c>
-      <c r="F75" s="53"/>
-      <c r="G75" s="52">
+      <c r="F75" s="50"/>
+      <c r="G75" s="49">
         <v>39559</v>
       </c>
-      <c r="H75" s="40" t="s">
+      <c r="H75" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I75" s="40">
+      <c r="I75" s="39">
         <v>6100</v>
       </c>
-      <c r="J75" s="40" t="s">
+      <c r="J75" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K75" s="42"/>
-      <c r="L75" s="42"/>
+      <c r="K75" s="41"/>
+      <c r="L75" s="41"/>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A76" s="40">
+      <c r="A76" s="39">
         <v>174</v>
       </c>
-      <c r="B76" s="40" t="s">
+      <c r="B76" s="39" t="s">
         <v>614</v>
       </c>
-      <c r="C76" s="40" t="s">
+      <c r="C76" s="39" t="s">
         <v>615</v>
       </c>
-      <c r="D76" s="42"/>
-      <c r="E76" s="40" t="s">
+      <c r="D76" s="41"/>
+      <c r="E76" s="39" t="s">
         <v>616</v>
       </c>
-      <c r="F76" s="53"/>
-      <c r="G76" s="52">
+      <c r="F76" s="50"/>
+      <c r="G76" s="49">
         <v>38118</v>
       </c>
-      <c r="H76" s="40" t="s">
+      <c r="H76" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I76" s="40">
+      <c r="I76" s="39">
         <v>11000</v>
       </c>
-      <c r="J76" s="40" t="s">
+      <c r="J76" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K76" s="42"/>
-      <c r="L76" s="42"/>
+      <c r="K76" s="41"/>
+      <c r="L76" s="41"/>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A77" s="40">
+      <c r="A77" s="39">
         <v>175</v>
       </c>
-      <c r="B77" s="40" t="s">
+      <c r="B77" s="39" t="s">
         <v>617</v>
       </c>
-      <c r="C77" s="40" t="s">
+      <c r="C77" s="39" t="s">
         <v>618</v>
       </c>
-      <c r="D77" s="42"/>
-      <c r="E77" s="40" t="s">
+      <c r="D77" s="41"/>
+      <c r="E77" s="39" t="s">
         <v>619</v>
       </c>
-      <c r="F77" s="53"/>
-      <c r="G77" s="52">
+      <c r="F77" s="50"/>
+      <c r="G77" s="49">
         <v>38430</v>
       </c>
-      <c r="H77" s="40" t="s">
+      <c r="H77" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I77" s="40">
+      <c r="I77" s="39">
         <v>8800</v>
       </c>
-      <c r="J77" s="40" t="s">
+      <c r="J77" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K77" s="42"/>
-      <c r="L77" s="42"/>
+      <c r="K77" s="41"/>
+      <c r="L77" s="41"/>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A78" s="40">
+      <c r="A78" s="39">
         <v>176</v>
       </c>
-      <c r="B78" s="40" t="s">
+      <c r="B78" s="39" t="s">
         <v>620</v>
       </c>
-      <c r="C78" s="40" t="s">
+      <c r="C78" s="39" t="s">
         <v>621</v>
       </c>
-      <c r="D78" s="42"/>
-      <c r="E78" s="40" t="s">
+      <c r="D78" s="41"/>
+      <c r="E78" s="39" t="s">
         <v>622</v>
       </c>
-      <c r="F78" s="53"/>
-      <c r="G78" s="52">
+      <c r="F78" s="50"/>
+      <c r="G78" s="49">
         <v>38800</v>
       </c>
-      <c r="H78" s="40" t="s">
+      <c r="H78" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I78" s="40">
+      <c r="I78" s="39">
         <v>8600</v>
       </c>
-      <c r="J78" s="40" t="s">
+      <c r="J78" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K78" s="42"/>
-      <c r="L78" s="42"/>
+      <c r="K78" s="41"/>
+      <c r="L78" s="41"/>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A79" s="40">
+      <c r="A79" s="39">
         <v>177</v>
       </c>
-      <c r="B79" s="40" t="s">
+      <c r="B79" s="39" t="s">
         <v>623</v>
       </c>
-      <c r="C79" s="40" t="s">
+      <c r="C79" s="39" t="s">
         <v>624</v>
       </c>
-      <c r="D79" s="42"/>
-      <c r="E79" s="40" t="s">
+      <c r="D79" s="41"/>
+      <c r="E79" s="39" t="s">
         <v>625</v>
       </c>
-      <c r="F79" s="53"/>
-      <c r="G79" s="52">
+      <c r="F79" s="50"/>
+      <c r="G79" s="49">
         <v>38830</v>
       </c>
-      <c r="H79" s="40" t="s">
+      <c r="H79" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I79" s="40">
+      <c r="I79" s="39">
         <v>8400</v>
       </c>
-      <c r="J79" s="40" t="s">
+      <c r="J79" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K79" s="42"/>
-      <c r="L79" s="42"/>
+      <c r="K79" s="41"/>
+      <c r="L79" s="41"/>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A80" s="40">
+      <c r="A80" s="39">
         <v>178</v>
       </c>
-      <c r="B80" s="40" t="s">
+      <c r="B80" s="39" t="s">
         <v>626</v>
       </c>
-      <c r="C80" s="40" t="s">
+      <c r="C80" s="39" t="s">
         <v>627</v>
       </c>
-      <c r="D80" s="42"/>
-      <c r="E80" s="40" t="s">
+      <c r="D80" s="41"/>
+      <c r="E80" s="39" t="s">
         <v>628</v>
       </c>
-      <c r="F80" s="53"/>
-      <c r="G80" s="52">
+      <c r="F80" s="50"/>
+      <c r="G80" s="49">
         <v>39226</v>
       </c>
-      <c r="H80" s="40" t="s">
+      <c r="H80" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I80" s="40">
+      <c r="I80" s="39">
         <v>7000</v>
       </c>
-      <c r="J80" s="40" t="s">
+      <c r="J80" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K80" s="42"/>
-      <c r="L80" s="42"/>
+      <c r="K80" s="41"/>
+      <c r="L80" s="41"/>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A81" s="40">
+      <c r="A81" s="39">
         <v>179</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="39" t="s">
         <v>629</v>
       </c>
-      <c r="C81" s="40" t="s">
+      <c r="C81" s="39" t="s">
         <v>630</v>
       </c>
-      <c r="D81" s="42"/>
-      <c r="E81" s="40" t="s">
+      <c r="D81" s="41"/>
+      <c r="E81" s="39" t="s">
         <v>631</v>
       </c>
-      <c r="F81" s="53"/>
-      <c r="G81" s="52">
+      <c r="F81" s="50"/>
+      <c r="G81" s="49">
         <v>39451</v>
       </c>
-      <c r="H81" s="40" t="s">
+      <c r="H81" s="39" t="s">
         <v>551</v>
       </c>
-      <c r="I81" s="40">
+      <c r="I81" s="39">
         <v>6200</v>
       </c>
-      <c r="J81" s="40" t="s">
+      <c r="J81" s="39" t="s">
         <v>537</v>
       </c>
-      <c r="K81" s="42"/>
-      <c r="L81" s="42"/>
+      <c r="K81" s="41"/>
+      <c r="L81" s="41"/>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A82" s="40">
+      <c r="A82" s="39">
         <v>180</v>
       </c>
-      <c r="B82" s="40" t="s">
+      <c r="B82" s="39" t="s">
         <v>632</v>
       </c>
-      <c r="C82" s="40" t="s">
+      <c r="C82" s="39" t="s">
         <v>621</v>
       </c>
-      <c r="D82" s="42"/>
-      <c r="E82" s="40" t="s">
+      <c r="D82" s="41"/>
+      <c r="E82" s="39" t="s">
         <v>633</v>
       </c>
-      <c r="F82" s="53"/>
-      <c r="G82" s="52">
+      <c r="F82" s="50"/>
+      <c r="G82" s="49">
         <v>38741</v>
       </c>
-      <c r="H82" s="40" t="s">
+      <c r="H82" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I82" s="40">
+      <c r="I82" s="39">
         <v>3200</v>
       </c>
-      <c r="J82" s="40" t="s">
+      <c r="J82" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K82" s="42"/>
-      <c r="L82" s="42"/>
+      <c r="K82" s="41"/>
+      <c r="L82" s="41"/>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
+      <c r="A83" s="39">
         <v>181</v>
       </c>
-      <c r="B83" s="40" t="s">
+      <c r="B83" s="39" t="s">
         <v>635</v>
       </c>
-      <c r="C83" s="40" t="s">
+      <c r="C83" s="39" t="s">
         <v>636</v>
       </c>
-      <c r="D83" s="42"/>
-      <c r="E83" s="40" t="s">
+      <c r="D83" s="41"/>
+      <c r="E83" s="39" t="s">
         <v>637</v>
       </c>
-      <c r="F83" s="53"/>
-      <c r="G83" s="52">
+      <c r="F83" s="50"/>
+      <c r="G83" s="49">
         <v>38771</v>
       </c>
-      <c r="H83" s="40" t="s">
+      <c r="H83" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I83" s="40">
+      <c r="I83" s="39">
         <v>3100</v>
       </c>
-      <c r="J83" s="40" t="s">
+      <c r="J83" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K83" s="42"/>
-      <c r="L83" s="42"/>
+      <c r="K83" s="41"/>
+      <c r="L83" s="41"/>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A84" s="40">
+      <c r="A84" s="39">
         <v>182</v>
       </c>
-      <c r="B84" s="40" t="s">
+      <c r="B84" s="39" t="s">
         <v>638</v>
       </c>
-      <c r="C84" s="40" t="s">
+      <c r="C84" s="39" t="s">
         <v>639</v>
       </c>
-      <c r="D84" s="42"/>
-      <c r="E84" s="40" t="s">
+      <c r="D84" s="41"/>
+      <c r="E84" s="39" t="s">
         <v>640</v>
       </c>
-      <c r="F84" s="53"/>
-      <c r="G84" s="52">
+      <c r="F84" s="50"/>
+      <c r="G84" s="49">
         <v>39254</v>
       </c>
-      <c r="H84" s="40" t="s">
+      <c r="H84" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I84" s="40">
+      <c r="I84" s="39">
         <v>2500</v>
       </c>
-      <c r="J84" s="40" t="s">
+      <c r="J84" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K84" s="42"/>
-      <c r="L84" s="42"/>
+      <c r="K84" s="41"/>
+      <c r="L84" s="41"/>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A85" s="40">
+      <c r="A85" s="39">
         <v>183</v>
       </c>
-      <c r="B85" s="40" t="s">
+      <c r="B85" s="39" t="s">
         <v>641</v>
       </c>
-      <c r="C85" s="40" t="s">
+      <c r="C85" s="39" t="s">
         <v>642</v>
       </c>
-      <c r="D85" s="42"/>
-      <c r="E85" s="40" t="s">
+      <c r="D85" s="41"/>
+      <c r="E85" s="39" t="s">
         <v>643</v>
       </c>
-      <c r="F85" s="53"/>
-      <c r="G85" s="52">
+      <c r="F85" s="50"/>
+      <c r="G85" s="49">
         <v>39481</v>
       </c>
-      <c r="H85" s="40" t="s">
+      <c r="H85" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I85" s="40">
+      <c r="I85" s="39">
         <v>2800</v>
       </c>
-      <c r="J85" s="40" t="s">
+      <c r="J85" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K85" s="42"/>
-      <c r="L85" s="42"/>
+      <c r="K85" s="41"/>
+      <c r="L85" s="41"/>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
+      <c r="A86" s="39">
         <v>184</v>
       </c>
-      <c r="B86" s="40" t="s">
+      <c r="B86" s="39" t="s">
         <v>644</v>
       </c>
-      <c r="C86" s="40" t="s">
+      <c r="C86" s="39" t="s">
         <v>645</v>
       </c>
-      <c r="D86" s="42"/>
-      <c r="E86" s="40" t="s">
+      <c r="D86" s="41"/>
+      <c r="E86" s="39" t="s">
         <v>646</v>
       </c>
-      <c r="F86" s="53"/>
-      <c r="G86" s="52">
+      <c r="F86" s="50"/>
+      <c r="G86" s="49">
         <v>38013</v>
       </c>
-      <c r="H86" s="40" t="s">
+      <c r="H86" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I86" s="40">
+      <c r="I86" s="39">
         <v>4200</v>
       </c>
-      <c r="J86" s="40" t="s">
+      <c r="J86" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K86" s="42"/>
-      <c r="L86" s="42"/>
+      <c r="K86" s="41"/>
+      <c r="L86" s="41"/>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A87" s="40">
+      <c r="A87" s="39">
         <v>185</v>
       </c>
-      <c r="B87" s="40" t="s">
+      <c r="B87" s="39" t="s">
         <v>647</v>
       </c>
-      <c r="C87" s="40" t="s">
+      <c r="C87" s="39" t="s">
         <v>648</v>
       </c>
-      <c r="D87" s="42"/>
-      <c r="E87" s="40" t="s">
+      <c r="D87" s="41"/>
+      <c r="E87" s="39" t="s">
         <v>649</v>
       </c>
-      <c r="F87" s="53"/>
-      <c r="G87" s="52">
+      <c r="F87" s="50"/>
+      <c r="G87" s="49">
         <v>38403</v>
       </c>
-      <c r="H87" s="40" t="s">
+      <c r="H87" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I87" s="40">
+      <c r="I87" s="39">
         <v>4100</v>
       </c>
-      <c r="J87" s="40" t="s">
+      <c r="J87" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K87" s="42"/>
-      <c r="L87" s="42"/>
+      <c r="K87" s="41"/>
+      <c r="L87" s="41"/>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
+      <c r="A88" s="39">
         <v>186</v>
       </c>
-      <c r="B88" s="40" t="s">
+      <c r="B88" s="39" t="s">
         <v>476</v>
       </c>
-      <c r="C88" s="40" t="s">
+      <c r="C88" s="39" t="s">
         <v>650</v>
       </c>
-      <c r="D88" s="42"/>
-      <c r="E88" s="40" t="s">
+      <c r="D88" s="41"/>
+      <c r="E88" s="39" t="s">
         <v>651</v>
       </c>
-      <c r="F88" s="53"/>
-      <c r="G88" s="52">
+      <c r="F88" s="50"/>
+      <c r="G88" s="49">
         <v>38892</v>
       </c>
-      <c r="H88" s="40" t="s">
+      <c r="H88" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I88" s="40">
+      <c r="I88" s="39">
         <v>3400</v>
       </c>
-      <c r="J88" s="40" t="s">
+      <c r="J88" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K88" s="42"/>
-      <c r="L88" s="42"/>
+      <c r="K88" s="41"/>
+      <c r="L88" s="41"/>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
+      <c r="A89" s="39">
         <v>187</v>
       </c>
-      <c r="B89" s="40" t="s">
+      <c r="B89" s="39" t="s">
         <v>652</v>
       </c>
-      <c r="C89" s="40" t="s">
+      <c r="C89" s="39" t="s">
         <v>653</v>
       </c>
-      <c r="D89" s="42"/>
-      <c r="E89" s="40" t="s">
+      <c r="D89" s="41"/>
+      <c r="E89" s="39" t="s">
         <v>654</v>
       </c>
-      <c r="F89" s="53"/>
-      <c r="G89" s="52">
+      <c r="F89" s="50"/>
+      <c r="G89" s="49">
         <v>39120</v>
       </c>
-      <c r="H89" s="40" t="s">
+      <c r="H89" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I89" s="40">
+      <c r="I89" s="39">
         <v>3000</v>
       </c>
-      <c r="J89" s="40" t="s">
+      <c r="J89" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K89" s="42"/>
-      <c r="L89" s="42"/>
+      <c r="K89" s="41"/>
+      <c r="L89" s="41"/>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
+      <c r="A90" s="39">
         <v>188</v>
       </c>
-      <c r="B90" s="40" t="s">
+      <c r="B90" s="39" t="s">
         <v>655</v>
       </c>
-      <c r="C90" s="40" t="s">
+      <c r="C90" s="39" t="s">
         <v>656</v>
       </c>
-      <c r="D90" s="42"/>
-      <c r="E90" s="40" t="s">
+      <c r="D90" s="41"/>
+      <c r="E90" s="39" t="s">
         <v>657</v>
       </c>
-      <c r="F90" s="53"/>
-      <c r="G90" s="52">
+      <c r="F90" s="50"/>
+      <c r="G90" s="49">
         <v>38517</v>
       </c>
-      <c r="H90" s="40" t="s">
+      <c r="H90" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I90" s="40">
+      <c r="I90" s="39">
         <v>3800</v>
       </c>
-      <c r="J90" s="40" t="s">
+      <c r="J90" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K90" s="42"/>
-      <c r="L90" s="42"/>
+      <c r="K90" s="41"/>
+      <c r="L90" s="41"/>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A91" s="40">
+      <c r="A91" s="39">
         <v>189</v>
       </c>
-      <c r="B91" s="40" t="s">
+      <c r="B91" s="39" t="s">
         <v>658</v>
       </c>
-      <c r="C91" s="40" t="s">
+      <c r="C91" s="39" t="s">
         <v>659</v>
       </c>
-      <c r="D91" s="42"/>
-      <c r="E91" s="40" t="s">
+      <c r="D91" s="41"/>
+      <c r="E91" s="39" t="s">
         <v>660</v>
       </c>
-      <c r="F91" s="53"/>
-      <c r="G91" s="52">
+      <c r="F91" s="50"/>
+      <c r="G91" s="49">
         <v>38577</v>
       </c>
-      <c r="H91" s="40" t="s">
+      <c r="H91" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I91" s="40">
+      <c r="I91" s="39">
         <v>3600</v>
       </c>
-      <c r="J91" s="40" t="s">
+      <c r="J91" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K91" s="42"/>
-      <c r="L91" s="42"/>
+      <c r="K91" s="41"/>
+      <c r="L91" s="41"/>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A92" s="40">
+      <c r="A92" s="39">
         <v>190</v>
       </c>
-      <c r="B92" s="40" t="s">
+      <c r="B92" s="39" t="s">
         <v>661</v>
       </c>
-      <c r="C92" s="40" t="s">
+      <c r="C92" s="39" t="s">
         <v>662</v>
       </c>
-      <c r="D92" s="42"/>
-      <c r="E92" s="40" t="s">
+      <c r="D92" s="41"/>
+      <c r="E92" s="39" t="s">
         <v>663</v>
       </c>
-      <c r="F92" s="53"/>
-      <c r="G92" s="52">
+      <c r="F92" s="50"/>
+      <c r="G92" s="49">
         <v>38909</v>
       </c>
-      <c r="H92" s="40" t="s">
+      <c r="H92" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I92" s="40">
+      <c r="I92" s="39">
         <v>2900</v>
       </c>
-      <c r="J92" s="40" t="s">
+      <c r="J92" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K92" s="42"/>
-      <c r="L92" s="42"/>
+      <c r="K92" s="41"/>
+      <c r="L92" s="41"/>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A93" s="40">
+      <c r="A93" s="39">
         <v>191</v>
       </c>
-      <c r="B93" s="40" t="s">
+      <c r="B93" s="39" t="s">
         <v>528</v>
       </c>
-      <c r="C93" s="40" t="s">
+      <c r="C93" s="39" t="s">
         <v>664</v>
       </c>
-      <c r="D93" s="42"/>
-      <c r="E93" s="40" t="s">
+      <c r="D93" s="41"/>
+      <c r="E93" s="39" t="s">
         <v>665</v>
       </c>
-      <c r="F93" s="53"/>
-      <c r="G93" s="52">
+      <c r="F93" s="50"/>
+      <c r="G93" s="49">
         <v>39435</v>
       </c>
-      <c r="H93" s="40" t="s">
+      <c r="H93" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I93" s="40">
+      <c r="I93" s="39">
         <v>2500</v>
       </c>
-      <c r="J93" s="40" t="s">
+      <c r="J93" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K93" s="42"/>
-      <c r="L93" s="42"/>
+      <c r="K93" s="41"/>
+      <c r="L93" s="41"/>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A94" s="40">
+      <c r="A94" s="39">
         <v>192</v>
       </c>
-      <c r="B94" s="40" t="s">
+      <c r="B94" s="39" t="s">
         <v>666</v>
       </c>
-      <c r="C94" s="40" t="s">
+      <c r="C94" s="39" t="s">
         <v>667</v>
       </c>
-      <c r="D94" s="42"/>
-      <c r="E94" s="40" t="s">
+      <c r="D94" s="41"/>
+      <c r="E94" s="39" t="s">
         <v>668</v>
       </c>
-      <c r="F94" s="53"/>
-      <c r="G94" s="52">
+      <c r="F94" s="50"/>
+      <c r="G94" s="49">
         <v>38021</v>
       </c>
-      <c r="H94" s="40" t="s">
+      <c r="H94" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I94" s="40">
+      <c r="I94" s="39">
         <v>4000</v>
       </c>
-      <c r="J94" s="40" t="s">
+      <c r="J94" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K94" s="42"/>
-      <c r="L94" s="42"/>
+      <c r="K94" s="41"/>
+      <c r="L94" s="41"/>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A95" s="40">
+      <c r="A95" s="39">
         <v>193</v>
       </c>
-      <c r="B95" s="40" t="s">
+      <c r="B95" s="39" t="s">
         <v>669</v>
       </c>
-      <c r="C95" s="40" t="s">
+      <c r="C95" s="39" t="s">
         <v>670</v>
       </c>
-      <c r="D95" s="42"/>
-      <c r="E95" s="40" t="s">
+      <c r="D95" s="41"/>
+      <c r="E95" s="39" t="s">
         <v>671</v>
       </c>
-      <c r="F95" s="53"/>
-      <c r="G95" s="52">
+      <c r="F95" s="50"/>
+      <c r="G95" s="49">
         <v>38414</v>
       </c>
-      <c r="H95" s="40" t="s">
+      <c r="H95" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I95" s="40">
+      <c r="I95" s="39">
         <v>3900</v>
       </c>
-      <c r="J95" s="40" t="s">
+      <c r="J95" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K95" s="42"/>
-      <c r="L95" s="42"/>
+      <c r="K95" s="41"/>
+      <c r="L95" s="41"/>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A96" s="40">
+      <c r="A96" s="39">
         <v>194</v>
       </c>
-      <c r="B96" s="40" t="s">
+      <c r="B96" s="39" t="s">
         <v>672</v>
       </c>
-      <c r="C96" s="40" t="s">
+      <c r="C96" s="39" t="s">
         <v>673</v>
       </c>
-      <c r="D96" s="42"/>
-      <c r="E96" s="40" t="s">
+      <c r="D96" s="41"/>
+      <c r="E96" s="39" t="s">
         <v>674</v>
       </c>
-      <c r="F96" s="53"/>
-      <c r="G96" s="52">
+      <c r="F96" s="50"/>
+      <c r="G96" s="49">
         <v>38899</v>
       </c>
-      <c r="H96" s="40" t="s">
+      <c r="H96" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I96" s="40">
+      <c r="I96" s="39">
         <v>3200</v>
       </c>
-      <c r="J96" s="40" t="s">
+      <c r="J96" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K96" s="42"/>
-      <c r="L96" s="42"/>
+      <c r="K96" s="41"/>
+      <c r="L96" s="41"/>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A97" s="40">
+      <c r="A97" s="39">
         <v>195</v>
       </c>
-      <c r="B97" s="40" t="s">
+      <c r="B97" s="39" t="s">
         <v>675</v>
       </c>
-      <c r="C97" s="40" t="s">
+      <c r="C97" s="39" t="s">
         <v>676</v>
       </c>
-      <c r="D97" s="42"/>
-      <c r="E97" s="40" t="s">
+      <c r="D97" s="41"/>
+      <c r="E97" s="39" t="s">
         <v>677</v>
       </c>
-      <c r="F97" s="53"/>
-      <c r="G97" s="52">
+      <c r="F97" s="50"/>
+      <c r="G97" s="49">
         <v>39158</v>
       </c>
-      <c r="H97" s="40" t="s">
+      <c r="H97" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I97" s="40">
+      <c r="I97" s="39">
         <v>2800</v>
       </c>
-      <c r="J97" s="40" t="s">
+      <c r="J97" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K97" s="42"/>
-      <c r="L97" s="42"/>
+      <c r="K97" s="41"/>
+      <c r="L97" s="41"/>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A98" s="40">
+      <c r="A98" s="39">
         <v>196</v>
       </c>
-      <c r="B98" s="40" t="s">
+      <c r="B98" s="39" t="s">
         <v>678</v>
       </c>
-      <c r="C98" s="40" t="s">
+      <c r="C98" s="39" t="s">
         <v>679</v>
       </c>
-      <c r="D98" s="42"/>
-      <c r="E98" s="40" t="s">
+      <c r="D98" s="41"/>
+      <c r="E98" s="39" t="s">
         <v>680</v>
       </c>
-      <c r="F98" s="53"/>
-      <c r="G98" s="52">
+      <c r="F98" s="50"/>
+      <c r="G98" s="49">
         <v>38831</v>
       </c>
-      <c r="H98" s="40" t="s">
+      <c r="H98" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I98" s="40">
+      <c r="I98" s="39">
         <v>3100</v>
       </c>
-      <c r="J98" s="40" t="s">
+      <c r="J98" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K98" s="42"/>
-      <c r="L98" s="42"/>
+      <c r="K98" s="41"/>
+      <c r="L98" s="41"/>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A99" s="40">
+      <c r="A99" s="39">
         <v>197</v>
       </c>
-      <c r="B99" s="40" t="s">
+      <c r="B99" s="39" t="s">
         <v>473</v>
       </c>
-      <c r="C99" s="40" t="s">
+      <c r="C99" s="39" t="s">
         <v>681</v>
       </c>
-      <c r="D99" s="42"/>
-      <c r="E99" s="40" t="s">
+      <c r="D99" s="41"/>
+      <c r="E99" s="39" t="s">
         <v>682</v>
       </c>
-      <c r="F99" s="53"/>
-      <c r="G99" s="52">
+      <c r="F99" s="50"/>
+      <c r="G99" s="49">
         <v>38860</v>
       </c>
-      <c r="H99" s="40" t="s">
+      <c r="H99" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I99" s="40">
+      <c r="I99" s="39">
         <v>3000</v>
       </c>
-      <c r="J99" s="40" t="s">
+      <c r="J99" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K99" s="42"/>
-      <c r="L99" s="42"/>
+      <c r="K99" s="41"/>
+      <c r="L99" s="41"/>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A100" s="40">
+      <c r="A100" s="39">
         <v>198</v>
       </c>
-      <c r="B100" s="40" t="s">
+      <c r="B100" s="39" t="s">
         <v>683</v>
       </c>
-      <c r="C100" s="40" t="s">
+      <c r="C100" s="39" t="s">
         <v>684</v>
       </c>
-      <c r="D100" s="42"/>
-      <c r="E100" s="40" t="s">
+      <c r="D100" s="41"/>
+      <c r="E100" s="39" t="s">
         <v>685</v>
       </c>
-      <c r="F100" s="53"/>
-      <c r="G100" s="52">
+      <c r="F100" s="50"/>
+      <c r="G100" s="49">
         <v>39254</v>
       </c>
-      <c r="H100" s="40" t="s">
+      <c r="H100" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I100" s="40">
+      <c r="I100" s="39">
         <v>2600</v>
       </c>
-      <c r="J100" s="40" t="s">
+      <c r="J100" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K100" s="42"/>
-      <c r="L100" s="42"/>
+      <c r="K100" s="41"/>
+      <c r="L100" s="41"/>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A101" s="40">
+      <c r="A101" s="39">
         <v>199</v>
       </c>
-      <c r="B101" s="40" t="s">
+      <c r="B101" s="39" t="s">
         <v>686</v>
       </c>
-      <c r="C101" s="40" t="s">
+      <c r="C101" s="39" t="s">
         <v>627</v>
       </c>
-      <c r="D101" s="42"/>
-      <c r="E101" s="40" t="s">
+      <c r="D101" s="41"/>
+      <c r="E101" s="39" t="s">
         <v>687</v>
       </c>
-      <c r="F101" s="53"/>
-      <c r="G101" s="52">
+      <c r="F101" s="50"/>
+      <c r="G101" s="49">
         <v>39460</v>
       </c>
-      <c r="H101" s="40" t="s">
+      <c r="H101" s="39" t="s">
         <v>634</v>
       </c>
-      <c r="I101" s="40">
+      <c r="I101" s="39">
         <v>2600</v>
       </c>
-      <c r="J101" s="40" t="s">
+      <c r="J101" s="39" t="s">
         <v>463</v>
       </c>
-      <c r="K101" s="42"/>
-      <c r="L101" s="42"/>
+      <c r="K101" s="41"/>
+      <c r="L101" s="41"/>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A102" s="40">
+      <c r="A102" s="39">
         <v>200</v>
       </c>
-      <c r="B102" s="40" t="s">
+      <c r="B102" s="39" t="s">
         <v>658</v>
       </c>
-      <c r="C102" s="40" t="s">
+      <c r="C102" s="39" t="s">
         <v>688</v>
       </c>
-      <c r="D102" s="42"/>
-      <c r="E102" s="40" t="s">
+      <c r="D102" s="41"/>
+      <c r="E102" s="39" t="s">
         <v>689</v>
       </c>
-      <c r="F102" s="53"/>
-      <c r="G102" s="52">
+      <c r="F102" s="50"/>
+      <c r="G102" s="49">
         <v>37881</v>
       </c>
-      <c r="H102" s="40" t="s">
+      <c r="H102" s="39" t="s">
         <v>690</v>
       </c>
-      <c r="I102" s="40">
+      <c r="I102" s="39">
         <v>4400</v>
       </c>
-      <c r="J102" s="40" t="s">
+      <c r="J102" s="39" t="s">
         <v>691</v>
       </c>
-      <c r="K102" s="42"/>
-      <c r="L102" s="42"/>
+      <c r="K102" s="41"/>
+      <c r="L102" s="41"/>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A103" s="40">
+      <c r="A103" s="39">
         <v>201</v>
       </c>
-      <c r="B103" s="40" t="s">
+      <c r="B103" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="C103" s="40" t="s">
+      <c r="C103" s="39" t="s">
         <v>692</v>
       </c>
-      <c r="D103" s="42"/>
-      <c r="E103" s="40" t="s">
+      <c r="D103" s="41"/>
+      <c r="E103" s="39" t="s">
         <v>693</v>
       </c>
-      <c r="F103" s="53"/>
-      <c r="G103" s="52">
+      <c r="F103" s="50"/>
+      <c r="G103" s="49">
         <v>38034</v>
       </c>
-      <c r="H103" s="40" t="s">
+      <c r="H103" s="39" t="s">
         <v>694</v>
       </c>
-      <c r="I103" s="40">
+      <c r="I103" s="39">
         <v>13000</v>
       </c>
-      <c r="J103" s="40" t="s">
+      <c r="J103" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="K103" s="42"/>
-      <c r="L103" s="42"/>
+      <c r="K103" s="41"/>
+      <c r="L103" s="41"/>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A104" s="40">
+      <c r="A104" s="39">
         <v>202</v>
       </c>
-      <c r="B104" s="40" t="s">
+      <c r="B104" s="39" t="s">
         <v>696</v>
       </c>
-      <c r="C104" s="40" t="s">
+      <c r="C104" s="39" t="s">
         <v>697</v>
       </c>
-      <c r="D104" s="42"/>
-      <c r="E104" s="40" t="s">
+      <c r="D104" s="41"/>
+      <c r="E104" s="39" t="s">
         <v>698</v>
       </c>
-      <c r="F104" s="53"/>
-      <c r="G104" s="52">
+      <c r="F104" s="50"/>
+      <c r="G104" s="49">
         <v>38581</v>
       </c>
-      <c r="H104" s="40" t="s">
+      <c r="H104" s="39" t="s">
         <v>699</v>
       </c>
-      <c r="I104" s="40">
+      <c r="I104" s="39">
         <v>6000</v>
       </c>
-      <c r="J104" s="40" t="s">
+      <c r="J104" s="39" t="s">
         <v>695</v>
       </c>
-      <c r="K104" s="42"/>
-      <c r="L104" s="42"/>
+      <c r="K104" s="41"/>
+      <c r="L104" s="41"/>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A105" s="40">
+      <c r="A105" s="39">
         <v>203</v>
       </c>
-      <c r="B105" s="40" t="s">
+      <c r="B105" s="39" t="s">
         <v>700</v>
       </c>
-      <c r="C105" s="40" t="s">
+      <c r="C105" s="39" t="s">
         <v>701</v>
       </c>
-      <c r="D105" s="42"/>
-      <c r="E105" s="40" t="s">
+      <c r="D105" s="41"/>
+      <c r="E105" s="39" t="s">
         <v>702</v>
       </c>
-      <c r="F105" s="53"/>
-      <c r="G105" s="52">
+      <c r="F105" s="50"/>
+      <c r="G105" s="49">
         <v>37414</v>
       </c>
-      <c r="H105" s="40" t="s">
+      <c r="H105" s="39" t="s">
         <v>703</v>
       </c>
-      <c r="I105" s="40">
+      <c r="I105" s="39">
         <v>6500</v>
       </c>
-      <c r="J105" s="40" t="s">
+      <c r="J105" s="39" t="s">
         <v>704</v>
       </c>
-      <c r="K105" s="42"/>
-      <c r="L105" s="42"/>
+      <c r="K105" s="41"/>
+      <c r="L105" s="41"/>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A106" s="40">
+      <c r="A106" s="39">
         <v>204</v>
       </c>
-      <c r="B106" s="40" t="s">
+      <c r="B106" s="39" t="s">
         <v>705</v>
       </c>
-      <c r="C106" s="40" t="s">
+      <c r="C106" s="39" t="s">
         <v>706</v>
       </c>
-      <c r="D106" s="42"/>
-      <c r="E106" s="40" t="s">
+      <c r="D106" s="41"/>
+      <c r="E106" s="39" t="s">
         <v>707</v>
       </c>
-      <c r="F106" s="53"/>
-      <c r="G106" s="52">
+      <c r="F106" s="50"/>
+      <c r="G106" s="49">
         <v>37414</v>
       </c>
-      <c r="H106" s="40" t="s">
+      <c r="H106" s="39" t="s">
         <v>708</v>
       </c>
-      <c r="I106" s="40">
+      <c r="I106" s="39">
         <v>10000</v>
       </c>
-      <c r="J106" s="40" t="s">
+      <c r="J106" s="39" t="s">
         <v>709</v>
       </c>
-      <c r="K106" s="42"/>
-      <c r="L106" s="42"/>
+      <c r="K106" s="41"/>
+      <c r="L106" s="41"/>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
+      <c r="A107" s="39">
         <v>205</v>
       </c>
-      <c r="B107" s="40" t="s">
+      <c r="B107" s="39" t="s">
         <v>710</v>
       </c>
-      <c r="C107" s="40" t="s">
+      <c r="C107" s="39" t="s">
         <v>711</v>
       </c>
-      <c r="D107" s="42"/>
-      <c r="E107" s="40" t="s">
+      <c r="D107" s="41"/>
+      <c r="E107" s="39" t="s">
         <v>712</v>
       </c>
-      <c r="F107" s="53"/>
-      <c r="G107" s="52">
+      <c r="F107" s="50"/>
+      <c r="G107" s="49">
         <v>37414</v>
       </c>
-      <c r="H107" s="40" t="s">
+      <c r="H107" s="39" t="s">
         <v>713</v>
       </c>
-      <c r="I107" s="40">
+      <c r="I107" s="39">
         <v>12008</v>
       </c>
-      <c r="J107" s="40" t="s">
+      <c r="J107" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="K107" s="42"/>
-      <c r="L107" s="42"/>
+      <c r="K107" s="41"/>
+      <c r="L107" s="41"/>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A108" s="40">
+      <c r="A108" s="39">
         <v>206</v>
       </c>
-      <c r="B108" s="40" t="s">
+      <c r="B108" s="39" t="s">
         <v>607</v>
       </c>
-      <c r="C108" s="40" t="s">
+      <c r="C108" s="39" t="s">
         <v>714</v>
       </c>
-      <c r="D108" s="42"/>
-      <c r="E108" s="40" t="s">
+      <c r="D108" s="41"/>
+      <c r="E108" s="39" t="s">
         <v>715</v>
       </c>
-      <c r="F108" s="53"/>
-      <c r="G108" s="52">
+      <c r="F108" s="50"/>
+      <c r="G108" s="49">
         <v>37414</v>
       </c>
-      <c r="H108" s="40" t="s">
+      <c r="H108" s="39" t="s">
         <v>716</v>
       </c>
-      <c r="I108" s="40">
+      <c r="I108" s="39">
         <v>8300</v>
       </c>
-      <c r="J108" s="40" t="s">
+      <c r="J108" s="39" t="s">
         <v>186</v>
       </c>
-      <c r="K108" s="42"/>
-      <c r="L108" s="42"/>
+      <c r="K108" s="41"/>
+      <c r="L108" s="41"/>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:12" x14ac:dyDescent="0.25"/>
@@ -17959,7 +18201,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE8E9C09-3F9C-4C70-96D1-E062DC09EEB6}">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
@@ -17975,145 +18217,145 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="52" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="52" t="s">
         <v>855</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="53" t="s">
         <v>330</v>
       </c>
-      <c r="B2" s="57">
+      <c r="B2" s="54">
         <f ca="1">TODAY()</f>
-        <v>45206</v>
-      </c>
-      <c r="C2" s="58" t="s">
+        <v>45228</v>
+      </c>
+      <c r="C2" s="55" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="53" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="59">
+      <c r="B3" s="56">
         <f ca="1">NOW()</f>
-        <v>45206.817777314813</v>
-      </c>
-      <c r="C3" s="58" t="s">
+        <v>45228.511526273149</v>
+      </c>
+      <c r="C3" s="55" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="53" t="s">
         <v>334</v>
       </c>
-      <c r="B4" s="58">
+      <c r="B4" s="55">
         <f ca="1">YEAR(B2)</f>
         <v>2023</v>
       </c>
-      <c r="C4" s="58" t="s">
+      <c r="C4" s="55" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="53" t="s">
         <v>336</v>
       </c>
-      <c r="B5" s="58">
+      <c r="B5" s="55">
         <f ca="1">MONTH(B2)</f>
         <v>10</v>
       </c>
-      <c r="C5" s="58" t="s">
+      <c r="C5" s="55" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="56" t="s">
+      <c r="A6" s="53" t="s">
         <v>338</v>
       </c>
-      <c r="B6" s="58">
+      <c r="B6" s="55">
         <f ca="1">DAY(B2)</f>
-        <v>7</v>
-      </c>
-      <c r="C6" s="58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="55" t="s">
         <v>339</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="B7" s="58">
+      <c r="B7" s="55">
         <f ca="1">HOUR(B3)</f>
-        <v>19</v>
-      </c>
-      <c r="C7" s="58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="53" t="s">
         <v>342</v>
       </c>
-      <c r="B8" s="58">
+      <c r="B8" s="55">
         <f ca="1">MINUTE(B3)</f>
-        <v>37</v>
-      </c>
-      <c r="C8" s="58" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="55" t="s">
         <v>343</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="56" t="s">
+      <c r="A9" s="53" t="s">
         <v>344</v>
       </c>
-      <c r="B9" s="58">
+      <c r="B9" s="55">
         <f ca="1">SECOND(B3)</f>
         <v>36</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="55" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="56" t="s">
+      <c r="A10" s="53" t="s">
         <v>346</v>
       </c>
-      <c r="B10" s="57">
+      <c r="B10" s="54">
         <f ca="1">EDATE(B2,B5)</f>
-        <v>45511</v>
-      </c>
-      <c r="C10" s="58" t="s">
+        <v>45533</v>
+      </c>
+      <c r="C10" s="55" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="56" t="s">
+      <c r="A11" s="53" t="s">
         <v>348</v>
       </c>
-      <c r="B11" s="57">
+      <c r="B11" s="54">
         <f ca="1">EOMONTH(B2,B5)</f>
         <v>45535</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="55" t="s">
         <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="53" t="s">
         <v>350</v>
       </c>
-      <c r="B12" s="57">
+      <c r="B12" s="54">
         <f>DATEVALUE(E12)</f>
         <v>45139</v>
       </c>
-      <c r="C12" s="58" t="s">
+      <c r="C12" s="55" t="s">
         <v>351</v>
       </c>
       <c r="E12" s="32" t="s">
@@ -18121,14 +18363,14 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="53" t="s">
         <v>352</v>
       </c>
-      <c r="B13" s="60">
+      <c r="B13" s="57">
         <f>TIMEVALUE(E13)</f>
         <v>0.97060185185185188</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="55" t="s">
         <v>353</v>
       </c>
       <c r="E13" s="33" t="s">
@@ -18136,158 +18378,158 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="53" t="s">
         <v>354</v>
       </c>
-      <c r="B14" s="57">
+      <c r="B14" s="54">
         <f ca="1">WORKDAY(B2,B6)</f>
-        <v>45216</v>
-      </c>
-      <c r="C14" s="58" t="s">
+        <v>45267</v>
+      </c>
+      <c r="C14" s="55" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="53" t="s">
         <v>356</v>
       </c>
-      <c r="B15" s="57">
+      <c r="B15" s="54">
         <f ca="1">WORKDAY.INTL(B2,B6,1)</f>
-        <v>45216</v>
-      </c>
-      <c r="C15" s="58" t="s">
+        <v>45267</v>
+      </c>
+      <c r="C15" s="55" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="53" t="s">
         <v>358</v>
       </c>
-      <c r="B16" s="58">
+      <c r="B16" s="55">
         <f ca="1">NETWORKDAYS(B2,B10)</f>
-        <v>218</v>
-      </c>
-      <c r="C16" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="55" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="53" t="s">
         <v>360</v>
       </c>
-      <c r="B17" s="58">
+      <c r="B17" s="55">
         <f ca="1">NETWORKDAYS.INTL(B2,B10,1)</f>
-        <v>218</v>
-      </c>
-      <c r="C17" s="58" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17" s="55" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="56" t="s">
+      <c r="A18" s="53" t="s">
         <v>362</v>
       </c>
-      <c r="B18" s="61">
+      <c r="B18" s="58">
         <f ca="1">DATE(B4,B5,B6)</f>
-        <v>45206</v>
-      </c>
-      <c r="C18" s="58" t="s">
+        <v>45228</v>
+      </c>
+      <c r="C18" s="55" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="56" t="s">
+      <c r="A19" s="53" t="s">
         <v>364</v>
       </c>
-      <c r="B19" s="62">
+      <c r="B19" s="59">
         <f ca="1">TIME(B7,B8,B9)</f>
-        <v>0.81777777777777771</v>
-      </c>
-      <c r="C19" s="58" t="s">
+        <v>0.5115277777777778</v>
+      </c>
+      <c r="C19" s="55" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="56" t="s">
+      <c r="A20" s="53" t="s">
         <v>366</v>
       </c>
-      <c r="B20" s="58">
+      <c r="B20" s="55">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>7</v>
-      </c>
-      <c r="C20" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="55" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="53" t="s">
         <v>368</v>
       </c>
-      <c r="B21" s="58">
+      <c r="B21" s="55">
         <f ca="1">WEEKDAY(B2,1)</f>
-        <v>7</v>
-      </c>
-      <c r="C21" s="58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="55" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="56" t="s">
+      <c r="A22" s="53" t="s">
         <v>369</v>
       </c>
-      <c r="B22" s="58">
+      <c r="B22" s="55">
         <f ca="1">_xlfn.DAYS(B10,B2)</f>
         <v>305</v>
       </c>
-      <c r="C22" s="58" t="s">
+      <c r="C22" s="55" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="56" t="s">
+      <c r="A23" s="53" t="s">
         <v>371</v>
       </c>
-      <c r="B23" s="58">
+      <c r="B23" s="55">
         <f ca="1">DAYS360(B2,B10,FALSE)</f>
         <v>300</v>
       </c>
-      <c r="C23" s="58" t="s">
+      <c r="C23" s="55" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="56" t="s">
+      <c r="A24" s="53" t="s">
         <v>373</v>
       </c>
-      <c r="B24" s="58">
+      <c r="B24" s="55">
         <f ca="1">DATEDIF(B2,B11,"D")</f>
-        <v>329</v>
-      </c>
-      <c r="C24" s="58" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="55" t="s">
         <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
+      <c r="A25" s="60"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+      <c r="A26" s="61" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="65" t="s">
+      <c r="A27" s="62" t="s">
         <v>376</v>
       </c>
       <c r="B27" s="31"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="60" t="s">
         <v>377</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="60" t="s">
         <v>378</v>
       </c>
     </row>
